--- a/database.xlsx
+++ b/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="448">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -224,6 +224,9 @@
     <t>中国</t>
   </si>
   <si>
+    <t>1909年2月，法国《费加罗》报刊出了《未来主义宣言》</t>
+  </si>
+  <si>
     <t>斯特拉文斯基《火鸟》一夜成名</t>
   </si>
   <si>
@@ -239,24 +242,16 @@
     <t>第二次工业革命带来技术飞跃，大机器生产，工业噪音</t>
   </si>
   <si>
-    <t>未来主义者们颂扬机器的速度与力量</t>
-  </si>
-  <si>
-    <t>斯特拉文斯基《春之祭》</t>
-  </si>
-  <si>
-    <t>第一次世界大战</t>
+    <t>未来主义者们拒绝歌颂旧文化，而是改造新文化。他们从现代科学，自动机器，新媒体科技中看到新文明的曙光。颂扬机器的速度与力量，他们相信人类可以借由自己发明的机器来推翻停滞、静态的旧世界，超越自然以及现有社会兼职对人的限制</t>
+  </si>
+  <si>
+    <t>明治天皇去世，明治维新时代结束</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">苏黎世达达，巴尔和查拉使用缝纫机为诗歌朗诵伴奏。“声音诗”，任意摆放文字使声音成为诗。
-马塞尔·杜尚1916年的达达主义作品《一个谣传的秘密》（A Bruit Secret，一团纱线里面有一个神秘的物体，当摇晃时这个物体会发出声音）“声音雕塑”
+      <t xml:space="preserve">斯特拉文斯基《春之祭》
+3月9日，罗马康斯坦丁剧院，马里内帝和卢梭罗疯狂的自由诗朗诵演说后，普拉泰拉的未来主义音乐表演引起观众狂热反应（扔垃圾）并最终成就一场未来主义丑闻剧
+俄国未来派结合‘超越’和‘心’发明‘宙姆’一词。将意大利未来派的机械声音和萨满、神秘学等自然“语言”结合
 </t>
     </r>
     <r>
@@ -266,25 +261,123 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>卢梭罗提出【噪音艺术】Art del Rumori</t>
+      <t xml:space="preserve">
+杜尚《音乐勘误表》20世纪最早的概率作曲实验</t>
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">未来主义艺术家马里内帝《摧毁句法》宣言
+马里内帝访俄，军医艺术家库布林接待
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1913年苏黎世伏尔泰歌厅，达达起源地</t>
+    </r>
+  </si>
+  <si>
+    <t>马里内帝个人巧妙运用大众传播媒体来推广未来主义运动，从文学、造型艺术家响应后，音乐剧场摄影服装建筑等艺术家加入</t>
+  </si>
+  <si>
+    <t>未来主义者认为机器给人类带来肢体的延伸，感官能力的扩张，能够帮助人类超越自我，超越旧文明甚至是死亡。因此他们不是将机器拟人化，而是反过来将人性拟物化。因此他们支持战争，认为其是推动世界进步的力量</t>
+  </si>
+  <si>
+    <t>1914年米兰剧院的《未来主义噪音音调大会》，Luigi Russolo路易吉卢梭罗退出他的三首噪音曲目</t>
+  </si>
+  <si>
+    <t>卢梭罗发表《未来主义宣言——噪音的艺术》，可能是现代主义脉络中以噪音艺术为主题最早的文字《L'arte dei rumori》</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>以马里内帝为首的未来主义文人们，无一例外的在创作中表现出对于机械文明的高度狂热，在现代主义追求的形式与内容统一的内在驱动力中，噪音文学理论合乎逻辑的下一步发展，就是由修辞上的噪音走向直接制造噪音</t>
+  </si>
+  <si>
+    <t>古典乐派脉络出身的未来主义音乐家如普拉泰拉，卡萨沃拉，米克斯等人。追求非传统的和声，并引入非传统乐器的发声工具到管弦乐作曲中。</t>
+  </si>
+  <si>
+    <t>第一次世界大战
+马里内帝发起意大利加入一战的示威，认识墨索里尼</t>
+  </si>
+  <si>
+    <t>达达人开创了一种反叙事，反沟通，反高潮的反音乐形态，这里没有传统观念撒花姑娘的乐谱，没有传统音乐会的形式，更没有现代音乐的高度技术。达达噪音的沟通方法是打断、干扰与介入。</t>
+  </si>
+  <si>
+    <t>达达与未来派唯一的区别在于未来派强烈的民族主义立场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苏黎世达达，巴尔和查拉使用缝纫机为诗歌朗诵伴奏。“声音诗”，任意摆放文字使声音成为诗。
+马塞尔·杜尚1916年的达达主义作品《一个谣传的秘密》（A Bruit Secret，一团纱线里面有一个神秘的物体，当摇晃时这个物体会发出声音）“声音雕塑”
+</t>
+  </si>
+  <si>
+    <t>卢梭罗发行了《噪音的艺术》小册子
+《达达宣言》嘲讽的态度来重复未来主义的修辞</t>
+  </si>
+  <si>
+    <t>卢梭罗提出【噪音艺术】Art del Rumori</t>
+  </si>
+  <si>
+    <t>卢梭罗强调，不协和音程的音色本身仍受制于传统交响乐团的乐器和编制，为了将工业时代的噪音美学推展至顶点，应创造全新的音色、和声与结构，创造全新的乐器、记谱系统和聆听系统</t>
+  </si>
+  <si>
+    <t>【非洲主义】影响遍布20世纪各种西方现代艺术，截取非洲某些文化元素，将其去脉络化植入欧洲当代文化脉络中，制造一种绝对不可能正常理解的【他者】来挑战艺术建制</t>
+  </si>
+  <si>
+    <t>工业与政治既得利益阶层垄断了国家机器，他们以土地、民族、传统为名建构资本主义的合理性，铺天盖地的将社会元素自然化为一套完整语言，同时将所有民间机制纳入意识形态国家机器管控的范围，以权力交换诱惑，以爱国之名洗脑。而战争就是这种极度合理性之下的疯狂行为</t>
+  </si>
+  <si>
     <t>德彪西逝世</t>
   </si>
   <si>
+    <t>第一次世界大战
+马里内帝与未来主义同事成立了意大利未来党，并提出新国家建设纲领：将意大利从教廷、王权、婚姻、议会的智库下解放出来</t>
+  </si>
+  <si>
+    <t>对俄国而言，新科技、新政治、新艺术与革命理想一回事（解放无产阶级的武器）。现代主义</t>
+  </si>
+  <si>
     <t>东京帝国大学的学生组成“新人会”，是最早的日本学生组织</t>
   </si>
   <si>
-    <t>苏联成立</t>
+    <t>巴黎嘉莫堂（salle gaveau）的达达节是达达混乱年代走向终结的开始（林.p56）女装，扮鬼，无休止弹三连音，无意义的音节诗，这种自我贫瘠化的表演</t>
+  </si>
+  <si>
+    <t>卢梭罗【噪音艺术】的理论与创作影响了1920年前后的各种前卫声音实验。包括斯特拉文斯基、瓦黑斯等音乐家也对卢梭罗噪音乐器充满兴趣</t>
+  </si>
+  <si>
+    <t>法国媒体对达达的表演大肆报道，达达成为了一种文艺风格的同时也以为着恶搞手段的失效</t>
+  </si>
+  <si>
+    <t>意大利共党元老葛兰西应托洛斯基之邀写《关于未来主义的一封信》，苏联早期赞赏并支持未来主义</t>
+  </si>
+  <si>
+    <t>俄国无产阶级革命胜利后，作曲家阿夫拉莫夫在石油工业城巴库举办《汽笛交响乐》，全市机械汽笛一同齐奏17度音</t>
+  </si>
+  <si>
+    <t>苏联成立
+意大利黑衫军以街头暴力获取政权，法西斯党中的未来主义者和社会主义者集体脱党。自由主义者、贵族和国家主义者大量入党导致其右倾化</t>
   </si>
   <si>
     <t>勋伯格提出12音理论</t>
   </si>
   <si>
+    <t>墨索里尼取得执政权</t>
+  </si>
+  <si>
     <t>史特维斯在包豪斯活动上朗诵《原声奏鸣曲》，试图表现原始语言，语言降低到基本元素</t>
   </si>
   <si>
+    <t>斯大林上台</t>
+  </si>
+  <si>
     <t>Kurt Weill “绝对广播”——包括噪音、自然声音和听不到的声音</t>
   </si>
   <si>
@@ -300,25 +393,60 @@
     <t>日本举办特雷门琴和马特诺琴的视奏会</t>
   </si>
   <si>
-    <t>未来主义者 Filippo Tommaso Marinetti's  的声音蒙太奇作品Radio Sintesi</t>
-  </si>
-  <si>
-    <t>勋伯格被赶出普鲁士艺术学院，前往美国任教（波士顿、洛杉矶</t>
+    <t>“三月事件”、“十月事件”，日本帝国陆海军走向分裂</t>
+  </si>
+  <si>
+    <t>德国失业率30%</t>
+  </si>
+  <si>
+    <t>“五一五事件”海军少壮派军官刺杀首相犬养毅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未来主义者 Filippo Tommaso Marinetti's  的声音蒙太奇作品Radio Sintesi
+</t>
+  </si>
+  <si>
+    <r>
+      <t>勋伯格被赶出普鲁士艺术学院，前往美国任教（波士顿、洛杉矶
+迪培罗与马里内帝在米兰广播电台播出音节诗现场朗诵，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是未来主义者第一次用广播发声</t>
+    </r>
   </si>
   <si>
     <t>纳粹党上台，开始宣传并迫害犹太人</t>
   </si>
   <si>
-    <t>京都帝国大学法学部教授泷川幸辰被文部省解职，师生反抗政府失败</t>
+    <t>1933年未来主义无线电宣言《辐射》是未来主义最后的宣言之一，马里内帝与皮诺.马斯纳塔（Pino Masnata）宣告未来主义曾经一度鼓吹的机械艺术时代之终结。</t>
+  </si>
+  <si>
+    <t>京都帝国大学法学部教授泷川幸辰被文部省解职，师生反抗政府失败
+日本摆脱萧条，并为了避免通胀削减了武器军备赤字开支，导致民族主义者强烈的负面反应。</t>
+  </si>
+  <si>
+    <t>杜尚1934年《绿盒》，观念作曲（影响Cage）</t>
+  </si>
+  <si>
+    <t>苏联文化部长日丹诺夫出台文化政策，使得社会主义现实主义成为唯一的苏联合法风格，前卫实验被打成小资产阶级、无政府主义和颓废主义</t>
+  </si>
+  <si>
+    <t>德国赛璐璐磁带</t>
   </si>
   <si>
     <t>伊福部昭管弦乐《日本狂想曲》，被亚历山大.齐尔品访问亚洲演出时发掘此人，童年受到斯特拉文斯基影响</t>
   </si>
   <si>
+    <t>勋伯格弟子韦伯恩《变奏曲》（作品27号）发挥序列主义手法</t>
+  </si>
+  <si>
     <t>二二六事变</t>
-  </si>
-  <si>
-    <t>勋伯格弟子韦伯恩《变奏曲》（作品27号）发挥序列主义手法</t>
   </si>
   <si>
     <t>侵华战争</t>
@@ -348,6 +476,12 @@
 广岛长崎原子弹，民众对美军的抵触自此开始</t>
   </si>
   <si>
+    <t>杜步菲Jean Dubuffet发明“原生艺术”Art Brut一次，显现出强烈原创性的特征</t>
+  </si>
+  <si>
+    <t>二战后施托克豪森得以进入科隆高等音乐学院，学习各种风格作曲和20世纪上半叶现代乐大师的作品</t>
+  </si>
+  <si>
     <t>第二次世界大战
 盟军战胜，美军占领日本
 联合国成立</t>
@@ -388,7 +522,25 @@
 勋伯格12天写完歌剧《华沙幸存者》悼念犹太人同胞</t>
   </si>
   <si>
+    <t>美军指挥官Lucius D.Clay对德国文化机构展开了去除纳粹意识形态的大清洗</t>
+  </si>
+  <si>
+    <t>德国战败后的文化真空成为了新音乐发展前所未有的契机</t>
+  </si>
+  <si>
+    <t>Pierre Scharffer开创性的使用磁带录音技术创造了具象音乐Music Concrete，
+并委派为【具象音乐研究小组组长】GRMC</t>
+  </si>
+  <si>
+    <t>法国广播公司开始关注投资新录音美学的开发
+德国作曲家Herbert Eimert任西北德广播电台的音乐节目策划。和Robert Beyer、人工合成专家Werner Meyer-Eppler成立电子音乐工作室studio Fur Elektronische Musik）</t>
+  </si>
+  <si>
     <t>随着美苏冷战开始，遏制共产主义成为美国意识形态上的优先事项。同时美对日政策也同年开始转向扶植其经济独立复苏。</t>
+  </si>
+  <si>
+    <t>具体音乐不强调音源（剥离音源），强调声音的造型抽象，其方法与拼贴手法吻合，远离了勋伯格的12音理论
+德国电子音乐的起源则是勋伯格12音理论的影响和延伸</t>
   </si>
   <si>
     <t>战后通货膨胀加剧，青年学生生活困难</t>
@@ -410,7 +562,16 @@
     <t>东京通信工业公司独立开发G-type磁带录音机</t>
   </si>
   <si>
+    <t>科隆录音室的合成系统：sine/saw osc，ring modulate，white noise osc，filter，pitch shift record，4ch type-recorder</t>
+  </si>
+  <si>
     <t>朝鲜战争爆发</t>
+  </si>
+  <si>
+    <t>1950年代初的电声实验，为后来的电子合成技术打下了理论基础</t>
+  </si>
+  <si>
+    <t>50年代的合成器在没有工程师背景的作曲家而言是难以使用的</t>
   </si>
   <si>
     <t>“实验工坊”电子音乐工作室成立。Sony 赞助制作实验性电子音乐</t>
@@ -440,6 +601,9 @@
 同年，Cage创作《4’33》</t>
   </si>
   <si>
+    <t>施托克豪森在巴黎参加梅西安的《节奏与美学》课程，认识舍费尔，进入法国广播公司创作了其第一首具象音乐作品《Etude（练习曲——具象音乐）》</t>
+  </si>
+  <si>
     <t>4分33秒是声音艺术史上的一个里程碑，在观念上cage用近乎行为艺术的方式和观念突破了“音乐”的界限，强调了受众的听觉主体</t>
   </si>
   <si>
@@ -453,7 +617,14 @@
     <t>Gene Krupa三重奏赴日巡演</t>
   </si>
   <si>
+    <t>施托克豪森回德，在科隆录音室创作《Studie I（研习1）》</t>
+  </si>
+  <si>
     <t>斯大林去世。国际共产主义运动出现“和平共处”方向调整的趋势</t>
+  </si>
+  <si>
+    <t>20世纪现代物理学颠覆了古典哲学的时空观。施托克豪森发现短脉冲波可以作为“乐音”（例如将贝多芬交响曲压缩为0.5秒）
+这种时空观接近印度教佛教的神秘主义传统，“宇宙音乐”</t>
   </si>
   <si>
     <t>战后日本的第一批作曲家大都是40年代中后期接受的高等教育。三人会的成立是为了接活养活自己的同时能够有发表个人作品的机会。</t>
@@ -475,6 +646,9 @@
     <t>1954年美国在比基尼环礁爆炸氢弹污染了第五福龙丸号渔船，民间对核武器的游行抗议。</t>
   </si>
   <si>
+    <t>一柳慧渡美前往纽约茱莉亚音乐学院学习</t>
+  </si>
+  <si>
     <t>越南战争（第二次印度支那战争）开始，美军开始派兵</t>
   </si>
   <si>
@@ -493,6 +667,9 @@
     <t>http://www.piaoa.net/n_39678228.html</t>
   </si>
   <si>
+    <t>泽纳西斯进入舍费尔的GRMC，该时期以录制自然音，以方程式重组录音为主要创作方法</t>
+  </si>
+  <si>
     <t>苏共20大召开，赫鲁晓夫批判斯大林</t>
   </si>
   <si>
@@ -504,7 +681,8 @@
   </si>
   <si>
     <t>《中央公论》刊载深井七郎的小说《楢山节考》“弃老”故事。提倡回归被战争和美军压抑的传统。
-富田勋为1956年澳大利亚奥运会日本女子体操队作曲</t>
+富田勋为1956年澳大利亚奥运会日本女子体操队作曲
+一柳慧、小野洋子结婚</t>
   </si>
   <si>
     <t>岸信介访美。主张修改日美安全条约
@@ -512,12 +690,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>世博会。勒·柯布西耶（Le Corbusier）的作品。埃德加·瓦雷兹（Edgard Varèse）的电子音乐作品Poème électronique和伊阿尼斯·泽纳基斯（Iannis Xenakis）的一个录有煤的燃烧声的磁带作品Concret PH，通过展区里的450个扬声器反复播放。伴随这个声音装置的还有幻灯片和电影，这就使得整个展区成为一个多媒体景观，但同时</t>
     </r>
     <r>
@@ -528,22 +700,39 @@
         <charset val="134"/>
       </rPr>
       <t>它也是第一个具有显著意义的声音装置，声音和空间这两股分离的力量第一次被放到一起
-1958 年，约翰 · 凯奇转到纽约的 New School 任教</t>
+1958 年，约翰 · 凯奇转到纽约的 New School 任教
+泽纳西斯《具象双曲线》</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-美国Art Blakey爵士信使乐团发表专辑《Moaning》</t>
+    <r>
+      <t xml:space="preserve">
+美国Art Blakey爵士信使乐团发表专辑《Moaning》
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>舍费尔改组GRMC为GRM（以为前任领导人亨利舍费尔做了太多的电影声音与剧场作品）</t>
+    </r>
   </si>
   <si>
     <t>黛敏郎《涅槃交响曲》，首次采用民族题材，启发后来日本作曲家从现代音乐技法回归民族</t>
   </si>
   <si>
     <t>约200万工会组织成员参与罢工，反对修改日美安保条约</t>
+  </si>
+  <si>
+    <t>一柳慧参加John Cage讲座，受其影响开始使用图形乐谱和不确定性音乐作曲，参加激浪派运动</t>
   </si>
   <si>
     <t xml:space="preserve">拉蒙特 · 扬创作《乌龟，他的梦和旅程》，由令鼓膜难于承受的单一元音合声组成，并配合投影。他和查杰拉（ MarZazeela ）以及“永恒音乐剧场”合作设计的《梦之屋》，是一个包含了电子音乐和光环境的复合装置，偶尔配上人声和乐器音乐，整个环境给人以东方仪式的印象。
 　　同期，李格蒂在一次关于未来音乐的讨论会上要求大家静坐注视黑板，他称这些集中注意力等待着的观众为这件集体作品的作者。观众渐渐不耐烦而进行抗议，声音越来越高昂，这些都被录下来成为八分钟的偶发音乐。
+舍费尔以Electroacoustique之名重新定义具象音乐，即“电子幻听音乐”
 </t>
   </si>
   <si>
@@ -554,6 +743,9 @@
     <t>北越共产党开始起义。</t>
   </si>
   <si>
+    <t>1960年代起，布列兹奠定基础的后序列音乐成为了法国音乐学院现代乐体系唯一的代表风格，具象音乐基本被高等教育排除，只在电子音乐中心保留了一小块领地。</t>
+  </si>
+  <si>
     <t>The Ventures（投机者乐队）成军，形成20世纪六十年代的电吉他风潮，并席卷日本。</t>
   </si>
   <si>
@@ -571,13 +763,28 @@
     <t>JFK当选美国总统</t>
   </si>
   <si>
+    <t>磁带录音机价格走向平民化</t>
+  </si>
+  <si>
     <t>Group Ongaku（音乐小组）以“音乐”之名，追求革新的音乐而批判保守的制度</t>
   </si>
   <si>
     <t>9月，音乐小组首次大型演出《即兴演奏和音响（Sound Objets）》</t>
   </si>
   <si>
-    <t>日本爵士乐手们将他们的学习团体改名为【新世纪音乐研究所】，高柳昌行作为中心人物</t>
+    <r>
+      <t xml:space="preserve">日本爵士乐手们将他们的学习团体改名为【新世纪音乐研究所】，高柳昌行作为中心人物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1961年8月大阪举办的“20世纪音乐研究所第四回现代音乐祭”发表Cage相关的作品、美国前卫音乐、以及自己的作品，被评论家吉田秀和称为“Cage Shock”，给予日本音乐界巨大的冲击</t>
+    </r>
   </si>
   <si>
     <t>激浪派在德国维斯巴登新音乐节上宣告成立。激浪派的活动多具广义的音乐性格，常被称为音乐会。艺术家们书写乐谱，但与一般乐谱不同的是其上可以有文章、图画、符号。音乐会的内容包括戏剧、舞蹈、物体、诗歌和声音，观众的反应是演出的一部分。由创始人马修纳斯所策划的维斯巴登激浪节共举行了十四场音乐会，演出了希金斯、白南准、佛斯特尔、拉蒙特 · 扬和凯奇等多人的作品。在威廉斯的长歌剧中，他用了四十五分钟敲锅的声音。此后，激浪派在世界各地举办了多场“音乐会
@@ -585,11 +792,15 @@
 佛斯特尔在阿姆斯特丹演出《摇滚》。他用起重机把一个正演奏摇滚乐典的音箱高高举起并砸下</t>
   </si>
   <si>
-    <t>中苏论战爆发，共同支持北越发动人民战争</t>
+    <t>中苏论战爆发，共同支持北越发动人民战争
+古巴导弹危机</t>
   </si>
   <si>
     <t>刀根康尚，东京画廊，声音装置（白布下面的磁带录音，掩饰物理音源）
 渡边贞夫伯克利留学爵士乐</t>
+  </si>
+  <si>
+    <t>一柳慧和小野洋子离婚</t>
   </si>
   <si>
     <t>美国支持南越军方推翻枪杀吴廷琰，军政府控制南越。
@@ -663,10 +874,12 @@
   </si>
   <si>
     <t xml:space="preserve">斯特拉文斯基《安魂圣歌》(Requiem Canticles,1965-1966)晚期转向序列主义音乐的标志
+Francois Bayle接手GRM行政，奠定其幻听作品官方代表作曲家的地位。
 </t>
   </si>
   <si>
-    <t>美国英国宣布迷幻剂违法</t>
+    <t>美国英国宣布迷幻剂违法
+中国文化大革命</t>
   </si>
   <si>
     <t>Ventures乐队，利物浦系摇滚，披头士系摇滚对日本年轻人和它们的音乐形成了深远的影响。被称为GS时代（Group Sounds）</t>
@@ -743,8 +956,24 @@
     </r>
   </si>
   <si>
-    <t>英国艺术家吉尔伯特和乔治在伦敦和杜塞尔多夫等地多次表演了他们的行为艺术《唱歌的雕塑》。
-Alvin Lucier：《I’m sitting in a room》，Brandeis University（compose）。Guggenheim Museum（perform）路斯尔记录和再记录自己的声音的声音，将录制结果重新在房间里一遍一遍地反复播放直到听到的不再是他的声音的声音，而是房间的谐振声，而谐振声保留了他讲话的节奏。</t>
+    <r>
+      <t xml:space="preserve">英国艺术家吉尔伯特和乔治在伦敦和杜塞尔多夫等地多次表演了他们的行为艺术《唱歌的雕塑》。
+Alvin Lucier：《I’m sitting in a room》，Brandeis University（compose）。Guggenheim Museum（perform）路斯尔记录和再记录自己的声音的声音，将录制结果重新在房间里一遍一遍地反复播放直到听到的不再是他的声音的声音，而是房间的谐振声，而谐振声保留了他讲话的节奏。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+泽纳西斯《Hibiki-Hana-Ma》（似乎和武满彻影响有关），应伊朗王后之邀为大阪世博会展出该作品，并未日本馆电音表演作曲</t>
+    </r>
+  </si>
+  <si>
+    <t>1967蒙特利尔世博会以“人的土地”为年度主题，颂扬人类对土地的改造和驾驭</t>
   </si>
   <si>
     <t>“使用电子器材便捷的制造音乐”是当时发展了二三十年的电子音乐技术第一次大规模的“落地”，尽管它给人带来的影响是听觉文化上的普及。</t>
@@ -756,7 +985,7 @@
     <t>地下摇滚乐队“头脑警察”成立（中村治雄，石塚俊明）</t>
   </si>
   <si>
-    <t>大阪世博会展出了当时最新的Moog模块合成器</t>
+    <t>大阪世博会展出了当时最新的Moog模块合成器。武满彻和美术家宇佐美圭司制作的多媒体镭射艺术表演影响了泽纳西斯，并应用在自己的表演中。</t>
   </si>
   <si>
     <t>尼克松访华</t>
@@ -798,6 +1027,12 @@
   <si>
     <t>秋吉敏子《孤军》使用外国人爵士大乐队来反向演绎日式传统题材的声音，享誉爵士乐界和国内国际，拿奖无数
 富田勋《雪花在跳舞》专辑使用电子音乐翻奏德彪西等古典作品，大受欢迎</t>
+  </si>
+  <si>
+    <t>GRM并入法国国家影音中心INA-GRM</t>
+  </si>
+  <si>
+    <t>诚然舍费尔对音乐学院少有影响力，但是作为采样音乐的祖师爷，其影响遍布20世纪后半的流行音乐、电子音乐、科技舞曲</t>
   </si>
   <si>
     <t>小杉武久《Catch-Wave》
@@ -840,6 +1075,9 @@
     <t>村上龙《无限接近于透明的蓝》小说，描写青年男女寻求刺激的颓废生活。（也许受越战时期美国的青年吸毒现象影响传入）</t>
   </si>
   <si>
+    <t>泽纳西斯自创的“数学教育与自动音乐中心”（77-84）为开端，以电子、电脑声音合成为主要创作方法</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -884,6 +1122,9 @@
     <t>Maryanne Amacher开始《Music for Sound-Joined Rooms》她研究某个特别建筑的建筑学特点，然后为每个房间、走廊、楼梯创作“声音事件”。</t>
   </si>
   <si>
+    <t>80年代的日本噪音乐手表示，他们的表演灵感来源并不来自所谓的未来主义，或是激浪派运动。而仅是对70年代朋克音乐、硬摇滚以及自由爵士乐以来的器材化（电吉他大失真、延时）形式化（即兴演奏）推至极限的一种类型</t>
+  </si>
+  <si>
     <t>JOJO广重在春天重新成立模仿摇滚乐队Hawkwind音乐的Corroded Marie（腐食的玛丽）</t>
   </si>
   <si>
@@ -949,7 +1190,13 @@
     <t>第一届 Sonambiente 音乐节</t>
   </si>
   <si>
+    <t>亚洲金融危机</t>
+  </si>
+  <si>
     <t>坂本龙一《BTTB》中Opus一曲纪念武满彻晚年创作的歌剧中获得的灵感</t>
+  </si>
+  <si>
+    <t>千年虫事件</t>
   </si>
   <si>
     <t>竹村延和《finale》服装设计展览用</t>
@@ -1063,6 +1310,9 @@
     <t>2000.12.9李振华策划“声音”展。张慧、王卫、石青《口语阶段》、《70kg+3.2m³》（录像装置）——张慧《失去的声音》街道市井采样</t>
   </si>
   <si>
+    <t>施托克豪森称911为反叛与无政府力量的象征Lucifer，比拟为伟大的总体艺术作品</t>
+  </si>
+  <si>
     <t>911美国恐怖袭击</t>
   </si>
   <si>
@@ -1182,6 +1432,9 @@
   <si>
     <t>Alan Licht《Sound Art》书
 德Christina Kubisch：Invisible/Inaudible：Five Electrical Walks跨界 “电子行走”</t>
+  </si>
+  <si>
+    <t>12月3日施托克豪森去世</t>
   </si>
   <si>
     <t>英.米尔扎（Taka Tak）印度矮柜、闪灯、转盘唱机、工业响声</t>
@@ -1686,11 +1939,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1733,6 +1986,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1783,14 +2042,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1803,16 +2092,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1823,37 +2105,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1873,9 +2124,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1888,8 +2138,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,25 +2170,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1944,12 +2203,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2022,7 +2275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,19 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,19 +2323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,25 +2335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,6 +2377,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2130,37 +2401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2178,31 +2425,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,23 +2856,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2639,61 +2936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2702,152 +2955,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2959,33 +3212,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2995,9 +3266,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3019,7 +3287,7 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3028,9 +3296,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3040,6 +3305,9 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3073,7 +3341,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3100,7 +3368,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4281,107 +4549,107 @@
   </cols>
   <sheetData>
     <row r="3" ht="50" customHeight="1" spans="2:2">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="2:4">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="86" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:4">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
     </row>
     <row r="10" ht="15" spans="2:4">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="89" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:4">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
     </row>
     <row r="12" ht="29.25" spans="2:4">
-      <c r="B12" s="83"/>
-      <c r="C12" s="83" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="89" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:4">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
     </row>
     <row r="14" ht="15" spans="2:4">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="89" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:4">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
     </row>
     <row r="16" ht="15" spans="2:4">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="89" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:4">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="89" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="15" spans="2:4">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" ht="15" spans="2:4">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="89" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4408,7 +4676,7 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4434,16 +4702,16 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A3" s="68">
+      <c r="A3" s="73">
         <v>1904</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -4453,10 +4721,10 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="69"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A4" s="70">
+      <c r="A4" s="75">
         <v>1905</v>
       </c>
       <c r="B4" s="12"/>
@@ -4464,10 +4732,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="71"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A5" s="70">
+      <c r="A5" s="75">
         <v>1906</v>
       </c>
       <c r="B5" s="12"/>
@@ -4479,10 +4747,10 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="71"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A6" s="70">
+      <c r="A6" s="75">
         <v>1907</v>
       </c>
       <c r="B6" s="12"/>
@@ -4490,62 +4758,62 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="71"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" ht="77.15" customHeight="1" spans="1:7">
-      <c r="A7" s="70">
+      <c r="A7" s="75">
         <v>1908</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="77" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="71"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" ht="50.6" customHeight="1" spans="1:7">
-      <c r="A8" s="70">
+      <c r="A8" s="75">
         <v>1909</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="71"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" ht="103.45" customHeight="1" spans="1:7">
-      <c r="A9" s="70">
+      <c r="A9" s="75">
         <v>1910</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="71"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" ht="50.6" customHeight="1" spans="1:7">
-      <c r="A10" s="70">
+      <c r="A10" s="75">
         <v>1911</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="77" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A11" s="70">
+      <c r="A11" s="75">
         <v>1912</v>
       </c>
       <c r="B11" s="12"/>
@@ -4553,10 +4821,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="71"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A12" s="70">
+      <c r="A12" s="75">
         <v>1913</v>
       </c>
       <c r="B12" s="12"/>
@@ -4564,10 +4832,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A13" s="70">
+      <c r="A13" s="75">
         <v>1914</v>
       </c>
       <c r="B13" s="12"/>
@@ -4575,10 +4843,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="71"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A14" s="70">
+      <c r="A14" s="75">
         <v>1915</v>
       </c>
       <c r="B14" s="12"/>
@@ -4586,36 +4854,36 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A15" s="70">
+      <c r="A15" s="75">
         <v>1916</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="71"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" ht="36.35" customHeight="1" spans="1:7">
-      <c r="A16" s="70">
+      <c r="A16" s="75">
         <v>1917</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="79" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" ht="48.2" customHeight="1" spans="1:7">
-      <c r="A17" s="70">
+      <c r="A17" s="75">
         <v>1918</v>
       </c>
       <c r="B17" s="12"/>
@@ -4623,10 +4891,10 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="71"/>
+      <c r="G17" s="76"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A18" s="70">
+      <c r="A18" s="75">
         <v>1919</v>
       </c>
       <c r="B18" s="12"/>
@@ -4634,10 +4902,10 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="76"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A19" s="70">
+      <c r="A19" s="75">
         <v>1920</v>
       </c>
       <c r="B19" s="12"/>
@@ -4645,10 +4913,10 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="71"/>
+      <c r="G19" s="76"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A20" s="70">
+      <c r="A20" s="75">
         <v>1921</v>
       </c>
       <c r="B20" s="12"/>
@@ -4656,10 +4924,10 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="76"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A21" s="70">
+      <c r="A21" s="75">
         <v>1922</v>
       </c>
       <c r="B21" s="12"/>
@@ -4667,10 +4935,10 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="71"/>
+      <c r="G21" s="76"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A22" s="70">
+      <c r="A22" s="75">
         <v>1923</v>
       </c>
       <c r="B22" s="12"/>
@@ -4678,23 +4946,23 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="76"/>
     </row>
     <row r="23" ht="22.35" customHeight="1" spans="1:7">
-      <c r="A23" s="70">
+      <c r="A23" s="75">
         <v>1924</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="77" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="71"/>
+      <c r="G23" s="76"/>
     </row>
     <row r="24" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A24" s="70">
+      <c r="A24" s="75">
         <v>1925</v>
       </c>
       <c r="B24" s="12"/>
@@ -4702,10 +4970,10 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="76"/>
     </row>
     <row r="25" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A25" s="70">
+      <c r="A25" s="75">
         <v>1926</v>
       </c>
       <c r="B25" s="12"/>
@@ -4713,10 +4981,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A26" s="70">
+      <c r="A26" s="75">
         <v>1927</v>
       </c>
       <c r="B26" s="12"/>
@@ -4724,10 +4992,10 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="76"/>
     </row>
     <row r="27" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A27" s="70">
+      <c r="A27" s="75">
         <v>1928</v>
       </c>
       <c r="B27" s="12"/>
@@ -4735,10 +5003,10 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="71"/>
+      <c r="G27" s="76"/>
     </row>
     <row r="28" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A28" s="70">
+      <c r="A28" s="75">
         <v>1929</v>
       </c>
       <c r="B28" s="12"/>
@@ -4746,10 +5014,10 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A29" s="70">
+      <c r="A29" s="75">
         <v>1930</v>
       </c>
       <c r="B29" s="12"/>
@@ -4757,10 +5025,10 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="71"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A30" s="70">
+      <c r="A30" s="75">
         <v>1931</v>
       </c>
       <c r="B30" s="12"/>
@@ -4768,10 +5036,10 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="76"/>
     </row>
     <row r="31" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A31" s="70">
+      <c r="A31" s="75">
         <v>1932</v>
       </c>
       <c r="B31" s="12"/>
@@ -4779,10 +5047,10 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="71"/>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A32" s="70">
+      <c r="A32" s="75">
         <v>1933</v>
       </c>
       <c r="B32" s="12"/>
@@ -4790,10 +5058,10 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A33" s="70">
+      <c r="A33" s="75">
         <v>1934</v>
       </c>
       <c r="B33" s="12"/>
@@ -4801,10 +5069,10 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="71"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A34" s="70">
+      <c r="A34" s="75">
         <v>1935</v>
       </c>
       <c r="B34" s="12"/>
@@ -4812,10 +5080,10 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="71"/>
+      <c r="G34" s="76"/>
     </row>
     <row r="35" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A35" s="70">
+      <c r="A35" s="75">
         <v>1936</v>
       </c>
       <c r="B35" s="12"/>
@@ -4823,10 +5091,10 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="71"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A36" s="70">
+      <c r="A36" s="75">
         <v>1937</v>
       </c>
       <c r="B36" s="12"/>
@@ -4834,10 +5102,10 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="71"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A37" s="70">
+      <c r="A37" s="75">
         <v>1938</v>
       </c>
       <c r="B37" s="12"/>
@@ -4845,10 +5113,10 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="71"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A38" s="70">
+      <c r="A38" s="75">
         <v>1939</v>
       </c>
       <c r="B38" s="12"/>
@@ -4856,10 +5124,10 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="71"/>
+      <c r="G38" s="76"/>
     </row>
     <row r="39" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A39" s="70">
+      <c r="A39" s="75">
         <v>1940</v>
       </c>
       <c r="B39" s="12"/>
@@ -4867,10 +5135,10 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="71"/>
+      <c r="G39" s="76"/>
     </row>
     <row r="40" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A40" s="70">
+      <c r="A40" s="75">
         <v>1941</v>
       </c>
       <c r="B40" s="12"/>
@@ -4878,10 +5146,10 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="71"/>
+      <c r="G40" s="76"/>
     </row>
     <row r="41" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A41" s="70">
+      <c r="A41" s="75">
         <v>1942</v>
       </c>
       <c r="B41" s="12"/>
@@ -4889,10 +5157,10 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="76"/>
     </row>
     <row r="42" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A42" s="70">
+      <c r="A42" s="75">
         <v>1943</v>
       </c>
       <c r="B42" s="12"/>
@@ -4900,10 +5168,10 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="71"/>
+      <c r="G42" s="76"/>
     </row>
     <row r="43" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A43" s="70">
+      <c r="A43" s="75">
         <v>1944</v>
       </c>
       <c r="B43" s="12"/>
@@ -4911,10 +5179,10 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="71"/>
+      <c r="G43" s="76"/>
     </row>
     <row r="44" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A44" s="70">
+      <c r="A44" s="75">
         <v>1945</v>
       </c>
       <c r="B44" s="12"/>
@@ -4922,10 +5190,10 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="71"/>
+      <c r="G44" s="76"/>
     </row>
     <row r="45" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A45" s="70">
+      <c r="A45" s="75">
         <v>1946</v>
       </c>
       <c r="B45" s="12"/>
@@ -4933,10 +5201,10 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="71"/>
+      <c r="G45" s="76"/>
     </row>
     <row r="46" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A46" s="70">
+      <c r="A46" s="75">
         <v>1947</v>
       </c>
       <c r="B46" s="12"/>
@@ -4944,10 +5212,10 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="71"/>
+      <c r="G46" s="76"/>
     </row>
     <row r="47" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A47" s="70">
+      <c r="A47" s="75">
         <v>1948</v>
       </c>
       <c r="B47" s="12"/>
@@ -4955,10 +5223,10 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="71"/>
+      <c r="G47" s="76"/>
     </row>
     <row r="48" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A48" s="70">
+      <c r="A48" s="75">
         <v>1949</v>
       </c>
       <c r="B48" s="12"/>
@@ -4966,10 +5234,10 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="71"/>
+      <c r="G48" s="76"/>
     </row>
     <row r="49" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A49" s="70">
+      <c r="A49" s="75">
         <v>1950</v>
       </c>
       <c r="B49" s="12"/>
@@ -4977,10 +5245,10 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="71"/>
+      <c r="G49" s="76"/>
     </row>
     <row r="50" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A50" s="70">
+      <c r="A50" s="75">
         <v>1951</v>
       </c>
       <c r="B50" s="12"/>
@@ -4988,10 +5256,10 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="71"/>
+      <c r="G50" s="76"/>
     </row>
     <row r="51" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A51" s="70">
+      <c r="A51" s="75">
         <v>1952</v>
       </c>
       <c r="B51" s="12"/>
@@ -4999,10 +5267,10 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="71"/>
+      <c r="G51" s="76"/>
     </row>
     <row r="52" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A52" s="70">
+      <c r="A52" s="75">
         <v>1953</v>
       </c>
       <c r="B52" s="12"/>
@@ -5010,23 +5278,23 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="71"/>
+      <c r="G52" s="76"/>
     </row>
     <row r="53" ht="36.6" customHeight="1" spans="1:7">
-      <c r="A53" s="70">
+      <c r="A53" s="75">
         <v>1954</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="71"/>
+      <c r="G53" s="76"/>
     </row>
     <row r="54" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A54" s="70">
+      <c r="A54" s="75">
         <v>1955</v>
       </c>
       <c r="B54" s="12"/>
@@ -5034,23 +5302,23 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="71"/>
+      <c r="G54" s="76"/>
     </row>
     <row r="55" ht="50.35" customHeight="1" spans="1:7">
-      <c r="A55" s="70">
+      <c r="A55" s="75">
         <v>1956</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="77" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="71"/>
+      <c r="G55" s="76"/>
     </row>
     <row r="56" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A56" s="70">
+      <c r="A56" s="75">
         <v>1957</v>
       </c>
       <c r="B56" s="12"/>
@@ -5058,10 +5326,10 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="71"/>
+      <c r="G56" s="76"/>
     </row>
     <row r="57" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A57" s="70">
+      <c r="A57" s="75">
         <v>1958</v>
       </c>
       <c r="B57" s="12"/>
@@ -5069,10 +5337,10 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="71"/>
+      <c r="G57" s="76"/>
     </row>
     <row r="58" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A58" s="70">
+      <c r="A58" s="75">
         <v>1959</v>
       </c>
       <c r="B58" s="12"/>
@@ -5080,26 +5348,26 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="71"/>
+      <c r="G58" s="76"/>
     </row>
     <row r="59" ht="46.35" customHeight="1" spans="1:7">
-      <c r="A59" s="70">
+      <c r="A59" s="75">
         <v>1960</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="80" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="71"/>
+      <c r="G59" s="76"/>
     </row>
     <row r="60" ht="50.35" customHeight="1" spans="1:7">
-      <c r="A60" s="70">
+      <c r="A60" s="75">
         <v>1961</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="77" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -5108,23 +5376,23 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="71"/>
+      <c r="G60" s="76"/>
     </row>
     <row r="61" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A61" s="70">
+      <c r="A61" s="75">
         <v>1962</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="77" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="71"/>
+      <c r="G61" s="76"/>
     </row>
     <row r="62" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A62" s="70">
+      <c r="A62" s="75">
         <v>1963</v>
       </c>
       <c r="B62" s="12"/>
@@ -5132,10 +5400,10 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="71"/>
+      <c r="G62" s="76"/>
     </row>
     <row r="63" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A63" s="70">
+      <c r="A63" s="75">
         <v>1964</v>
       </c>
       <c r="B63" s="12"/>
@@ -5143,10 +5411,10 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="71"/>
+      <c r="G63" s="76"/>
     </row>
     <row r="64" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A64" s="70">
+      <c r="A64" s="75">
         <v>1965</v>
       </c>
       <c r="B64" s="12"/>
@@ -5154,10 +5422,10 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="71"/>
+      <c r="G64" s="76"/>
     </row>
     <row r="65" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A65" s="70">
+      <c r="A65" s="75">
         <v>1966</v>
       </c>
       <c r="B65" s="12"/>
@@ -5165,10 +5433,10 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="71"/>
+      <c r="G65" s="76"/>
     </row>
     <row r="66" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A66" s="70">
+      <c r="A66" s="75">
         <v>1967</v>
       </c>
       <c r="B66" s="12"/>
@@ -5176,10 +5444,10 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="71"/>
+      <c r="G66" s="76"/>
     </row>
     <row r="67" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A67" s="70">
+      <c r="A67" s="75">
         <v>1968</v>
       </c>
       <c r="B67" s="12"/>
@@ -5187,10 +5455,10 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="71"/>
+      <c r="G67" s="76"/>
     </row>
     <row r="68" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A68" s="70">
+      <c r="A68" s="75">
         <v>1969</v>
       </c>
       <c r="B68" s="12"/>
@@ -5198,10 +5466,10 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="71"/>
+      <c r="G68" s="76"/>
     </row>
     <row r="69" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A69" s="70">
+      <c r="A69" s="75">
         <v>1970</v>
       </c>
       <c r="B69" s="12"/>
@@ -5209,10 +5477,10 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="71"/>
+      <c r="G69" s="76"/>
     </row>
     <row r="70" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A70" s="70">
+      <c r="A70" s="75">
         <v>1971</v>
       </c>
       <c r="B70" s="12"/>
@@ -5220,10 +5488,10 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="71"/>
+      <c r="G70" s="76"/>
     </row>
     <row r="71" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A71" s="70">
+      <c r="A71" s="75">
         <v>1972</v>
       </c>
       <c r="B71" s="12"/>
@@ -5231,10 +5499,10 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="71"/>
+      <c r="G71" s="76"/>
     </row>
     <row r="72" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A72" s="70">
+      <c r="A72" s="75">
         <v>1973</v>
       </c>
       <c r="B72" s="12"/>
@@ -5242,10 +5510,10 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="71"/>
+      <c r="G72" s="76"/>
     </row>
     <row r="73" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A73" s="70">
+      <c r="A73" s="75">
         <v>1974</v>
       </c>
       <c r="B73" s="12"/>
@@ -5253,10 +5521,10 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="71"/>
+      <c r="G73" s="76"/>
     </row>
     <row r="74" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A74" s="70">
+      <c r="A74" s="75">
         <v>1975</v>
       </c>
       <c r="B74" s="12"/>
@@ -5264,10 +5532,10 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="71"/>
+      <c r="G74" s="76"/>
     </row>
     <row r="75" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A75" s="70">
+      <c r="A75" s="75">
         <v>1976</v>
       </c>
       <c r="B75" s="12"/>
@@ -5275,10 +5543,10 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="71"/>
+      <c r="G75" s="76"/>
     </row>
     <row r="76" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A76" s="70">
+      <c r="A76" s="75">
         <v>1977</v>
       </c>
       <c r="B76" s="12"/>
@@ -5286,10 +5554,10 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="71"/>
+      <c r="G76" s="76"/>
     </row>
     <row r="77" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A77" s="70">
+      <c r="A77" s="75">
         <v>1978</v>
       </c>
       <c r="B77" s="12"/>
@@ -5297,10 +5565,10 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="71"/>
+      <c r="G77" s="76"/>
     </row>
     <row r="78" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A78" s="70">
+      <c r="A78" s="75">
         <v>1979</v>
       </c>
       <c r="B78" s="12"/>
@@ -5308,10 +5576,10 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="71"/>
+      <c r="G78" s="76"/>
     </row>
     <row r="79" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A79" s="70">
+      <c r="A79" s="75">
         <v>1980</v>
       </c>
       <c r="B79" s="12"/>
@@ -5319,10 +5587,10 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="71"/>
+      <c r="G79" s="76"/>
     </row>
     <row r="80" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A80" s="70">
+      <c r="A80" s="75">
         <v>1981</v>
       </c>
       <c r="B80" s="12"/>
@@ -5330,10 +5598,10 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="71"/>
+      <c r="G80" s="76"/>
     </row>
     <row r="81" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A81" s="70">
+      <c r="A81" s="75">
         <v>1982</v>
       </c>
       <c r="B81" s="12"/>
@@ -5341,10 +5609,10 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="71"/>
+      <c r="G81" s="76"/>
     </row>
     <row r="82" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A82" s="70">
+      <c r="A82" s="75">
         <v>1983</v>
       </c>
       <c r="B82" s="12"/>
@@ -5352,10 +5620,10 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="71"/>
+      <c r="G82" s="76"/>
     </row>
     <row r="83" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A83" s="70">
+      <c r="A83" s="75">
         <v>1984</v>
       </c>
       <c r="B83" s="12"/>
@@ -5363,10 +5631,10 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="71"/>
+      <c r="G83" s="76"/>
     </row>
     <row r="84" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A84" s="70">
+      <c r="A84" s="75">
         <v>1985</v>
       </c>
       <c r="B84" s="12"/>
@@ -5374,10 +5642,10 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="71"/>
+      <c r="G84" s="76"/>
     </row>
     <row r="85" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A85" s="70">
+      <c r="A85" s="75">
         <v>1986</v>
       </c>
       <c r="B85" s="12"/>
@@ -5385,10 +5653,10 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="71"/>
+      <c r="G85" s="76"/>
     </row>
     <row r="86" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A86" s="70">
+      <c r="A86" s="75">
         <v>1987</v>
       </c>
       <c r="B86" s="12"/>
@@ -5396,10 +5664,10 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="71"/>
+      <c r="G86" s="76"/>
     </row>
     <row r="87" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A87" s="70">
+      <c r="A87" s="75">
         <v>1988</v>
       </c>
       <c r="B87" s="12"/>
@@ -5407,10 +5675,10 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="71"/>
+      <c r="G87" s="76"/>
     </row>
     <row r="88" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A88" s="70">
+      <c r="A88" s="75">
         <v>1989</v>
       </c>
       <c r="B88" s="12"/>
@@ -5418,10 +5686,10 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="71"/>
+      <c r="G88" s="76"/>
     </row>
     <row r="89" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A89" s="70">
+      <c r="A89" s="75">
         <v>1990</v>
       </c>
       <c r="B89" s="12"/>
@@ -5429,10 +5697,10 @@
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="71"/>
+      <c r="G89" s="76"/>
     </row>
     <row r="90" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A90" s="70">
+      <c r="A90" s="75">
         <v>1991</v>
       </c>
       <c r="B90" s="12"/>
@@ -5440,10 +5708,10 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="71"/>
+      <c r="G90" s="76"/>
     </row>
     <row r="91" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A91" s="70">
+      <c r="A91" s="75">
         <v>1992</v>
       </c>
       <c r="B91" s="12"/>
@@ -5451,10 +5719,10 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="71"/>
+      <c r="G91" s="76"/>
     </row>
     <row r="92" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A92" s="70">
+      <c r="A92" s="75">
         <v>1993</v>
       </c>
       <c r="B92" s="12"/>
@@ -5462,10 +5730,10 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="71"/>
+      <c r="G92" s="76"/>
     </row>
     <row r="93" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A93" s="70">
+      <c r="A93" s="75">
         <v>1994</v>
       </c>
       <c r="B93" s="12"/>
@@ -5473,10 +5741,10 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="71"/>
+      <c r="G93" s="76"/>
     </row>
     <row r="94" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A94" s="70">
+      <c r="A94" s="75">
         <v>1995</v>
       </c>
       <c r="B94" s="12"/>
@@ -5484,10 +5752,10 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="71"/>
+      <c r="G94" s="76"/>
     </row>
     <row r="95" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A95" s="70">
+      <c r="A95" s="75">
         <v>1996</v>
       </c>
       <c r="B95" s="12"/>
@@ -5495,10 +5763,10 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="71"/>
+      <c r="G95" s="76"/>
     </row>
     <row r="96" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A96" s="70">
+      <c r="A96" s="75">
         <v>1997</v>
       </c>
       <c r="B96" s="12"/>
@@ -5506,10 +5774,10 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="71"/>
+      <c r="G96" s="76"/>
     </row>
     <row r="97" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A97" s="70">
+      <c r="A97" s="75">
         <v>1998</v>
       </c>
       <c r="B97" s="12"/>
@@ -5517,10 +5785,10 @@
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="71"/>
+      <c r="G97" s="76"/>
     </row>
     <row r="98" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A98" s="70">
+      <c r="A98" s="75">
         <v>1999</v>
       </c>
       <c r="B98" s="12"/>
@@ -5528,10 +5796,10 @@
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="71"/>
+      <c r="G98" s="76"/>
     </row>
     <row r="99" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A99" s="70">
+      <c r="A99" s="75">
         <v>2000</v>
       </c>
       <c r="B99" s="12"/>
@@ -5539,10 +5807,10 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="71"/>
+      <c r="G99" s="76"/>
     </row>
     <row r="100" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A100" s="70">
+      <c r="A100" s="75">
         <v>2001</v>
       </c>
       <c r="B100" s="12"/>
@@ -5550,10 +5818,10 @@
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="71"/>
+      <c r="G100" s="76"/>
     </row>
     <row r="101" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A101" s="70">
+      <c r="A101" s="75">
         <v>2002</v>
       </c>
       <c r="B101" s="12"/>
@@ -5561,10 +5829,10 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="71"/>
+      <c r="G101" s="76"/>
     </row>
     <row r="102" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A102" s="70">
+      <c r="A102" s="75">
         <v>2003</v>
       </c>
       <c r="B102" s="12"/>
@@ -5572,10 +5840,10 @@
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="71"/>
+      <c r="G102" s="76"/>
     </row>
     <row r="103" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A103" s="70">
+      <c r="A103" s="75">
         <v>2004</v>
       </c>
       <c r="B103" s="12"/>
@@ -5583,10 +5851,10 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="71"/>
+      <c r="G103" s="76"/>
     </row>
     <row r="104" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A104" s="70">
+      <c r="A104" s="75">
         <v>2005</v>
       </c>
       <c r="B104" s="12"/>
@@ -5594,10 +5862,10 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="71"/>
+      <c r="G104" s="76"/>
     </row>
     <row r="105" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A105" s="70">
+      <c r="A105" s="75">
         <v>2006</v>
       </c>
       <c r="B105" s="12"/>
@@ -5605,10 +5873,10 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="71"/>
+      <c r="G105" s="76"/>
     </row>
     <row r="106" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A106" s="70">
+      <c r="A106" s="75">
         <v>2007</v>
       </c>
       <c r="B106" s="12"/>
@@ -5616,10 +5884,10 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="71"/>
+      <c r="G106" s="76"/>
     </row>
     <row r="107" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A107" s="70">
+      <c r="A107" s="75">
         <v>2008</v>
       </c>
       <c r="B107" s="12"/>
@@ -5627,10 +5895,10 @@
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="71"/>
+      <c r="G107" s="76"/>
     </row>
     <row r="108" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A108" s="70">
+      <c r="A108" s="75">
         <v>2009</v>
       </c>
       <c r="B108" s="12"/>
@@ -5638,10 +5906,10 @@
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="71"/>
+      <c r="G108" s="76"/>
     </row>
     <row r="109" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A109" s="70">
+      <c r="A109" s="75">
         <v>2010</v>
       </c>
       <c r="B109" s="12"/>
@@ -5649,10 +5917,10 @@
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="71"/>
+      <c r="G109" s="76"/>
     </row>
     <row r="110" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A110" s="70">
+      <c r="A110" s="75">
         <v>2011</v>
       </c>
       <c r="B110" s="12"/>
@@ -5660,10 +5928,10 @@
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="71"/>
+      <c r="G110" s="76"/>
     </row>
     <row r="111" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A111" s="70">
+      <c r="A111" s="75">
         <v>2012</v>
       </c>
       <c r="B111" s="12"/>
@@ -5671,10 +5939,10 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="71"/>
+      <c r="G111" s="76"/>
     </row>
     <row r="112" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A112" s="70">
+      <c r="A112" s="75">
         <v>2013</v>
       </c>
       <c r="B112" s="12"/>
@@ -5682,10 +5950,10 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="71"/>
+      <c r="G112" s="76"/>
     </row>
     <row r="113" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A113" s="70">
+      <c r="A113" s="75">
         <v>2014</v>
       </c>
       <c r="B113" s="12"/>
@@ -5693,10 +5961,10 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="71"/>
+      <c r="G113" s="76"/>
     </row>
     <row r="114" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A114" s="70">
+      <c r="A114" s="75">
         <v>2015</v>
       </c>
       <c r="B114" s="12"/>
@@ -5704,10 +5972,10 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="71"/>
+      <c r="G114" s="76"/>
     </row>
     <row r="115" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A115" s="70">
+      <c r="A115" s="75">
         <v>2016</v>
       </c>
       <c r="B115" s="12"/>
@@ -5715,10 +5983,10 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="71"/>
+      <c r="G115" s="76"/>
     </row>
     <row r="116" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A116" s="70">
+      <c r="A116" s="75">
         <v>2017</v>
       </c>
       <c r="B116" s="12"/>
@@ -5726,10 +5994,10 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="71"/>
+      <c r="G116" s="76"/>
     </row>
     <row r="117" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A117" s="70">
+      <c r="A117" s="75">
         <v>2018</v>
       </c>
       <c r="B117" s="12"/>
@@ -5737,10 +6005,10 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="71"/>
+      <c r="G117" s="76"/>
     </row>
     <row r="118" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A118" s="70">
+      <c r="A118" s="75">
         <v>2019</v>
       </c>
       <c r="B118" s="12"/>
@@ -5748,10 +6016,10 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="71"/>
+      <c r="G118" s="76"/>
     </row>
     <row r="119" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A119" s="70">
+      <c r="A119" s="75">
         <v>2020</v>
       </c>
       <c r="B119" s="12"/>
@@ -5759,10 +6027,10 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="71"/>
+      <c r="G119" s="76"/>
     </row>
     <row r="120" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A120" s="70">
+      <c r="A120" s="75">
         <v>2021</v>
       </c>
       <c r="B120" s="12"/>
@@ -5770,18 +6038,18 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="71"/>
+      <c r="G120" s="76"/>
     </row>
     <row r="121" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A121" s="76">
+      <c r="A121" s="81">
         <v>2022</v>
       </c>
-      <c r="B121" s="77"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="79"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5805,20 +6073,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.352380952381" style="34" customWidth="1"/>
     <col min="2" max="2" width="34.4285714285714" style="34" customWidth="1"/>
-    <col min="3" max="3" width="26.4285714285714" style="34" customWidth="1"/>
-    <col min="4" max="4" width="28.7142857142857" style="34" customWidth="1"/>
+    <col min="3" max="3" width="30.8571428571429" style="34" customWidth="1"/>
+    <col min="4" max="4" width="33" style="34" customWidth="1"/>
     <col min="5" max="5" width="43.5714285714286" style="35" customWidth="1"/>
     <col min="6" max="6" width="42.1428571428571" style="35" customWidth="1"/>
     <col min="7" max="7" width="29.5714285714286" style="34" customWidth="1"/>
@@ -5829,139 +6097,169 @@
     <col min="260" max="16384" width="16.3333333333333" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38" t="s">
+    <row r="1" ht="15" spans="2:12">
+      <c r="B1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" ht="135" spans="1:6">
-      <c r="A2" s="37">
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" ht="27" spans="1:12">
+      <c r="A2" s="39">
+        <v>1909</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" ht="135" spans="1:6">
+      <c r="A3" s="39">
         <v>1910</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="37">
+      <c r="F3" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:6">
+      <c r="A4" s="39">
         <v>1911</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="37">
-        <v>1912</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="37">
+    <row r="5" ht="81" spans="1:8">
+      <c r="A5" s="39">
+        <v>1912</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="202.5" spans="1:6">
+      <c r="A6" s="39">
         <v>1913</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="37">
+      <c r="B6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:12">
+      <c r="A7" s="39">
         <v>1914</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="37">
+      <c r="B7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" ht="67.5" spans="1:6">
+      <c r="A8" s="39">
         <v>1915</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" ht="162" spans="1:12">
-      <c r="A8" s="37">
+      <c r="D8" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" ht="148.5" spans="1:12">
+      <c r="A9" s="39">
         <v>1916</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="37">
-        <v>1917</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="45"/>
+      <c r="B9" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>65</v>
+      </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
@@ -5969,53 +6267,61 @@
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" ht="27" spans="1:12">
-      <c r="A10" s="37">
-        <v>1918</v>
+    <row r="10" ht="94.5" spans="1:12">
+      <c r="A10" s="39">
+        <v>1917</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="45"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="37">
-        <v>1919</v>
+    <row r="11" ht="81" spans="1:12">
+      <c r="A11" s="39">
+        <v>1918</v>
       </c>
       <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="C11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="49"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="H11" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="37">
-        <v>1920</v>
+      <c r="A12" s="39">
+        <v>1919</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -6023,15 +6329,21 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="37">
-        <v>1921</v>
+    <row r="13" ht="67.5" spans="1:12">
+      <c r="A13" s="39">
+        <v>1920</v>
       </c>
       <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="C13" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="36"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -6039,17 +6351,17 @@
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="37">
-        <v>1922</v>
+    <row r="14" ht="54" spans="1:12">
+      <c r="A14" s="39">
+        <v>1921</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -6057,17 +6369,19 @@
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="37">
-        <v>1923</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+    <row r="15" ht="94.5" spans="1:12">
+      <c r="A15" s="39">
+        <v>1922</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -6075,17 +6389,18 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" ht="40.5" spans="1:12">
-      <c r="A16" s="37">
-        <v>1924</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="39">
+        <v>1923</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -6093,17 +6408,19 @@
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" ht="27" spans="1:12">
-      <c r="A17" s="37">
-        <v>1925</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+    <row r="17" ht="40.5" spans="1:12">
+      <c r="A17" s="39">
+        <v>1924</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -6111,15 +6428,17 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="37">
-        <v>1926</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+    <row r="18" ht="27" spans="1:12">
+      <c r="A18" s="39">
+        <v>1925</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="52"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -6128,14 +6447,14 @@
       <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="37">
-        <v>1927</v>
+      <c r="A19" s="39">
+        <v>1926</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
@@ -6143,248 +6462,255 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" ht="27" spans="1:12">
-      <c r="A20" s="37">
-        <v>1928</v>
+    <row r="20" spans="1:12">
+      <c r="A20" s="39">
+        <v>1927</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
     <row r="21" ht="27" spans="1:12">
-      <c r="A21" s="37">
-        <v>1929</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="A21" s="39">
+        <v>1928</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="H21" s="36" t="s">
+        <v>83</v>
+      </c>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
     <row r="22" ht="27" spans="1:12">
-      <c r="A22" s="37">
-        <v>1930</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="36" t="s">
-        <v>60</v>
-      </c>
+      <c r="A22" s="39">
+        <v>1929</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="37">
-        <v>1931</v>
+    <row r="23" ht="27" spans="1:12">
+      <c r="A23" s="39">
+        <v>1930</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="36"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="36" t="s">
+        <v>86</v>
+      </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="37">
-        <v>1932</v>
+    <row r="24" ht="27" spans="1:12">
+      <c r="A24" s="39">
+        <v>1931</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="H24" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" ht="40.5" spans="1:12">
-      <c r="A25" s="37">
-        <v>1933</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>62</v>
-      </c>
+    <row r="25" ht="27" spans="1:12">
+      <c r="A25" s="39">
+        <v>1932</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+        <v>88</v>
+      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="36" t="s">
-        <v>64</v>
+      <c r="H25" s="51" t="s">
+        <v>89</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="37">
-        <v>1934</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+    <row r="26" ht="94.5" spans="1:12">
+      <c r="A26" s="39">
+        <v>1933</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="49"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="H26" s="36" t="s">
+        <v>94</v>
+      </c>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" ht="54" spans="1:12">
-      <c r="A27" s="37">
-        <v>1935</v>
-      </c>
-      <c r="B27" s="36"/>
+    <row r="27" ht="67.5" spans="1:12">
+      <c r="A27" s="39">
+        <v>1934</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>95</v>
+      </c>
       <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>66</v>
-      </c>
+      <c r="D27" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" ht="27" spans="1:12">
-      <c r="A28" s="37">
-        <v>1936</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="36"/>
+    <row r="28" ht="54" spans="1:12">
+      <c r="A28" s="39">
+        <v>1935</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="51" t="s">
+        <v>97</v>
+      </c>
       <c r="D28" s="36"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="47" t="s">
-        <v>68</v>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="37">
-        <v>1937</v>
-      </c>
-      <c r="B29" s="36"/>
+    <row r="29" ht="27" spans="1:12">
+      <c r="A29" s="39">
+        <v>1936</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="47" t="s">
-        <v>68</v>
+      <c r="H29" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" ht="54" spans="1:12">
-      <c r="A30" s="37">
-        <v>1938</v>
+    <row r="30" spans="1:12">
+      <c r="A30" s="39">
+        <v>1937</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45" t="s">
-        <v>69</v>
-      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="47" t="s">
-        <v>70</v>
+      <c r="H30" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" ht="40.5" spans="1:12">
-      <c r="A31" s="37">
-        <v>1939</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>71</v>
-      </c>
+    <row r="31" ht="54" spans="1:12">
+      <c r="A31" s="39">
+        <v>1938</v>
+      </c>
+      <c r="B31" s="36"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="45"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49" t="s">
+        <v>102</v>
+      </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="47" t="s">
-        <v>68</v>
+      <c r="H31" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="37">
-        <v>1940</v>
-      </c>
-      <c r="B32" s="36"/>
+    <row r="32" ht="40.5" spans="1:12">
+      <c r="A32" s="39">
+        <v>1939</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>104</v>
+      </c>
       <c r="C32" s="36"/>
-      <c r="D32" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="45"/>
+      <c r="D32" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="47" t="s">
-        <v>68</v>
+      <c r="H32" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -6392,1004 +6718,1054 @@
       <c r="L32" s="36"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="37">
-        <v>1941</v>
+      <c r="A33" s="39">
+        <v>1940</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="45"/>
+      <c r="D33" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="47" t="s">
-        <v>68</v>
+      <c r="H33" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" ht="27" spans="1:12">
-      <c r="A34" s="37">
-        <v>1942</v>
+    <row r="34" spans="1:12">
+      <c r="A34" s="39">
+        <v>1941</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="45"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="47" t="s">
-        <v>68</v>
+      <c r="H34" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="37">
-        <v>1943</v>
+    <row r="35" ht="27" spans="1:12">
+      <c r="A35" s="39">
+        <v>1942</v>
       </c>
       <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="45"/>
+      <c r="C35" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="47" t="s">
-        <v>68</v>
+      <c r="H35" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" ht="54" spans="1:12">
-      <c r="A36" s="37">
-        <v>1944</v>
+    <row r="36" spans="1:12">
+      <c r="A36" s="39">
+        <v>1943</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="45"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="36"/>
-      <c r="H36" s="47" t="s">
-        <v>75</v>
+      <c r="H36" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" ht="94.5" spans="1:12">
-      <c r="A37" s="37">
-        <v>1945</v>
+    <row r="37" ht="54" spans="1:12">
+      <c r="A37" s="39">
+        <v>1944</v>
       </c>
       <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>80</v>
-      </c>
+      <c r="C37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" ht="67.5" spans="1:12">
-      <c r="A38" s="37">
-        <v>1946</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>84</v>
+    <row r="38" ht="94.5" spans="1:12">
+      <c r="A38" s="39">
+        <v>1945</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="53" t="s">
+        <v>115</v>
       </c>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" ht="81" spans="1:12">
-      <c r="A39" s="37">
-        <v>1947</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+    <row r="39" ht="67.5" spans="1:12">
+      <c r="A39" s="39">
+        <v>1946</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" ht="94.5" spans="1:12">
-      <c r="A40" s="37">
-        <v>1948</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>89</v>
-      </c>
+    <row r="40" ht="81" spans="1:12">
+      <c r="A40" s="39">
+        <v>1947</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="59"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
     </row>
-    <row r="41" ht="54" spans="1:12">
-      <c r="A41" s="37">
-        <v>1949</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>93</v>
+    <row r="41" ht="121.5" spans="1:12">
+      <c r="A41" s="39">
+        <v>1948</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="H41" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
     </row>
-    <row r="42" ht="40.5" spans="1:12">
-      <c r="A42" s="37">
-        <v>1950</v>
+    <row r="42" ht="54" spans="1:12">
+      <c r="A42" s="39">
+        <v>1949</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
-      <c r="D42" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" s="36"/>
+      <c r="D42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>133</v>
+      </c>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
     </row>
-    <row r="43" ht="121.5" spans="1:12">
-      <c r="A43" s="37">
-        <v>1951</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" s="46"/>
+    <row r="43" ht="67.5" spans="1:12">
+      <c r="A43" s="39">
+        <v>1950</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
     </row>
-    <row r="44" ht="148.5" spans="1:12">
-      <c r="A44" s="37">
-        <v>1952</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>106</v>
-      </c>
+    <row r="44" ht="121.5" spans="1:12">
+      <c r="A44" s="39">
+        <v>1951</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="52"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
     </row>
-    <row r="45" ht="202.5" spans="1:12">
-      <c r="A45" s="37">
-        <v>1953</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="46"/>
+    <row r="45" ht="148.5" spans="1:12">
+      <c r="A45" s="39">
+        <v>1952</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="E45" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>150</v>
+      </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
     </row>
-    <row r="46" ht="81" spans="1:12">
-      <c r="A46" s="37">
-        <v>1954</v>
+    <row r="46" ht="202.5" spans="1:12">
+      <c r="A46" s="39">
+        <v>1953</v>
       </c>
       <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="36" t="s">
+        <v>151</v>
+      </c>
       <c r="D46" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="46"/>
+        <v>152</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
     </row>
-    <row r="47" ht="202.5" spans="1:12">
-      <c r="A47" s="37">
-        <v>1955</v>
+    <row r="47" ht="81" spans="1:12">
+      <c r="A47" s="39">
+        <v>1954</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="60" t="s">
-        <v>117</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="36"/>
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
     </row>
-    <row r="48" ht="81" spans="1:12">
-      <c r="A48" s="37">
-        <v>1956</v>
+    <row r="48" ht="202.5" spans="1:12">
+      <c r="A48" s="39">
+        <v>1955</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="J48" s="36"/>
+        <v>160</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" s="65" t="s">
+        <v>164</v>
+      </c>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
     </row>
-    <row r="49" ht="40.5" spans="1:12">
-      <c r="A49" s="37">
-        <v>1957</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="36"/>
+    <row r="49" ht="108" spans="1:12">
+      <c r="A49" s="39">
+        <v>1956</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="36" t="s">
+        <v>167</v>
+      </c>
       <c r="H49" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="I49" s="36"/>
+        <v>168</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>169</v>
+      </c>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
     </row>
-    <row r="50" ht="202.5" spans="1:12">
-      <c r="A50" s="37">
-        <v>1958</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="36" t="s">
-        <v>125</v>
-      </c>
+    <row r="50" ht="40.5" spans="1:12">
+      <c r="A50" s="39">
+        <v>1957</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="36" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="37">
-        <v>1959</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+    <row r="51" ht="229.5" spans="1:12">
+      <c r="A51" s="39">
+        <v>1958</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="52"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>174</v>
+      </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
     </row>
-    <row r="52" ht="229.5" spans="1:12">
-      <c r="A52" s="37">
-        <v>1960</v>
-      </c>
-      <c r="B52" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>133</v>
+    <row r="52" ht="40.5" spans="1:12">
+      <c r="A52" s="39">
+        <v>1959</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
     </row>
-    <row r="53" ht="40.5" spans="1:12">
-      <c r="A53" s="37">
-        <v>1961</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
+    <row r="53" ht="283.5" spans="1:12">
+      <c r="A53" s="39">
+        <v>1960</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>177</v>
+      </c>
       <c r="D53" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36" t="s">
-        <v>137</v>
+        <v>178</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
     </row>
-    <row r="54" ht="351" spans="1:12">
-      <c r="A54" s="37">
-        <v>1962</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="56"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46" t="s">
-        <v>140</v>
+    <row r="54" ht="135" spans="1:12">
+      <c r="A54" s="39">
+        <v>1961</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="I54" s="53" t="s">
+        <v>188</v>
+      </c>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
     </row>
-    <row r="55" ht="67.5" spans="1:12">
-      <c r="A55" s="37">
-        <v>1963</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>143</v>
+    <row r="55" ht="351" spans="1:12">
+      <c r="A55" s="39">
+        <v>1962</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="61"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="52" t="s">
+        <v>191</v>
       </c>
       <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="36" t="s">
+        <v>192</v>
+      </c>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
     </row>
-    <row r="56" ht="243" spans="1:12">
-      <c r="A56" s="37">
-        <v>1964</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I56" s="36" t="s">
-        <v>150</v>
-      </c>
+    <row r="56" ht="67.5" spans="1:12">
+      <c r="A56" s="39">
+        <v>1963</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
     </row>
-    <row r="57" ht="94.5" spans="1:12">
-      <c r="A57" s="37">
-        <v>1965</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+    <row r="57" ht="243" spans="1:12">
+      <c r="A57" s="39">
+        <v>1964</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>202</v>
+      </c>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
     </row>
     <row r="58" ht="81" spans="1:12">
-      <c r="A58" s="37">
-        <v>1966</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="36"/>
+      <c r="A58" s="39">
+        <v>1965</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="61"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="36" t="s">
+        <v>204</v>
+      </c>
       <c r="H58" s="36"/>
-      <c r="I58" s="36" t="s">
-        <v>157</v>
-      </c>
+      <c r="I58" s="36"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
     </row>
-    <row r="59" ht="94.5" spans="1:12">
-      <c r="A59" s="37">
-        <v>1967</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="46"/>
+    <row r="59" ht="121.5" spans="1:12">
+      <c r="A59" s="39">
+        <v>1966</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>206</v>
+      </c>
       <c r="D59" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45" t="s">
-        <v>160</v>
+        <v>207</v>
+      </c>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49" t="s">
+        <v>208</v>
       </c>
       <c r="G59" s="36"/>
-      <c r="H59" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="I59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36" t="s">
+        <v>209</v>
+      </c>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
     </row>
-    <row r="60" ht="202.5" spans="1:12">
-      <c r="A60" s="37">
-        <v>1968</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
+    <row r="60" ht="94.5" spans="1:12">
+      <c r="A60" s="39">
+        <v>1967</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49" t="s">
+        <v>212</v>
+      </c>
       <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
+      <c r="H60" s="36" t="s">
+        <v>213</v>
+      </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
     </row>
-    <row r="61" ht="283.5" spans="1:12">
-      <c r="A61" s="37">
-        <v>1969</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G61" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
+    <row r="61" ht="202.5" spans="1:12">
+      <c r="A61" s="39">
+        <v>1968</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
     </row>
-    <row r="62" ht="189" spans="1:12">
-      <c r="A62" s="37">
-        <v>1970</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="I62" s="36"/>
+    <row r="62" ht="283.5" spans="1:12">
+      <c r="A62" s="39">
+        <v>1969</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="52"/>
+      <c r="E62" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
     </row>
-    <row r="63" ht="54" spans="1:12">
-      <c r="A63" s="37">
-        <v>1971</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45" t="s">
-        <v>175</v>
+    <row r="63" ht="256.5" spans="1:12">
+      <c r="A63" s="39">
+        <v>1970</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>178</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
     </row>
-    <row r="64" ht="81" spans="1:12">
-      <c r="A64" s="37">
-        <v>1972</v>
+    <row r="64" ht="54" spans="1:12">
+      <c r="A64" s="39">
+        <v>1971</v>
       </c>
       <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
+      <c r="C64" s="36" t="s">
+        <v>227</v>
+      </c>
       <c r="D64" s="36"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="46"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>229</v>
+      </c>
       <c r="H64" s="36" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="37">
-        <v>1973</v>
+    <row r="65" ht="81" spans="1:12">
+      <c r="A65" s="39">
+        <v>1972</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="I65" s="46"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>234</v>
+      </c>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
     </row>
-    <row r="66" ht="108" spans="1:12">
-      <c r="A66" s="37">
-        <v>1974</v>
+    <row r="66" spans="1:12">
+      <c r="A66" s="39">
+        <v>1973</v>
       </c>
       <c r="B66" s="36"/>
-      <c r="C66" s="36" t="s">
-        <v>183</v>
-      </c>
+      <c r="C66" s="36"/>
       <c r="D66" s="36"/>
-      <c r="E66" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="F66" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="G66" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="I66" s="52"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
     </row>
-    <row r="67" ht="54" spans="1:12">
-      <c r="A67" s="37">
-        <v>1975</v>
+    <row r="67" ht="108" spans="1:12">
+      <c r="A67" s="39">
+        <v>1974</v>
       </c>
       <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
+      <c r="C67" s="36" t="s">
+        <v>236</v>
+      </c>
       <c r="D67" s="36"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="I67" s="46" t="s">
-        <v>188</v>
-      </c>
+      <c r="E67" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="36"/>
     </row>
-    <row r="68" ht="69" spans="1:12">
-      <c r="A68" s="37">
-        <v>1976</v>
-      </c>
-      <c r="B68" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="F68" s="45"/>
-      <c r="G68" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36" t="s">
-        <v>193</v>
+    <row r="68" ht="54" spans="1:12">
+      <c r="A68" s="39">
+        <v>1975</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="36"/>
+      <c r="E68" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="49"/>
+      <c r="G68" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="I68" s="52" t="s">
+        <v>243</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
     </row>
-    <row r="69" ht="27" spans="1:12">
-      <c r="A69" s="37">
-        <v>1977</v>
-      </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="36"/>
+    <row r="69" ht="55.5" spans="1:12">
+      <c r="A69" s="39">
+        <v>1976</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="F69" s="49"/>
+      <c r="G69" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="H69" s="36"/>
       <c r="I69" s="36" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
     </row>
-    <row r="70" ht="40.5" spans="1:12">
-      <c r="A70" s="37">
-        <v>1978</v>
+    <row r="70" ht="54" spans="1:12">
+      <c r="A70" s="39">
+        <v>1977</v>
       </c>
       <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>197</v>
-      </c>
+      <c r="C70" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" s="61"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="36" t="s">
+        <v>251</v>
+      </c>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="36"/>
     </row>
-    <row r="71" ht="148.5" spans="1:12">
-      <c r="A71" s="37">
-        <v>1979</v>
+    <row r="71" ht="40.5" spans="1:12">
+      <c r="A71" s="39">
+        <v>1978</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
-      <c r="E71" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="F71" s="45"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49" t="s">
+        <v>252</v>
+      </c>
       <c r="G71" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="H71" s="36" t="s">
-        <v>200</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="36"/>
     </row>
-    <row r="72" ht="81" spans="1:12">
-      <c r="A72" s="37">
-        <v>1980</v>
+    <row r="72" ht="148.5" spans="1:12">
+      <c r="A72" s="39">
+        <v>1979</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
-      <c r="D72" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="45"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="49"/>
       <c r="G72" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="H72" s="36"/>
+        <v>255</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>256</v>
+      </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
     </row>
-    <row r="73" ht="94.5" spans="1:12">
-      <c r="A73" s="37">
-        <v>1981</v>
+    <row r="73" ht="81" spans="1:12">
+      <c r="A73" s="39">
+        <v>1980</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="H73" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="J73" s="60" t="s">
-        <v>207</v>
-      </c>
+      <c r="D73" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="F73" s="49"/>
+      <c r="G73" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="36"/>
     </row>
-    <row r="74" ht="27" spans="1:12">
-      <c r="A74" s="37">
-        <v>1982</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74" s="46"/>
+    <row r="74" ht="94.5" spans="1:12">
+      <c r="A74" s="39">
+        <v>1981</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="36"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J74" s="65" t="s">
+        <v>264</v>
+      </c>
       <c r="K74" s="36"/>
       <c r="L74" s="36"/>
     </row>
-    <row r="75" ht="40.5" spans="1:12">
-      <c r="A75" s="37">
-        <v>1983</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="46"/>
+    <row r="75" ht="27" spans="1:12">
+      <c r="A75" s="39">
+        <v>1982</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="52"/>
       <c r="D75" s="36"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="36" t="s">
-        <v>210</v>
-      </c>
+      <c r="I75" s="36"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="37">
-        <v>1984</v>
-      </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
+    <row r="76" ht="40.5" spans="1:12">
+      <c r="A76" s="39">
+        <v>1983</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="52"/>
       <c r="D76" s="36"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="36" t="s">
+        <v>267</v>
+      </c>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="37">
-        <v>1985</v>
+      <c r="A77" s="39">
+        <v>1984</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
@@ -7397,54 +7773,52 @@
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
     </row>
-    <row r="78" ht="27" spans="1:12">
-      <c r="A78" s="37">
-        <v>1986</v>
+    <row r="78" spans="1:12">
+      <c r="A78" s="39">
+        <v>1985</v>
       </c>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="J78" s="63" t="s">
-        <v>212</v>
-      </c>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="37">
-        <v>1987</v>
+    <row r="79" ht="27" spans="1:12">
+      <c r="A79" s="39">
+        <v>1986</v>
       </c>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
       <c r="D79" s="36"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
+      <c r="I79" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J79" s="68" t="s">
+        <v>269</v>
+      </c>
       <c r="K79" s="36"/>
       <c r="L79" s="36"/>
     </row>
-    <row r="80" ht="40.5" spans="1:12">
-      <c r="A80" s="37">
-        <v>1988</v>
+    <row r="80" spans="1:12">
+      <c r="A80" s="39">
+        <v>1987</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="36" t="s">
-        <v>213</v>
-      </c>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
@@ -7452,22 +7826,16 @@
       <c r="L80" s="36"/>
     </row>
     <row r="81" ht="40.5" spans="1:12">
-      <c r="A81" s="37">
-        <v>1989</v>
+      <c r="A81" s="39">
+        <v>1988</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
-      <c r="D81" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>216</v>
-      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
       <c r="G81" s="36" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
@@ -7475,16 +7843,24 @@
       <c r="K81" s="36"/>
       <c r="L81" s="36"/>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="37">
-        <v>1990</v>
+    <row r="82" ht="40.5" spans="1:12">
+      <c r="A82" s="39">
+        <v>1989</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="36"/>
+      <c r="D82" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>274</v>
+      </c>
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
@@ -7492,16 +7868,14 @@
       <c r="L82" s="36"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="37">
-        <v>1991</v>
+      <c r="A83" s="39">
+        <v>1990</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
-      <c r="D83" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
@@ -7510,14 +7884,16 @@
       <c r="L83" s="36"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="37">
-        <v>1992</v>
+      <c r="A84" s="39">
+        <v>1991</v>
       </c>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
+      <c r="D84" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
@@ -7526,14 +7902,14 @@
       <c r="L84" s="36"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="37">
-        <v>1993</v>
+      <c r="A85" s="39">
+        <v>1992</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
       <c r="D85" s="36"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
@@ -7541,71 +7917,71 @@
       <c r="K85" s="36"/>
       <c r="L85" s="36"/>
     </row>
-    <row r="86" ht="67.5" spans="1:12">
-      <c r="A86" s="37">
-        <v>1994</v>
+    <row r="86" spans="1:12">
+      <c r="A86" s="39">
+        <v>1993</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="G86" s="36" t="s">
-        <v>220</v>
-      </c>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="36"/>
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="36"/>
     </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="37">
-        <v>1995</v>
+    <row r="87" ht="67.5" spans="1:12">
+      <c r="A87" s="39">
+        <v>1994</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
       <c r="D87" s="36"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36" t="s">
-        <v>221</v>
-      </c>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="H87" s="36"/>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="36"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="37">
-        <v>1996</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88" s="46"/>
+      <c r="A88" s="39">
+        <v>1995</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
       <c r="D88" s="36"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
       <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
+      <c r="H88" s="36" t="s">
+        <v>278</v>
+      </c>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="36"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="37">
-        <v>1997</v>
-      </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
+      <c r="A89" s="39">
+        <v>1996</v>
+      </c>
+      <c r="B89" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="52"/>
       <c r="D89" s="36"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
@@ -7613,213 +7989,218 @@
       <c r="K89" s="36"/>
       <c r="L89" s="36"/>
     </row>
-    <row r="90" ht="40.5" spans="1:12">
-      <c r="A90" s="37">
-        <v>1998</v>
+    <row r="90" spans="1:12">
+      <c r="A90" s="39">
+        <v>1997</v>
       </c>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="36" t="s">
-        <v>223</v>
-      </c>
+      <c r="D90" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="36"/>
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="36"/>
     </row>
-    <row r="91" ht="84" spans="1:12">
-      <c r="A91" s="37">
-        <v>1999</v>
+    <row r="91" ht="40.5" spans="1:12">
+      <c r="A91" s="39">
+        <v>1998</v>
       </c>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="I91" s="46" t="s">
-        <v>225</v>
-      </c>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
       <c r="J91" s="36"/>
-      <c r="K91" s="63" t="s">
-        <v>226</v>
-      </c>
+      <c r="K91" s="36"/>
       <c r="L91" s="36"/>
     </row>
-    <row r="92" ht="234" spans="1:12">
-      <c r="A92" s="37">
+    <row r="92" ht="84" spans="1:12">
+      <c r="A92" s="39">
+        <v>1999</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="I92" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="J92" s="36"/>
+      <c r="K92" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="L92" s="36"/>
+    </row>
+    <row r="93" ht="234" spans="1:12">
+      <c r="A93" s="39">
         <v>2000</v>
       </c>
-      <c r="B92" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="L92" s="36"/>
-    </row>
-    <row r="93" ht="94.5" spans="1:12">
-      <c r="A93" s="37">
-        <v>2001</v>
-      </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="46" t="s">
-        <v>230</v>
-      </c>
+      <c r="B93" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="52"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="36"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="K93" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L93" s="63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" ht="54" spans="1:12">
-      <c r="A94" s="37">
+      <c r="K93" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="L93" s="36"/>
+    </row>
+    <row r="94" ht="94.5" spans="1:12">
+      <c r="A94" s="39">
+        <v>2001</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="L94" s="68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" ht="54" spans="1:12">
+      <c r="A95" s="39">
         <v>2002</v>
-      </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="H94" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-    </row>
-    <row r="95" ht="27" spans="1:12">
-      <c r="A95" s="37">
-        <v>2003</v>
       </c>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
-      <c r="D95" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="K95" s="46" t="s">
-        <v>237</v>
-      </c>
+      <c r="D95" s="36"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="H95" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="I95" s="52"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
       <c r="L95" s="36"/>
     </row>
-    <row r="96" ht="40.5" spans="1:12">
-      <c r="A96" s="37">
-        <v>2004</v>
+    <row r="96" ht="27" spans="1:12">
+      <c r="A96" s="39">
+        <v>2003</v>
       </c>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
+      <c r="D96" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="K96" s="52" t="s">
+        <v>297</v>
+      </c>
       <c r="L96" s="36"/>
     </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="37">
-        <v>2005</v>
+    <row r="97" ht="40.5" spans="1:12">
+      <c r="A97" s="39">
+        <v>2004</v>
       </c>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="36" t="s">
+        <v>298</v>
+      </c>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
     </row>
-    <row r="98" ht="40.5" spans="1:12">
-      <c r="A98" s="37">
-        <v>2006</v>
+    <row r="98" spans="1:12">
+      <c r="A98" s="39">
+        <v>2005</v>
       </c>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="36" t="s">
-        <v>239</v>
-      </c>
+      <c r="I98" s="36"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="36"/>
     </row>
-    <row r="99" ht="81" spans="1:12">
-      <c r="A99" s="37">
-        <v>2007</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>240</v>
-      </c>
+    <row r="99" ht="40.5" spans="1:12">
+      <c r="A99" s="39">
+        <v>2006</v>
+      </c>
+      <c r="B99" s="36"/>
       <c r="C99" s="36"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="45"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="36" t="s">
+        <v>299</v>
+      </c>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="36"/>
     </row>
-    <row r="100" ht="27" spans="1:12">
-      <c r="A100" s="37">
-        <v>2008</v>
-      </c>
-      <c r="B100" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="E100" s="56"/>
-      <c r="F100" s="45"/>
+    <row r="100" ht="81" spans="1:12">
+      <c r="A100" s="39">
+        <v>2007</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="52"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="49"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -7827,164 +8208,167 @@
       <c r="K100" s="36"/>
       <c r="L100" s="36"/>
     </row>
-    <row r="101" ht="40.5" spans="1:12">
-      <c r="A101" s="37">
-        <v>2009</v>
-      </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="36" t="s">
-        <v>243</v>
-      </c>
+    <row r="101" ht="27" spans="1:12">
+      <c r="A101" s="39">
+        <v>2008</v>
+      </c>
+      <c r="B101" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E101" s="61"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="36"/>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="36"/>
     </row>
-    <row r="102" ht="54" spans="1:12">
-      <c r="A102" s="37">
-        <v>2010</v>
+    <row r="102" ht="40.5" spans="1:12">
+      <c r="A102" s="39">
+        <v>2009</v>
       </c>
       <c r="B102" s="36"/>
-      <c r="C102" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E102" s="56"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="36" t="s">
+        <v>304</v>
+      </c>
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="36"/>
     </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="37">
-        <v>2011</v>
+    <row r="103" ht="54" spans="1:12">
+      <c r="A103" s="39">
+        <v>2010</v>
       </c>
       <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
+      <c r="C103" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="E103" s="61"/>
+      <c r="F103" s="49"/>
       <c r="G103" s="36"/>
-      <c r="H103" s="36" t="s">
-        <v>245</v>
-      </c>
+      <c r="H103" s="36"/>
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="36"/>
     </row>
-    <row r="104" ht="94.5" spans="1:12">
-      <c r="A104" s="37">
-        <v>2012</v>
+    <row r="104" spans="1:12">
+      <c r="A104" s="39">
+        <v>2011</v>
       </c>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36" t="s">
-        <v>247</v>
-      </c>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="I104" s="36"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="36"/>
     </row>
-    <row r="105" ht="40.5" spans="1:12">
-      <c r="A105" s="37">
+    <row r="105" ht="94.5" spans="1:12">
+      <c r="A105" s="39">
+        <v>2012</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+    </row>
+    <row r="106" ht="40.5" spans="1:12">
+      <c r="A106" s="39">
         <v>2013</v>
       </c>
-      <c r="B105" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="C105" s="46"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="K105" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="L105" s="36"/>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="37">
-        <v>2014</v>
-      </c>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
+      <c r="B106" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="52"/>
       <c r="D106" s="36"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
+      <c r="J106" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="K106" s="52" t="s">
+        <v>311</v>
+      </c>
       <c r="L106" s="36"/>
     </row>
-    <row r="107" ht="175.5" spans="1:12">
-      <c r="A107" s="37">
+    <row r="107" spans="1:12">
+      <c r="A107" s="39">
+        <v>2014</v>
+      </c>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+    </row>
+    <row r="108" ht="175.5" spans="1:12">
+      <c r="A108" s="39">
         <v>2015</v>
       </c>
-      <c r="B107" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E107" s="56"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="I107" s="36"/>
-      <c r="J107" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="K107" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="L107" s="36"/>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="37">
+      <c r="B108" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="E108" s="61"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="I108" s="36"/>
+      <c r="J108" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="K108" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="L108" s="36"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="39">
         <v>2016</v>
-      </c>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="37">
-        <v>2017</v>
       </c>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36"/>
       <c r="I109" s="36"/>
@@ -7993,14 +8377,14 @@
       <c r="L109" s="36"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="37">
-        <v>2018</v>
+      <c r="A110" s="39">
+        <v>2017</v>
       </c>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
       <c r="G110" s="36"/>
       <c r="H110" s="36"/>
       <c r="I110" s="36"/>
@@ -8009,14 +8393,14 @@
       <c r="L110" s="36"/>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="37">
-        <v>2019</v>
+      <c r="A111" s="39">
+        <v>2018</v>
       </c>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="36"/>
       <c r="H111" s="36"/>
       <c r="I111" s="36"/>
@@ -8024,47 +8408,49 @@
       <c r="K111" s="36"/>
       <c r="L111" s="36"/>
     </row>
-    <row r="112" ht="81" spans="1:12">
-      <c r="A112" s="37">
-        <v>2020</v>
+    <row r="112" spans="1:12">
+      <c r="A112" s="39">
+        <v>2019</v>
       </c>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
       <c r="G112" s="36"/>
       <c r="H112" s="36"/>
       <c r="I112" s="36"/>
       <c r="J112" s="36"/>
-      <c r="K112" s="46" t="s">
-        <v>255</v>
-      </c>
+      <c r="K112" s="36"/>
       <c r="L112" s="36"/>
     </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="37">
-        <v>2021</v>
+    <row r="113" ht="81" spans="1:12">
+      <c r="A113" s="39">
+        <v>2020</v>
       </c>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
       <c r="G113" s="36"/>
       <c r="H113" s="36"/>
       <c r="I113" s="36"/>
       <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
+      <c r="K113" s="52" t="s">
+        <v>316</v>
+      </c>
       <c r="L113" s="36"/>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="64"/>
+      <c r="A114" s="39">
+        <v>2021</v>
+      </c>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
       <c r="G114" s="36"/>
       <c r="H114" s="36"/>
       <c r="I114" s="36"/>
@@ -8072,26 +8458,40 @@
       <c r="K114" s="36"/>
       <c r="L114" s="36"/>
     </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="69"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J47" r:id="rId1" display="http://www.piaoa.net/n_39678228.html"/>
-    <hyperlink ref="J73" r:id="rId2" display="http://www1.etat.com/noisetw/noisenz1_03.htm   "/>
-    <hyperlink ref="J78" r:id="rId3" display="https://folkways.si.edu/join"/>
-    <hyperlink ref="K91" r:id="rId4" display="https://www.cafamuseum.org/exhibit/newsdetail/2483 +    <hyperlink ref="J48" r:id="rId1" display="http://www.piaoa.net/n_39678228.html"/>
+    <hyperlink ref="J74" r:id="rId2" display="http://www1.etat.com/noisetw/noisenz1_03.htm   "/>
+    <hyperlink ref="J79" r:id="rId3" display="https://folkways.si.edu/join"/>
+    <hyperlink ref="K92" r:id="rId4" display="https://www.cafamuseum.org/exhibit/newsdetail/2483    中央美院文章 备考"/>
-    <hyperlink ref="B92" r:id="rId4" display="1、伦敦的海沃德画廊的大卫·托普策展的“声爆：声音的艺术”（Sonic Boom：The Art of Sound） +    <hyperlink ref="B93" r:id="rId4" display="1、伦敦的海沃德画廊的大卫·托普策展的“声爆：声音的艺术”（Sonic Boom：The Art of Sound）  2、纽约P.S.1的艾略特·夏普（Elliott Sharp）和阿兰娜·海丝（Alanna Heiss）策展的“容量：声音床”（Volume：A Bed of Sound  3、由纽约惠特尼美术馆的斯蒂芬·维迪耶罗（Stephen Vitiello）策展的、作为美国世纪展览的一部分的“我坐在一个房间里：美国艺术家的声音作品1950-2000”（I Am Sitting In A Room：Sound Works by American Artists 1950-2000）    https://www.cafamuseum.org/exhibit/newsdetail/2483"/>
-    <hyperlink ref="L93" r:id="rId5" display="http://revolutionsperminutefest.org/SoundArtChina/#Essays +    <hyperlink ref="L94" r:id="rId5" display="http://revolutionsperminutefest.org/SoundArtChina/#Essays  姚大钧文章 网页"/>
-    <hyperlink ref="H94" r:id="rId6" display="https://www.douban.com/group/topic/1032176/ +    <hyperlink ref="H95" r:id="rId6" display="https://www.douban.com/group/topic/1032176/  大友良英来广州演出，李如一采访"/>
-    <hyperlink ref="J95" r:id="rId7" display="https://www.douban.com/group/topic/30771977/"/>
-    <hyperlink ref="J105" r:id="rId8" display="http://www.modernweekly.com/hots/7278"/>
-    <hyperlink ref="J107" r:id="rId9" display="http://wap.art.ifeng.com/?app=system&amp;controller=artmobile&amp;action=content&amp;contentid=2604753"/>
+    <hyperlink ref="J96" r:id="rId7" display="https://www.douban.com/group/topic/30771977/"/>
+    <hyperlink ref="J106" r:id="rId8" display="http://www.modernweekly.com/hots/7278"/>
+    <hyperlink ref="J108" r:id="rId9" display="http://wap.art.ifeng.com/?app=system&amp;controller=artmobile&amp;action=content&amp;contentid=2604753"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
@@ -8149,43 +8549,43 @@
     </row>
     <row r="2" ht="24.55" customHeight="1" spans="1:12">
       <c r="A2" s="13" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="3" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" ht="24.55" customHeight="1" spans="1:12">
       <c r="A3" s="14" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -8204,59 +8604,59 @@
     </row>
     <row r="4" ht="24.35" customHeight="1" spans="1:12">
       <c r="A4" s="19" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D4" s="22">
         <v>19010</v>
       </c>
       <c r="E4" s="23">
         <f ca="1" t="shared" ref="E4:E37" si="0">TODAY()</f>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F4" s="24">
         <f ca="1">DATEDIF(D4,$E4,"Y")</f>
         <v>68</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" ht="24.35" customHeight="1" spans="1:12">
       <c r="A5" s="19" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D5" s="22">
         <v>24296</v>
       </c>
       <c r="E5" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F5" s="24">
         <f ca="1">DATEDIF(D5,$E5,"Y")</f>
         <v>54</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
@@ -8266,10 +8666,10 @@
     </row>
     <row r="6" ht="40.65" customHeight="1" spans="1:12">
       <c r="A6" s="27" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="26"/>
@@ -8279,13 +8679,13 @@
         <v>120</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -8293,7 +8693,7 @@
     </row>
     <row r="7" ht="24.35" customHeight="1" spans="1:12">
       <c r="A7" s="27" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="28"/>
@@ -8312,42 +8712,42 @@
     </row>
     <row r="8" ht="34.35" customHeight="1" spans="1:12">
       <c r="A8" s="19" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D8" s="22">
         <v>21641</v>
       </c>
       <c r="E8" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F8" s="24">
         <f ca="1">DATEDIF(D8,$E8,"Y")</f>
         <v>61</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" ht="44.05" customHeight="1" spans="1:12">
       <c r="A9" s="19" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="22">
@@ -8361,47 +8761,47 @@
         <v>68</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="7" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" ht="24.35" customHeight="1" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D10" s="22">
         <v>12785</v>
       </c>
       <c r="E10" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F10" s="24">
         <f ca="1">DATEDIF(D10,$E10,"Y")</f>
         <v>85</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -8409,7 +8809,7 @@
     </row>
     <row r="11" ht="24.35" customHeight="1" spans="1:12">
       <c r="A11" s="27" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="28"/>
@@ -8428,7 +8828,7 @@
     </row>
     <row r="12" ht="24.35" customHeight="1" spans="1:12">
       <c r="A12" s="27" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="28"/>
@@ -8447,7 +8847,7 @@
     </row>
     <row r="13" ht="24.35" customHeight="1" spans="1:12">
       <c r="A13" s="19" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="28"/>
@@ -8463,15 +8863,15 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" ht="24.35" customHeight="1" spans="1:12">
       <c r="A14" s="27" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="22">
@@ -8479,14 +8879,14 @@
       </c>
       <c r="E14" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F14" s="24">
         <f ca="1" t="shared" ref="F14:F22" si="1">DATEDIF(D14,$E14,"Y")</f>
         <v>81</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -8496,27 +8896,27 @@
     </row>
     <row r="15" ht="24.35" customHeight="1" spans="1:12">
       <c r="A15" s="27" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D15" s="22">
         <v>16021</v>
       </c>
       <c r="E15" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F15" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -8526,27 +8926,27 @@
     </row>
     <row r="16" ht="24.35" customHeight="1" spans="1:12">
       <c r="A16" s="27" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D16" s="22">
         <v>19117</v>
       </c>
       <c r="E16" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F16" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -8556,27 +8956,27 @@
     </row>
     <row r="17" ht="24.35" customHeight="1" spans="1:12">
       <c r="A17" s="27" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D17" s="22">
         <v>27988</v>
       </c>
       <c r="E17" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F17" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -8586,10 +8986,10 @@
     </row>
     <row r="18" ht="24.35" customHeight="1" spans="1:12">
       <c r="A18" s="19" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="22">
@@ -8611,27 +9011,27 @@
     </row>
     <row r="19" ht="24.35" customHeight="1" spans="1:12">
       <c r="A19" s="27" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D19" s="22">
         <v>14977</v>
       </c>
       <c r="E19" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F19" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -8641,10 +9041,10 @@
     </row>
     <row r="20" ht="24.35" customHeight="1" spans="1:12">
       <c r="A20" s="27" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="22">
@@ -8658,7 +9058,7 @@
         <v>67</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -8668,45 +9068,45 @@
     </row>
     <row r="21" ht="24.35" customHeight="1" spans="1:12">
       <c r="A21" s="19" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D21" s="22">
         <v>20808</v>
       </c>
       <c r="E21" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F21" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" ht="24.35" customHeight="1" spans="1:12">
       <c r="A22" s="27" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D22" s="22">
         <v>2651</v>
@@ -8727,11 +9127,11 @@
     </row>
     <row r="23" ht="24.35" customHeight="1" spans="1:12">
       <c r="A23" s="27" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -8748,11 +9148,11 @@
     </row>
     <row r="24" ht="24.35" customHeight="1" spans="1:12">
       <c r="A24" s="27" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -8769,11 +9169,11 @@
     </row>
     <row r="25" ht="24.35" customHeight="1" spans="1:12">
       <c r="A25" s="27" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -8790,11 +9190,11 @@
     </row>
     <row r="26" ht="24.35" customHeight="1" spans="1:12">
       <c r="A26" s="19" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -8811,11 +9211,11 @@
     </row>
     <row r="27" ht="24.35" customHeight="1" spans="1:12">
       <c r="A27" s="19" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -8829,16 +9229,16 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="7" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" ht="24.35" customHeight="1" spans="1:12">
       <c r="A28" s="27" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -8855,13 +9255,13 @@
     </row>
     <row r="29" ht="24.35" customHeight="1" spans="1:12">
       <c r="A29" s="27" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -8878,13 +9278,13 @@
     </row>
     <row r="30" ht="24.35" customHeight="1" spans="1:12">
       <c r="A30" s="19" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -8901,13 +9301,13 @@
     </row>
     <row r="31" ht="40.65" customHeight="1" spans="1:12">
       <c r="A31" s="27" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D31" s="22">
         <v>11667</v>
@@ -8918,13 +9318,13 @@
         <v>88</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -8932,10 +9332,10 @@
     </row>
     <row r="32" ht="24.35" customHeight="1" spans="1:12">
       <c r="A32" s="19" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="26"/>
@@ -8946,7 +9346,7 @@
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="25" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="6"/>
@@ -8955,10 +9355,10 @@
     </row>
     <row r="33" ht="24.35" customHeight="1" spans="1:12">
       <c r="A33" s="19" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="22">
@@ -8972,7 +9372,7 @@
         <v>91</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -8982,7 +9382,7 @@
     </row>
     <row r="34" ht="24.35" customHeight="1" spans="1:12">
       <c r="A34" s="27" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="28"/>
@@ -9001,10 +9401,10 @@
     </row>
     <row r="35" ht="39.95" customHeight="1" spans="1:12">
       <c r="A35" s="30" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="22">
@@ -9023,12 +9423,12 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="7" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" ht="24.35" customHeight="1" spans="1:12">
       <c r="A36" s="27" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="28"/>
@@ -9048,17 +9448,17 @@
     <row r="37" ht="50.95" customHeight="1" spans="1:12">
       <c r="A37" s="32"/>
       <c r="B37" s="20" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D37" s="22">
         <v>28126</v>
       </c>
       <c r="E37" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="F37" s="24">
         <f ca="1">DATEDIF(D37,$E37,"Y")</f>
@@ -9068,17 +9468,17 @@
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="7" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
     <row r="38" ht="24.35" customHeight="1" spans="1:12">
       <c r="A38" s="27" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="26"/>
@@ -9096,13 +9496,13 @@
     </row>
     <row r="39" ht="32.05" customHeight="1" spans="1:12">
       <c r="A39" s="19" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D39" s="22">
         <v>25076</v>
@@ -9113,25 +9513,25 @@
         <v>52</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="7" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
     <row r="40" ht="24.35" customHeight="1" spans="1:12">
       <c r="A40" s="19" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D40" s="22">
         <v>19436</v>
@@ -9142,10 +9542,10 @@
         <v>67</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="6"/>
@@ -9154,13 +9554,13 @@
     </row>
     <row r="41" ht="24.35" customHeight="1" spans="1:12">
       <c r="A41" s="33" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D41" s="22">
         <v>13298</v>
@@ -9181,7 +9581,7 @@
     </row>
     <row r="42" ht="24.35" customHeight="1" spans="1:12">
       <c r="A42" s="33" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="28"/>
@@ -9262,25 +9662,25 @@
     </row>
     <row r="2" ht="34.55" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -9288,19 +9688,19 @@
     </row>
     <row r="3" ht="36.8" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -9454,49 +9854,49 @@
     </row>
     <row r="2" ht="22.35" customHeight="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" ht="22.35" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -9563,26 +9963,26 @@
     </row>
     <row r="2" ht="35.1" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" ht="34.75" customHeight="1" spans="1:4">

--- a/database.xlsx
+++ b/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="540">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -227,6 +227,12 @@
     <t>1909年2月，法国《费加罗》报刊出了《未来主义宣言》</t>
   </si>
   <si>
+    <t>欧洲现代音乐体系的建构过程和基督教发展史密不可分，基督教相当程度上压碎了富含异教徒成分的民俗音乐生产体系，将其中部分曲子在去除异教脉络后转化为基督教音乐。这种去脉络的模式成为后来艺术音乐截取民乐模式的原型</t>
+  </si>
+  <si>
+    <t>古典音乐主体在20世纪面临了巨大的危机：资本主义的发展造成的社会分裂成就了破碎的社会景观，19世纪布尔乔亚的单一价值观显得古旧可笑。</t>
+  </si>
+  <si>
     <t>斯特拉文斯基《火鸟》一夜成名</t>
   </si>
   <si>
@@ -239,9 +245,15 @@
     <t>勋伯格任教于柏林和维也纳，开始思考音乐的结构</t>
   </si>
   <si>
+    <t>工业革命赋予了噪音全新的意义，开始摆脱“寂静”的束缚</t>
+  </si>
+  <si>
     <t>第二次工业革命带来技术飞跃，大机器生产，工业噪音</t>
   </si>
   <si>
+    <t>前卫主义这们想要更进一步以超人般的为例创造它们的时代，无论意大利未来派、荷兰风格派、德国包豪斯等前卫运动，无法用风格演进的角度来例假，因此要将他当作一种去领域的总体运动，也就是文化革命运动来看。</t>
+  </si>
+  <si>
     <t>未来主义者们拒绝歌颂旧文化，而是改造新文化。他们从现代科学，自动机器，新媒体科技中看到新文明的曙光。颂扬机器的速度与力量，他们相信人类可以借由自己发明的机器来推翻停滞、静态的旧世界，超越自然以及现有社会兼职对人的限制</t>
   </si>
   <si>
@@ -249,9 +261,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">斯特拉文斯基《春之祭》
 3月9日，罗马康斯坦丁剧院，马里内帝和卢梭罗疯狂的自由诗朗诵演说后，普拉泰拉的未来主义音乐表演引起观众狂热反应（扔垃圾）并最终成就一场未来主义丑闻剧
-俄国未来派结合‘超越’和‘心’发明‘宙姆’一词。将意大利未来派的机械声音和萨满、神秘学等自然“语言”结合
+俄国未来派结合‘超越’和‘心’发明‘宙姆’（ZAUM）一词。将意大利未来派的机械声音和萨满、神秘学等自然“语言”结合
 </t>
     </r>
     <r>
@@ -262,11 +280,18 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-杜尚《音乐勘误表》20世纪最早的概率作曲实验</t>
+杜尚《音乐勘误表》20世纪最早的概率作曲实验
+第二批未来主义者如迪培罗企图超越传统媒材的表达。他们一同制造了可以自动旋转、发出闪光和噪音的造型机器《造型复合体》（complessi plastici，1913），即脱离了使用生产功能，将气味、运动、噪音等这些过去被认为是没用的副产品一变而为艺术主题</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">未来主义艺术家马里内帝《摧毁句法》宣言
 马里内帝访俄，军医艺术家库布林接待
 </t>
@@ -282,16 +307,31 @@
     </r>
   </si>
   <si>
-    <t>马里内帝个人巧妙运用大众传播媒体来推广未来主义运动，从文学、造型艺术家响应后，音乐剧场摄影服装建筑等艺术家加入</t>
+    <r>
+      <t xml:space="preserve">马里内帝个人巧妙运用大众传播媒体来推广未来主义运动，从文学、造型艺术家响应后，音乐剧场摄影服装建筑等艺术家加入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+“现代音乐和前卫噪音在听觉现代性的发展脉络中交缠拉扯，从风格来做出二分不切实际，其真正的差异可说只存在于政治位置上。无论声音诗、行为艺术、噪音表演、现代音乐都使用噪音为素材，但是现代音乐中的噪音仅限于音乐文法的内部断裂，音乐现代主义者Varese的‘有组织的噪音son organise’，即去除声音素材之脉络，将之萃取组合为全新的音乐，这种音乐反抗既有结构，却总是指向另一种纯粹的内在结构，无论在艺术形式上或音乐生产方式上，最终都不得不返回高度现代性的控制系统。直接的说，现代音乐收编噪音，将一切非乐音（声学意义上的噪音）、非主流（政治意义上的噪音）的声音转换为纯粹音乐聆听，最终现代音乐只能是扩大现代性音乐的改革主义。”</t>
+    </r>
   </si>
   <si>
     <t>未来主义者认为机器给人类带来肢体的延伸，感官能力的扩张，能够帮助人类超越自我，超越旧文明甚至是死亡。因此他们不是将机器拟人化，而是反过来将人性拟物化。因此他们支持战争，认为其是推动世界进步的力量</t>
   </si>
   <si>
-    <t>1914年米兰剧院的《未来主义噪音音调大会》，Luigi Russolo路易吉卢梭罗退出他的三首噪音曲目</t>
-  </si>
-  <si>
-    <t>卢梭罗发表《未来主义宣言——噪音的艺术》，可能是现代主义脉络中以噪音艺术为主题最早的文字《L'arte dei rumori》</t>
+    <t>1914年米兰剧院的《未来主义噪音音调大会》，Luigi Russolo路易吉卢梭罗退出他的三首噪音曲目
+卢梭罗发表《未来主义宣言——噪音的艺术》，可能是现代主义脉络中以噪音艺术为主题最早的文字《L'arte dei rumori》</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1914法国百代Pathe公司发明双规双针设计的唱机
+</t>
   </si>
   <si>
     <t>第一次世界大战</t>
@@ -301,6 +341,9 @@
   </si>
   <si>
     <t>古典乐派脉络出身的未来主义音乐家如普拉泰拉，卡萨沃拉，米克斯等人。追求非传统的和声，并引入非传统乐器的发声工具到管弦乐作曲中。</t>
+  </si>
+  <si>
+    <t>Varese撰文构想一台直接将作曲家的想法变成声音的机器（合成机器的最初）</t>
   </si>
   <si>
     <t>第一次世界大战
@@ -322,12 +365,15 @@
 《达达宣言》嘲讽的态度来重复未来主义的修辞</t>
   </si>
   <si>
-    <t>卢梭罗提出【噪音艺术】Art del Rumori</t>
+    <t>卢梭罗提出【噪音艺术】Art del Rumori，在实验音乐观念为进入艺术建制的上世纪初，噪音乐器对于党徽的文艺界而言是挑衅的恶搞行为</t>
   </si>
   <si>
     <t>卢梭罗强调，不协和音程的音色本身仍受制于传统交响乐团的乐器和编制，为了将工业时代的噪音美学推展至顶点，应创造全新的音色、和声与结构，创造全新的乐器、记谱系统和聆听系统</t>
   </si>
   <si>
+    <t>卢梭罗自制了一批可以控制音高、动态和音色的噪音乐器如“响雷器、爆炸器、口哨机”等统称为噪音音调机（intonarumori）</t>
+  </si>
+  <si>
     <t>【非洲主义】影响遍布20世纪各种西方现代艺术，截取非洲某些文化元素，将其去脉络化植入欧洲当代文化脉络中，制造一种绝对不可能正常理解的【他者】来挑战艺术建制</t>
   </si>
   <si>
@@ -338,15 +384,23 @@
   </si>
   <si>
     <t>第一次世界大战
-马里内帝与未来主义同事成立了意大利未来党，并提出新国家建设纲领：将意大利从教廷、王权、婚姻、议会的智库下解放出来</t>
+马里内帝与未来主义同事成立了意大利未来党，并提出新国家建设纲领：将意大利从教廷、王权、婚姻、议会的智库下解放出来
+德国政府感到布尔什维克革命以国内反政府威胁，开始理发限制无线电发射器的使用，取缔地下电台</t>
   </si>
   <si>
     <t>对俄国而言，新科技、新政治、新艺术与革命理想一回事（解放无产阶级的武器）。现代主义</t>
   </si>
   <si>
+    <t>未来主义歌颂机械乌托邦</t>
+  </si>
+  <si>
     <t>东京帝国大学的学生组成“新人会”，是最早的日本学生组织</t>
   </si>
   <si>
+    <t>中国五四运动
+凡尔赛条约</t>
+  </si>
+  <si>
     <t>巴黎嘉莫堂（salle gaveau）的达达节是达达混乱年代走向终结的开始（林.p56）女装，扮鬼，无休止弹三连音，无意义的音节诗，这种自我贫瘠化的表演</t>
   </si>
   <si>
@@ -360,27 +414,75 @@
   </si>
   <si>
     <t>俄国无产阶级革命胜利后，作曲家阿夫拉莫夫在石油工业城巴库举办《汽笛交响乐》，全市机械汽笛一同齐奏17度音</t>
+  </si>
+  <si>
+    <t>法国Radiola电台自埃菲尔铁塔开播并在1922冬推出广播剧《有背景音的耶诞故事》</t>
   </si>
   <si>
     <t>苏联成立
 意大利黑衫军以街头暴力获取政权，法西斯党中的未来主义者和社会主义者集体脱党。自由主义者、贵族和国家主义者大量入党导致其右倾化</t>
   </si>
   <si>
-    <t>勋伯格提出12音理论</t>
-  </si>
-  <si>
-    <t>墨索里尼取得执政权</t>
+    <t>匈牙利艺术家、包豪斯教授Moholy-Nagy在New form in Music：Potentialities of the Phonograph一文中构想了一种声音造型方案：声音造型可以来自许多意想不到的自动音源，例如安置在观众席下放的喇叭等</t>
+  </si>
+  <si>
+    <t>勋伯格提出12音理论。看似打破了古典和声学的支配，本人鉴定认为自己属于浪漫派音乐合乎内在逻辑的延伸。</t>
+  </si>
+  <si>
+    <t>墨索里尼取得执政权
+美国开始限制发射器的贩售</t>
+  </si>
+  <si>
+    <t>前卫政治与前卫文艺的割裂：前卫政治自认为掌握历史规律，能够成为民众先锋的指导者，主流美学领导人强调艺术为人民服务，现实主义在线真实。
+前卫文艺则反对写实主义再现，强调再现性是19世纪资产阶级残留的美学，主张以形式主义将艺术政治化，唤醒人们的直觉能力。</t>
+  </si>
+  <si>
+    <t>每一种前卫文艺运动都对应一个前卫政治运动：
+俄国前卫主义——共产主义、科技乌托邦
+未来主义——法西斯主义、超人机器
+达达主义——无政府主义、反科技主义
+包豪斯——社会主义</t>
   </si>
   <si>
     <t>史特维斯在包豪斯活动上朗诵《原声奏鸣曲》，试图表现原始语言，语言降低到基本元素</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">BBC制作展出利用广播媒材性的广播剧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Varese提出超越平均律理论，直接以来声音的频率、节奏、强度、时值来思考声音</t>
+    </r>
+  </si>
+  <si>
     <t>斯大林上台</t>
   </si>
   <si>
     <t>Kurt Weill “绝对广播”——包括噪音、自然声音和听不到的声音</t>
   </si>
   <si>
+    <t>工程师Kuchenmeister发明的仿立体声唱机Pseudo-stereo乌塔风Ultraphone</t>
+  </si>
+  <si>
+    <t>特雷门琴诞生</t>
+  </si>
+  <si>
+    <t>Fritz Pfleumer在赛璐璐带上涂抹磁性漆料，制造出了录音磁带</t>
+  </si>
+  <si>
+    <t>法国工程师Maurice Martenot以特雷门合成技术为基础，发表形似风琴的“音乐之波”（Onde Musical）马特诺之波</t>
+  </si>
+  <si>
+    <t>爱森斯坦、普多夫金、亚历山德罗夫联合发表反写实主义的《声音宣言》，主张一种脱离影音对应写实关系的配音</t>
+  </si>
+  <si>
     <t>日本出现金融危机。学生运动也达到了战前时期高潮</t>
   </si>
   <si>
@@ -390,10 +492,50 @@
     <t>世界经济（美国）大萧条开始</t>
   </si>
   <si>
+    <t xml:space="preserve">最早的电子鼓机Rhythmicon，由特雷门琴之父受委托制造，可以同时播出15个节奏，同时调变速度与音高
+</t>
+  </si>
+  <si>
+    <t>德彪西的弟子Edgar Varese（电子音乐之父）就写文章呼吁电子乐器的出现</t>
+  </si>
+  <si>
+    <t>勋伯格的12音破坏了古典和声概念，最大限度扩张了和声表现的可能性。如果再要从声音材质上寻求突破，那么真横依赖古典乐器之外的音响资源（电子乐器）</t>
+  </si>
+  <si>
     <t>日本举办特雷门琴和马特诺琴的视奏会</t>
   </si>
   <si>
+    <t>Thomas MacDonald与费城管弦乐团为贝尔实验室进行了立体声录音实验，他发明了真正的立体声唱机PultiplexGrand
+童年，英国工程师Alan Blumlein取得了立体声录音的专利权</t>
+  </si>
+  <si>
     <t>“三月事件”、“十月事件”，日本帝国陆海军走向分裂</t>
+  </si>
+  <si>
+    <r>
+      <t>苏联未来派音乐家Arseny Avramov在1930年代初期发明最早的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光学声音合成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——在电影声轨细细的涂上墨汁</t>
+    </r>
+  </si>
+  <si>
+    <t>贝尔实验室以45°斜刻两音轨在同一沟纹上，录制了史克里亚宾《火之诗》</t>
   </si>
   <si>
     <t>德国失业率30%</t>
@@ -417,11 +559,33 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>这是未来主义者第一次用广播发声</t>
+      <t xml:space="preserve">这是未来主义者第一次用广播发声
+</t>
     </r>
-  </si>
-  <si>
-    <t>纳粹党上台，开始宣传并迫害犹太人</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立体声录音发明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">纳粹党上台，开始宣传并迫害犹太人
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>戈培尔将前卫派打为“颓废艺术”并进行打压</t>
+    </r>
   </si>
   <si>
     <t>1933年未来主义无线电宣言《辐射》是未来主义最后的宣言之一，马里内帝与皮诺.马斯纳塔（Pino Masnata）宣告未来主义曾经一度鼓吹的机械艺术时代之终结。</t>
@@ -437,7 +601,11 @@
     <t>苏联文化部长日丹诺夫出台文化政策，使得社会主义现实主义成为唯一的苏联合法风格，前卫实验被打成小资产阶级、无政府主义和颓废主义</t>
   </si>
   <si>
-    <t>德国赛璐璐磁带</t>
+    <t>法国导演Abel Gance的《拿破仑》一片试验了电影双声道系统pictographe</t>
+  </si>
+  <si>
+    <t>德国赛璐璐磁带，公开发行AEG磁带录音机Magnetophone
+Edwin H Armstrong发明调频广播FM</t>
   </si>
   <si>
     <t>伊福部昭管弦乐《日本狂想曲》，被亚历山大.齐尔品访问亚洲演出时发掘此人，童年受到斯特拉文斯基影响</t>
@@ -446,10 +614,45 @@
     <t>勋伯格弟子韦伯恩《变奏曲》（作品27号）发挥序列主义手法</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德国电影理论家爱因海姆《广播》一书中强调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广播科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>带来的新认知模式：艺术学者必须要全面正式无线科技所带来的新可能性，因为这事人类有史以来第一次能够在纯粹声音的未知世界中展开实验探索，也是所谓的盲听状态</t>
+    </r>
+  </si>
+  <si>
     <t>二二六事变</t>
   </si>
   <si>
+    <t>贝尔实验室与费城管弦乐团合作，将三轨录音（左中右）转印于光学声轨上，即首部立体声电影《幻想曲》（Fantasia）</t>
+  </si>
+  <si>
     <t>侵华战争</t>
+  </si>
+  <si>
+    <t>Orson Welles导演，水星剧团演出，哥伦比亚广播公司制作播出的广播剧《世界大战》引起全美听众的巨大恐慌</t>
   </si>
   <si>
     <t>至此，日本高校中的“反体制”势力受到法西斯军国主义政权高压下消失</t>
@@ -459,16 +662,41 @@
 东京帝国大学经济学部教授河合荣治郎在军部压力下被解除职务</t>
   </si>
   <si>
-    <t>约翰·凯奇使用铁砧作为它的部分乐谱的作品First Construction in Metal（1939）声音雕塑</t>
+    <t>约翰·凯奇使用铁砧作为它的部分乐谱的作品First Construction in Metal（1939）声音雕塑
+John Cage使用唱片播放器作品《想象的风景》imaginary landscape</t>
   </si>
   <si>
     <t>第二次世界大战</t>
   </si>
   <si>
+    <t>40年代Cage的观念受到铃木大拙禅宗的影响</t>
+  </si>
+  <si>
+    <t>香浓与图灵发明Vocoder</t>
+  </si>
+  <si>
+    <t>40年代参加铃木大拙（是教授而非禅师）的课。但是铃木的禅宗思想只属于“铃木禅”而非真正的禅宗。给cage带来无序与不确定的表述“寂静、空、公案”。
+铃木对禅宗的误解：将禅宗=不可理解==混乱和断灭。超越语言与离职可描述的范围绝不等同于混乱相
+齐泽克Zen at war论战中指出，铃木大拙的所谓禅宗观念也为军国主义服务过。</t>
+  </si>
+  <si>
+    <t>日本民族音乐学者黑泽隆朝40年代用爱迪生录音机录制台湾民乐录音</t>
+  </si>
+  <si>
     <t>梅西安参军被俘后获释，任教巴黎音乐学院</t>
   </si>
   <si>
+    <t>第二次世界大战
+美国成立战争资讯办公室OWI，建立了全球都可以收到的美国之声短波广播网</t>
+  </si>
+  <si>
     <t>梅西安出版"Technique of my musical language"</t>
+  </si>
+  <si>
+    <t>“序列”原则对勋伯格等人而言主要应用在音高上，对于45年之后新一辈序列作曲家如布列兹、施托克豪森、泽纳西斯等人，则将音频、音高、音长、动态等元素纳入序列秩序之中</t>
+  </si>
+  <si>
+    <t>二战结束后，德国文化自信崩溃，为了重建后纳粹时期的文化认同问题，“敌人不要的，就是我们要的”为原则，一度被纳粹打压的12音、包豪斯、表现主义、立体主义等等翻身成为被供着的显学</t>
   </si>
   <si>
     <t>侵华战争
@@ -487,6 +715,9 @@
 联合国成立</t>
   </si>
   <si>
+    <t>二战胜利后，美国与西欧以纳粹、共产主义为标靶来建立文化合法性，在“敌人的敌人就是朋友”的原则下，现代艺术从地下文化一跃成为“文化正统”（在排除达达、未来主义中的前卫政治毒素为前提）。反映政商所需要的基金会、美术馆、国家文化单位、支持作品性强、可收藏与消费的创作倾向。这些中介制定游戏规则、安排游戏空间、经由媒体引导大众、同时担任仲裁角色</t>
+  </si>
+  <si>
     <t>其特异文化形成的特异性格（菊与刀）促使其战后顺利改造，即从战败中洗刷屈辱。尊敬父亲的文化是等级制的超人格象征。</t>
   </si>
   <si>
@@ -532,8 +763,21 @@
 并委派为【具象音乐研究小组组长】GRMC</t>
   </si>
   <si>
-    <t>法国广播公司开始关注投资新录音美学的开发
-德国作曲家Herbert Eimert任西北德广播电台的音乐节目策划。和Robert Beyer、人工合成专家Werner Meyer-Eppler成立电子音乐工作室studio Fur Elektronische Musik）</t>
+    <r>
+      <t xml:space="preserve">法国广播公司开始关注投资新录音美学的开发
+德国作曲家Herbert Eimert任西北德广播电台的音乐节目策划。和Robert Beyer、人工合成专家Werner Meyer-Eppler成立电子音乐工作室studio Fur Elektronische Musik）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+加拿大Huge Le Caine发明了压控振荡器VCO</t>
+    </r>
   </si>
   <si>
     <t>随着美苏冷战开始，遏制共产主义成为美国意识形态上的优先事项。同时美对日政策也同年开始转向扶植其经济独立复苏。</t>
@@ -543,6 +787,9 @@
 德国电子音乐的起源则是勋伯格12音理论的影响和延伸</t>
   </si>
   <si>
+    <t>日本战后社会秩序在通货膨胀、美苏冷战的背景下混乱又秩序井然地恢复。此时的音乐家们无暇追求所谓的“前卫”，终日奔波于接活儿</t>
+  </si>
+  <si>
     <t>战后通货膨胀加剧，青年学生生活困难</t>
   </si>
   <si>
@@ -550,7 +797,8 @@
 </t>
   </si>
   <si>
-    <t>中华人民共和国10月1日成立</t>
+    <t>中华人民共和国10月1日成立
+北约成立</t>
   </si>
   <si>
     <t>梅西安作为具有影响力的巴黎音乐学院的老师，对其学生（布列兹、施托克豪森）的创作产生了影响，主要来自其对序列主义、十二音的教授（1947-1952）</t>
@@ -562,6 +810,9 @@
     <t>东京通信工业公司独立开发G-type磁带录音机</t>
   </si>
   <si>
+    <t>Cage在50年代提出了去除音源物之名的聆听方法。后来Michel Chion从认知的角度分析Cage，将声音叙事性、景观性和理论性做出了区分</t>
+  </si>
+  <si>
     <t>科隆录音室的合成系统：sine/saw osc，ring modulate，white noise osc，filter，pitch shift record，4ch type-recorder</t>
   </si>
   <si>
@@ -584,6 +835,9 @@
   </si>
   <si>
     <t>布列兹在皮埃尔.舍费尔的音乐研究小组工作</t>
+  </si>
+  <si>
+    <t>经过战后美国与盟国对文化建制的全面改造，成功的清洗掉了现代艺术中的前卫倾向，当代艺术奇妙的将社会反抗还原为形式主义，去除了其中的无政府主义成分。现代艺术转而成为了抵抗共产主义美学的工具，前卫转变成了一种艺术风格。</t>
   </si>
   <si>
     <t>黛敏郎前往法国留学（被法国接受的留学生），是建立在日本通过旧金山和约“回归国际社会”的大背景下。社会秩序等开始逐渐恢复，而巴黎音乐学院</t>
@@ -597,14 +851,22 @@
     <t>9月8日日本签订旧金山和约，取消GHQ，恢复形式上主权</t>
   </si>
   <si>
+    <t>https://www.schottjapan.com/composer/ichiyanagi/bio.html
+日本作曲家作品履历</t>
+  </si>
+  <si>
     <t>1952 年凯奇在黑山学院做的一个晚间节目，被认定为是第一个激浪派音乐会和第一个偶发艺术表演。音乐家站在梯子上指挥，肯宁汉舞团在凯奇的音乐和劳森伯格的舞台设计中表演芭蕾。劳森伯格的布景是他的“白画” ---- 观众的影子落在上面产生变化。
-同年，Cage创作《4’33》</t>
+同年，Cage创作《4’33》
+雕塑家Bashet兄弟的作品很早就被视为声音雕塑，他们52年开始以金属材质制作声音雕塑品，未来派的风格和电子音乐般的音色吸引了大众注意</t>
   </si>
   <si>
     <t>施托克豪森在巴黎参加梅西安的《节奏与美学》课程，认识舍费尔，进入法国广播公司创作了其第一首具象音乐作品《Etude（练习曲——具象音乐）》</t>
   </si>
   <si>
-    <t>4分33秒是声音艺术史上的一个里程碑，在观念上cage用近乎行为艺术的方式和观念突破了“音乐”的界限，强调了受众的听觉主体</t>
+    <t>4分33秒是声音艺术史上的一个里程碑，在观念上cage用近乎行为艺术的方式和观念突破了“音乐”的界限，强调了受众的听觉主体性。艺术家退到了观众身后，将音乐厅内外的声音变成了表演的内容。</t>
+  </si>
+  <si>
+    <t>现代性的特征在于主体与客体的二分，即听者-发声体的二元对立，空间也成为了中性的客体。与视觉主题形成对立，这种对立在视觉上适用，却遭到了听觉的顽强抵抗。声音很难纳入视觉系的主客二元对立中。音源和听者在声音传播的过程中反射、折射、滤波等改变了声音的频谱分布，听者的位置、生理心理状态也会改变接收到的声音。在一个声场之中，音源听者和实体空间互相渗透，无法三分。</t>
   </si>
   <si>
     <t>黛敏郎参与舍费尔在巴黎的音乐会。第一部彩色片《カルメン故郷に帰る》制作磁带音乐
@@ -649,7 +911,19 @@
     <t>一柳慧渡美前往纽约茱莉亚音乐学院学习</t>
   </si>
   <si>
+    <t>Lejaren Hiller 和Leonard Isaacson使用Illiac电脑制作了名为Illiac Suite伊利亚克组曲，是最早的电脑音乐实验之一。</t>
+  </si>
+  <si>
+    <t>Harry Olson等人为RCA公司设计了第一个正式以合成器命名的电子乐器：RCA合成器，与天子亲最大的不同在于可以从正弦波来合成前所未有的声音</t>
+  </si>
+  <si>
     <t>越南战争（第二次印度支那战争）开始，美军开始派兵</t>
+  </si>
+  <si>
+    <t>电脑音乐的强技术性淡化了作曲家的主体表现，并且使得演奏家的工作面临了直接威胁。电子音乐比起序列音乐更能极端的体现阿多诺的话：“主体被独立发展的科技褫夺了权利，进而在意识的层面甚至整个创作程序，主体都失去了舞台”《美学理论》</t>
+  </si>
+  <si>
+    <t>电子音乐由于早期必须要工程师辅助组装大量的硬件，因此在硬件系统建立之前其音色、调制能力已经收到硬件的先觉</t>
   </si>
   <si>
     <t>黛敏郎模仿这部《习作1号》发表了日本最早的电子音乐作品『素数の比系列による正弦波の音楽』
@@ -690,6 +964,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>世博会。勒·柯布西耶（Le Corbusier）的作品。埃德加·瓦雷兹（Edgard Varèse）的电子音乐作品Poème électronique和伊阿尼斯·泽纳基斯（Iannis Xenakis）的一个录有煤的燃烧声的磁带作品Concret PH，通过展区里的450个扬声器反复播放。伴随这个声音装置的还有幻灯片和电影，这就使得整个展区成为一个多媒体景观，但同时</t>
     </r>
     <r>
@@ -706,6 +986,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 美国Art Blakey爵士信使乐团发表专辑《Moaning》
 </t>
@@ -727,6 +1013,22 @@
     <t>约200万工会组织成员参与罢工，反对修改日美安保条约</t>
   </si>
   <si>
+    <t>Cage《1959（water walk） 》该作品看似混沌无序但是完全遵循声音事件，没有随机。有明确的位置摆放规定。（无序下的规则）</t>
+  </si>
+  <si>
+    <t>出生于30-40年代的艺术家在60-70年代广泛的实验各种新媒体材料。战后新艺术强调创作的过程性、身体性、互动性、而不着物象的声音无疑是此类去物质化创作的理想媒介</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+土方巽（1928-1986）为芦川洋子创作，作品遵循三原则：
+1、和西方舞蹈相比强调间断性、失衡、失序而不是节奏、平衡与流畅（对西方的逆反）
+2、在日本传统资源中寻求灵感（西方文化入侵背景下自我民族性的寻求）
+3、发展处低空的身体动作（针对本民族身材不适于芭蕾的反叛）</t>
+  </si>
+  <si>
+    <t>1959年《禁色》大野庆人(大野一雄次男），土方巽编舞，让他在舞台上用两股之间的力量夹死了一只活鸡。与现代舞蹈决裂。.舍弃任何可能会限制身体的舞蹈技巧，强调身体自然韵律所引导出来的动作。土方巽试图以混乱怪诞的力量、原始祭祀的形式、拼贴模仿的手法打破现代人被压抑的本能。</t>
+  </si>
+  <si>
     <t>一柳慧参加John Cage讲座，受其影响开始使用图形乐谱和不确定性音乐作曲，参加激浪派运动</t>
   </si>
   <si>
@@ -749,10 +1051,6 @@
     <t>The Ventures（投机者乐队）成军，形成20世纪六十年代的电吉他风潮，并席卷日本。</t>
   </si>
   <si>
-    <t>武满彻《water》（dj 评：比法国前进一大步的具象音乐，美学，能剧打击乐）
-8月 小杉武久、刀根康尚成立先锋演出团体Group Ongaku</t>
-  </si>
-  <si>
     <t>1960.5.19《日美安保条约》引起民众强烈不满，恐惧被再次卷入战争。持续一个月游行被镇压。</t>
   </si>
   <si>
@@ -760,6 +1058,12 @@
 受爵士乐专辑《Moaning》影响，掀起Funky Boom</t>
   </si>
   <si>
+    <t>Grorge Maciunas于1961年成立AG画廊成为激浪派艺术家早期重要的集结空间</t>
+  </si>
+  <si>
+    <t>60年代的欧洲民运风潮推动了独立媒体的出现</t>
+  </si>
+  <si>
     <t>JFK当选美国总统</t>
   </si>
   <si>
@@ -773,7 +1077,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">日本爵士乐手们将他们的学习团体改名为【新世纪音乐研究所】，高柳昌行作为中心人物
+1961年，为增加日本前卫艺术的影响力，敕使河原宏于1961年邀请Edgard Varese举办音乐会，然而。
+由于生病，访问不得不取消。为了代替埃德加.瓦雷兹，一柳敦促敕使河原宏邀请约翰-凯奇（John Cage）和钢琴家大卫-都铎（David Tudor）担任
 </t>
     </r>
     <r>
@@ -789,18 +1101,63 @@
   <si>
     <t>激浪派在德国维斯巴登新音乐节上宣告成立。激浪派的活动多具广义的音乐性格，常被称为音乐会。艺术家们书写乐谱，但与一般乐谱不同的是其上可以有文章、图画、符号。音乐会的内容包括戏剧、舞蹈、物体、诗歌和声音，观众的反应是演出的一部分。由创始人马修纳斯所策划的维斯巴登激浪节共举行了十四场音乐会，演出了希金斯、白南准、佛斯特尔、拉蒙特 · 扬和凯奇等多人的作品。在威廉斯的长歌剧中，他用了四十五分钟敲锅的声音。此后，激浪派在世界各地举办了多场“音乐会
 波依斯为第一届激浪节提出《泥土钢琴》计划：挖一个装钢琴的坑，一个土地中的钢琴负模，同时用泥土做一架钢琴。并在真的钢琴里倒土使之丧失发声功能。该计划因受阻没有实现。
-佛斯特尔在阿姆斯特丹演出《摇滚》。他用起重机把一个正演奏摇滚乐典的音箱高高举起并砸下</t>
+佛斯特尔在阿姆斯特丹演出《摇滚》。他用起重机把一个正演奏摇滚乐典的音箱高高举起并砸下
+西德威斯巴登，《piano Activities》演绎成暴动，当场肢解一台钢琴
+John Cage《0:00》乐谱上只有一句指示：在高度扩音下，做一件正常的事，于是cage把乐谱抄了一遍</t>
   </si>
   <si>
     <t>中苏论战爆发，共同支持北越发动人民战争
 古巴导弹危机</t>
   </si>
   <si>
+    <t>激浪派将对艺术建制的愤怒转移到古典乐器上，Maciunas说:弹奏琴键或者美声唱法所制造出来的抽象、人工化的乐音，远离物性表现。而“声音”则不然，钢琴如果不照规矩弹奏，而以锤子敲打，或者一脚猛踢，如此产生出的音响是具象的、物质性的，你可以听出锤子的坚硬感和钢琴音箱的空间感。（《neo-dada in music，theatre，poetry，art》）</t>
+  </si>
+  <si>
+    <t>激浪派音乐的曲目能否演奏并不重要，重要的是“观念”，即这些演出提案是否可能激发表演者本人，以及现场观众对环境意识的转换，突破理性桎梏，破坏社会建构而形成的自我</t>
+  </si>
+  <si>
     <t>刀根康尚，东京画廊，声音装置（白布下面的磁带录音，掩饰物理音源）
 渡边贞夫伯克利留学爵士乐</t>
   </si>
   <si>
-    <t>一柳慧和小野洋子离婚</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">一柳慧和小野洋子离婚
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约翰-凯奇（John Cage）和钢琴家大卫-都铎（David Tudor）1962年10月，两人先后在东京、京都、大阪演出。在这些音乐会上，二人演奏了不同的音乐组合曲目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1962年
+演出的曲目包括：
+Morton Feldman (Atlantis)  https://www.youtube.com/watch?v=bsBvOX5CY_c
+Karlheinz Stockhausen (Klavierstu¨ck X)  https://www.youtube.com/watch?v=qfRlVvqBfYA
+Christian Wolff (For six or seven players; For pianist)  https://www.youtube.com/watch?v=T1GNGbk7Mqw
+Takemitsu (Corona)
+Sylvano Bussotti (Five Piano Pieces for David Tudor)  https://www.youtube.com/watch?v=rWS3GCCJsbU</t>
+    </r>
+  </si>
+  <si>
+    <t>Robert Moog遇到磁带音乐家Herbert Deutsch并参加了他的新音乐发表会。Moog合成器能够商业化在于他善于根据电子音乐家的需求来想象</t>
   </si>
   <si>
     <t>美国支持南越军方推翻枪杀吴廷琰，军政府控制南越。
@@ -817,11 +1174,26 @@
 7 月 24 日在德国阿亨技术学院的“新音乐节”中，波依斯往钢琴中扔入了洗衣粉、香料、糖果、干树叶、和阿亨本地的教堂明信片后弹奏钢琴。他用自己的素描作为乐谱。</t>
   </si>
   <si>
-    <t>“快乐捣蛋鬼”公社，公路旅行分发并服用致幻剂。
-纽约民谣乐队The Holy Modal Rounders翻唱Leadbelly的Hesitation Blues首次使用了“迷幻”</t>
+    <r>
+      <t xml:space="preserve">“快乐捣蛋鬼”公社，公路旅行分发并服用致幻剂。
+纽约民谣乐队The Holy Modal Rounders翻唱Leadbelly的Hesitation Blues首次使用了“迷幻”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钢琴家Glenn Gould反对古典乐录音的完全真实还原性，主张多次录音剪辑混音</t>
+    </r>
   </si>
   <si>
     <t>小规模的反战运动于1964年在美国的大学校园开始，战后婴儿潮长成，青年崛起</t>
+  </si>
+  <si>
+    <t>Glenn Gould对古典音乐的“拼贴”观念可以类比到70年代的日本流行音乐巨匠大泷咏一。大泷咏一对音乐创作的观念主张也是“拼贴”，即从大量西方欧美摇滚乐、爵士乐、朋克音乐中的节奏、动机、编曲方式作为素材来大量“玩梗”到自己的音乐中</t>
   </si>
   <si>
     <r>
@@ -864,13 +1236,32 @@
     <t>摇滚乐以奥运会为标志呈现不同与美国的方向。电视台举办了大量电声乐队的竞赛，对日本年轻乐手是极大的培养作用</t>
   </si>
   <si>
+    <t>白南准用磁铁干扰电视磁场，将OSC插入电视</t>
+  </si>
+  <si>
     <t>艾伦·菲斯特（Alan Sonfist）的作品《时间风景》（Time Landscape，1965），占用了纽约闹市区的一个被遗弃的地段，重新创造了它在几个世纪前的石头和土地构造。</t>
   </si>
   <si>
+    <t>白南准当时的文化冲动不再与制作学院派电子音乐，而在于如何打破音乐学院建制。他与激浪派人一道发觉了音乐潜意识的能量来源——为布尔乔亚艺术建制所压抑的性欲</t>
+  </si>
+  <si>
     <t>富田勋为手冢治虫动画《Jungle Emperor》作曲</t>
   </si>
   <si>
-    <t>拉蒙特杨开始 Dream House</t>
+    <r>
+      <t xml:space="preserve">拉蒙特杨开始 Dream House
+美国雕刻家Harry Bertoia为公共空间制作了风动雕塑，人工喷泉上的铜棒在风吹时振动+底下流水声。是较早以声音为表现主体的公共艺术
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Max Neuhaus的观念性作品《Public Supply》是早期的开放媒体实验，他利用纽约某广播电台一小时的时间邀请观众进行call-in提供节目内容</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">斯特拉文斯基《安魂圣歌》(Requiem Canticles,1965-1966)晚期转向序列主义音乐的标志
@@ -882,15 +1273,58 @@
 中国文化大革命</t>
   </si>
   <si>
-    <t>Ventures乐队，利物浦系摇滚，披头士系摇滚对日本年轻人和它们的音乐形成了深远的影响。被称为GS时代（Group Sounds）</t>
+    <t>Ventures乐队，利物浦系摇滚，披头士系摇滚对日本年轻人和它们的音乐形成了深远的影响。被称为GS时代（Group Sounds）
+call-in的广播节目形式在今天当然已经被制式化了，在当时作为一种艺术观念方案来执行</t>
   </si>
   <si>
     <t>披头士赴日巡演
 John Coltrane赴日巡演，爵士乐热潮</t>
   </si>
   <si>
-    <t>Maryanne Amacher开始《城市链接》系列，传递不同空间环境声
-Cage《音乐马戏团》Musicirus，邀请不同演奏者在同一空间同时独奏或合奏，但是乐谱中没有对内容的要求</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Maryanne Amacher开始《城市链接》系列，传递不同空间环境声
+Cage《音乐马戏团》Musicirus，邀请不同演奏者在同一空间同时独奏或合奏，但是乐谱中没有对内容的要求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Max Neuhaus制作的《水上音乐》是最早的广播装置艺术（最早的声音装置作品之一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1967蒙特利尔世博会以“人的土地”为年度主题，颂扬人类对土地的改造和驾驭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一台八轨磁带录音机问世</t>
+    </r>
   </si>
   <si>
     <t>10万学生反战示威“向五角大楼进军”</t>
@@ -908,16 +1342,28 @@
     <t>劳森伯格创作《回声》，他应用了极其复杂的枝术，和太空工程师、技术人员合作。在《回音》前移动的观众，看到暗色的银箔映着他的影子，他只能默默地看着自己，但当人一发出声音，就会和作品产生关联。因为挂着的麦克风会收集信息，它能纪录人的四种声音：头、口、喉和胸部发出的声音，光会对麦克风所收到的声音进行反应，这时候，观众便从银箔画面上消失，出现的是的椅子的图像，由于交替出现和变暗，它们看起来象在不同的层面上翻滚。由于光的设定不同，每个观者的反应也随之不同。</t>
   </si>
   <si>
-    <t>法国爆发“五月风暴”学生运动
-中国“文化大革命”</t>
+    <t>1968年《Switched-on Bach》唱片，第一张电子音乐的白金唱片，Moog因此名声大噪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法国爆发“五月风暴”学生运动
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1968年土方巽舞踏《肉体的叛乱》，使用了肖邦的背景音乐，受到了年轻人极大欢迎，舞蹈本身同当时的学生运动形成共鸣呼应。</t>
   </si>
   <si>
     <t>佛斯特尔发表《热、电、口香糖》：行动者穿过两道刺铁丝所围成的通道，地上铺满了上千根汤匙和叉子，手提一个行李箱，箱内是收音机。他的脸颊上固定着麦克，接受他咀嚼口香糖的声音，这声音被放大并用于启动手提箱中的收音机。
 　　他的《感应》中，行动者借助改装的电子器材来制造声响，他拿着感应板在空间中走动寻找预制的磁场，一旦踩到安装在地面上的感应圈内，空间中的扬声器便会发出电子声音。
-莫尔曼演出白南准的《奏鸣曲》，她穿着制服，背着大提琴匍匐前进。在纽约卡内基音乐厅首演的《性学歌剧》中，她一边演奏巴赫的曲子一边渐次脱去身上的衣服，导致作曲者和演奏者均被捕</t>
-  </si>
-  <si>
-    <t>伍德斯托克音乐节。迷幻歌手绝大多数主要人物都参加了演出，即迷幻音乐运动的高潮</t>
+莫尔曼演出白南准的《奏鸣曲》，她穿着制服，背着大提琴匍匐前进。在纽约卡内基音乐厅首演的《性学歌剧》中，她一边演奏巴赫的曲子一边渐次脱去身上的衣服，导致作曲者和演奏者均被捕
+小衫武久《革命音乐》总谱：挖下你的一只眼睛，五年之后挖出另一只</t>
+  </si>
+  <si>
+    <t>伍德斯托克音乐节。迷幻歌手绝大多数主要人物都参加了演出，即迷幻音乐运动的高潮
+1969芝加哥现代美术馆“电话艺术展”，Robert Huot提供26支电话号码给观众，让他们利用美术馆的电话打给对方找Art（26个名叫Arthur的男人的电话）</t>
+  </si>
+  <si>
+    <t>60年代末美国本土广播是AM台的天下，因为二战后美国联邦通讯委员会在RCA公司游说下把FM挤出高频频段VHF，使得FM只能短距离传输。机缘巧合的促使了FM电台的普及化，各种独立电台应运而生</t>
   </si>
   <si>
     <t>1969年Cage与电脑音乐家Lejaren Hiller合作的《HPSCHD》持续5小时庞大表演，分别同时演奏cage的曲子、播放古典音乐、播放电脑合成声音（噪音不光指内容的无序，更指内容量的过载</t>
@@ -957,6 +1403,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">英国艺术家吉尔伯特和乔治在伦敦和杜塞尔多夫等地多次表演了他们的行为艺术《唱歌的雕塑》。
 Alvin Lucier：《I’m sitting in a room》，Brandeis University（compose）。Guggenheim Museum（perform）路斯尔记录和再记录自己的声音的声音，将录制结果重新在房间里一遍一遍地反复播放直到听到的不再是他的声音的声音，而是房间的谐振声，而谐振声保留了他讲话的节奏。
 </t>
@@ -973,99 +1425,140 @@
     </r>
   </si>
   <si>
-    <t>1967蒙特利尔世博会以“人的土地”为年度主题，颂扬人类对土地的改造和驾驭</t>
-  </si>
-  <si>
-    <t>“使用电子器材便捷的制造音乐”是当时发展了二三十年的电子音乐技术第一次大规模的“落地”，尽管它给人带来的影响是听觉文化上的普及。</t>
-  </si>
-  <si>
-    <t>大阪世博会上的展览是一个合成器史上历时性的契机，在此之后合成器开始商业化。日本不少后来的电子音乐家都表示受此影响</t>
-  </si>
-  <si>
-    <t>地下摇滚乐队“头脑警察”成立（中村治雄，石塚俊明）</t>
-  </si>
-  <si>
-    <t>大阪世博会展出了当时最新的Moog模块合成器。武满彻和美术家宇佐美圭司制作的多媒体镭射艺术表演影响了泽纳西斯，并应用在自己的表演中。</t>
-  </si>
-  <si>
-    <t>尼克松访华</t>
-  </si>
-  <si>
-    <t>日本人试图证明传统乐器如尺八能够与爵士乐兼容</t>
-  </si>
-  <si>
-    <t>爵士乐专辑《银界》尺八家山本邦山，菊地雅章</t>
-  </si>
-  <si>
-    <t>美国单方面提高日本关税10%,日本金融危机</t>
-  </si>
-  <si>
-    <t>8.14-16日，为反对新东京国际空港建设，音乐节“三里塚.幻野祭”举办，头脑警察、灰野敬二、阿部薰、加藤登纪子等出演</t>
-  </si>
-  <si>
-    <t>日本开始在合成器的生产制造上民主化，平民化，商品化</t>
-  </si>
-  <si>
-    <t>美国将托管的冲绳还给日本，“冲绳返还”</t>
-  </si>
-  <si>
-    <t>因为原投资方经营恶化。梯郁太郎成立 ROLAND
-头脑警察因为歌词过于政治和激进，首专《头脑警察1》被停止贩卖和停止播放</t>
-  </si>
-  <si>
-    <t>广濑量平《梦十夜》</t>
-  </si>
-  <si>
-    <t>爵士乐大师Duke Ellington去世</t>
-  </si>
-  <si>
-    <t>反向的来印证，无疑能够说明“德彪西和斯特拉文斯基带给日本作曲家的影响是巨大的”，使用电子音乐翻奏谁家的古典音乐都可以，却选择了特定的作曲家和作品来进行演绎。这种创作直觉的判断</t>
-  </si>
-  <si>
-    <t>模拟合成器的推广与民用化最直接明显的结果就是极大的丰富了电子音乐的创作技法，丰富的声音处理技巧带来了丰富的音响效果。富田勋选择使用电子音乐大量的重新演绎古典乐，特别是浪漫派德彪西以及斯特拉文斯基的作品。</t>
-  </si>
-  <si>
-    <t>秋吉敏子《孤军》使用外国人爵士大乐队来反向演绎日式传统题材的声音，享誉爵士乐界和国内国际，拿奖无数
-富田勋《雪花在跳舞》专辑使用电子音乐翻奏德彪西等古典作品，大受欢迎</t>
-  </si>
-  <si>
-    <t>GRM并入法国国家影音中心INA-GRM</t>
-  </si>
-  <si>
-    <t>诚然舍费尔对音乐学院少有影响力，但是作为采样音乐的祖师爷，其影响遍布20世纪后半的流行音乐、电子音乐、科技舞曲</t>
-  </si>
-  <si>
-    <t>小杉武久《Catch-Wave》
-灰野敬二解散Lost Aaraaff，开始弹奏吉他</t>
-  </si>
-  <si>
-    <t>富田勋获得格莱美奖</t>
-  </si>
-  <si>
-    <t>sound sculptures 声音雕塑系列装置开始启动。旧金山现代艺术博物馆《SFMOMA》</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t> +      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>比尔·封坦那的作品《瑞比利码头》（Kirribilli Wharf）是一个八声道的声音装置，声音是采于一个澳大利亚码头。</t>
+      <t xml:space="preserve">德国杜塞道夫舒曼学院Ralf Hutter、Florian Schneider和朋友一同成立实验音乐乐团Organisation“机构”。他们的创作来源是卢梭罗噪音艺术，激浪派、施托克豪森、Pink Floyd的迷幻音乐和Beach Boys的加州摇滚，后成立Kraftwerk
+Robert Murray Schafer在70年代提出Soundscape听觉理论
+</t>
     </r>
   </si>
   <si>
+    <t>电子影像磁带记录技术70年才全面商业化
+16轨、24轨录音机进入市场</t>
+  </si>
+  <si>
+    <t>“使用电子器材便捷的制造音乐”是当时发展了二三十年的电子音乐技术第一次大规模的“落地”，尽管它给人带来的影响是听觉文化上的普及。</t>
+  </si>
+  <si>
+    <t>大阪世博会上的展览是一个合成器史上历时性的契机，在此之后合成器开始商业化。日本不少后来的电子音乐家都表示受此影响</t>
+  </si>
+  <si>
+    <t>地下摇滚乐队“头脑警察”成立（中村治雄，石塚俊明）</t>
+  </si>
+  <si>
+    <t>大阪世博会展出了当时最新的Moog模块合成器。武满彻和美术家宇佐美圭司制作的多媒体镭射艺术表演影响了泽纳西斯，并应用在自己的表演中。</t>
+  </si>
+  <si>
+    <t>Malcolm McLaren开设TeddyBoys风格的服装店Let it rock</t>
+  </si>
+  <si>
+    <t>尼克松访华</t>
+  </si>
+  <si>
+    <t>日本人试图证明传统乐器如尺八能够与爵士乐兼容</t>
+  </si>
+  <si>
+    <t>爵士乐专辑《银界》尺八家山本邦山，菊地雅章</t>
+  </si>
+  <si>
+    <t>美国单方面提高日本关税10%,日本金融危机</t>
+  </si>
+  <si>
+    <t>8.14-16日，为反对新东京国际空港建设，音乐节“三里塚.幻野祭”举办，头脑警察、灰野敬二、阿部薰、加藤登纪子等出演</t>
+  </si>
+  <si>
+    <t>Vito Acconci《Seedbed》藏在画廊内木板下一边自慰一边对着地板下的mic说话，剧烈地挑战公私领域界限</t>
+  </si>
+  <si>
+    <t>日本开始在合成器的生产制造上民主化，平民化，商品化</t>
+  </si>
+  <si>
+    <t>刀根康尚为摩斯.康宁汉舞团作曲（Cage的基友）</t>
+  </si>
+  <si>
+    <t>美国将托管的冲绳还给日本，“冲绳返还”</t>
+  </si>
+  <si>
+    <t>因为原投资方经营恶化。梯郁太郎成立 ROLAND
+头脑警察因为歌词过于政治和激进，首专《头脑警察1》被停止贩卖和停止播放</t>
+  </si>
+  <si>
+    <t>Kraftwerk的Die Roboter一曲中，“人机器”的概念虽然在20世纪下半叶不再新鲜，但是四个人在表演现场面无表情地演奏合成器的行为成为了一个当代语言：人只是对象物，艺术家将自己等同为机械世界的一部分。</t>
+  </si>
+  <si>
+    <t>广濑量平《梦十夜》</t>
+  </si>
+  <si>
+    <t>Kraftwerk使用mini moog合成器制作了成名曲《Autobahn》（高速路）</t>
+  </si>
+  <si>
+    <t>爵士乐大师Duke Ellington去世
+TCP传输控制协议</t>
+  </si>
+  <si>
+    <t>意大利波隆那一群学运学生发起了“自由电台运动”，接连数周非法广播</t>
+  </si>
+  <si>
+    <t>反向的来印证，无疑能够说明“德彪西和斯特拉文斯基带给日本作曲家的影响是巨大的”，使用电子音乐翻奏谁家的古典音乐都可以，却选择了特定的作曲家和作品来进行演绎。这种创作直觉的判断</t>
+  </si>
+  <si>
+    <t>模拟合成器的推广与民用化最直接明显的结果就是极大的丰富了电子音乐的创作技法，丰富的声音处理技巧带来了丰富的音响效果。富田勋选择使用电子音乐大量的重新演绎古典乐，特别是浪漫派德彪西以及斯特拉文斯基的作品。</t>
+  </si>
+  <si>
+    <t>秋吉敏子《孤军》使用外国人爵士大乐队来反向演绎日式传统题材的声音，享誉爵士乐界和国内国际，拿奖无数
+富田勋《雪花在跳舞》专辑使用电子音乐翻奏德彪西等古典作品，大受欢迎</t>
+  </si>
+  <si>
+    <t>Malcolm McLaren成立性手枪乐队，朋克音乐始祖</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GRM并入法国国家影音中心INA-GRM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+M.Schafer得到加拿大国会资助开始研究欧陆声音人类学计划。
+Francois Bayle接掌法国GRM</t>
+    </r>
+  </si>
+  <si>
+    <t>越南战争结束</t>
+  </si>
+  <si>
+    <t>诚然舍费尔对音乐学院少有影响力，但是作为采样音乐的祖师爷，其影响遍布20世纪后半的流行音乐、电子音乐、科技舞曲</t>
+  </si>
+  <si>
+    <t>性手枪团员大都不按音乐修辞，也就是说他们只能演奏一种最简单的音乐。而非自觉地进行艺术形式的革新，在这种条件下性手枪能继续运行的唯一理由就是他们在大众传媒上继续惹祸，以达到最强的媒体震撼效果</t>
+  </si>
+  <si>
+    <t>小杉武久《Catch-Wave》
+灰野敬二解散Lost Aaraaff，开始弹奏吉他</t>
+  </si>
+  <si>
+    <t>富田勋获得格莱美奖</t>
+  </si>
+  <si>
+    <t>sound sculptures 声音雕塑系列装置开始启动。旧金山现代艺术博物馆《SFMOMA》
+Bill Fontana在日蚀日于澳洲原始森林做田野录音。
+比尔·封坦那的作品《瑞比利码头》（Kirribilli Wharf）是一个八声道的声音装置，声音是采于一个澳大利亚码头。</t>
+  </si>
+  <si>
     <t>结合过去日本作曲家的师承关系、创作受到的影响来源来进行推理，我们可以认为西方印象派和现代主义作曲家对日本作曲家的影响是巨大的</t>
   </si>
   <si>
@@ -1073,6 +1566,10 @@
   </si>
   <si>
     <t>村上龙《无限接近于透明的蓝》小说，描写青年男女寻求刺激的颓废生活。（也许受越战时期美国的青年吸毒现象影响传入）</t>
+  </si>
+  <si>
+    <t>Christopher Janney为每一层楼梯分别装上传感器，将动作信号驱动合成器，每一步对应一个音高，即Sound Stair声音阶梯
+Alvin Lucier《Music on a long thin wire》将波形经由放大器连接到一条细长钢索上，影响声音变化</t>
   </si>
   <si>
     <t>泽纳西斯自创的“数学教育与自动音乐中心”（77-84）为开端，以电子、电脑声音合成为主要创作方法</t>
@@ -1098,6 +1595,9 @@
     </r>
   </si>
   <si>
+    <t>文件式的展览主要展览艺术家的创作过程，难以再现的演出和装置材料，由于多少存在听觉之外的其他元素，从而被外界含混的成为“声音装置”之名</t>
+  </si>
+  <si>
     <t>YAMAHA生产合成器CS-80
 日本第一台国产吉他合成器GR-500</t>
   </si>
@@ -1106,6 +1606,9 @@
   </si>
   <si>
     <t>阿部薰服用过量安眠药逝世</t>
+  </si>
+  <si>
+    <t>Jean Tinguely音乐机器系列作品《元和声II Meta0Harmonie II》数十个滑轮、皮带组成，踩下踏板轮胎碾过电子琴键盘</t>
   </si>
   <si>
     <t>日本人站在美国人的立场上凝视亚洲</t>
@@ -1119,6 +1622,9 @@
     <t>日本对苏联入侵阿富汗实施制裁</t>
   </si>
   <si>
+    <t>SONY的TPS-L2 walkman随身听</t>
+  </si>
+  <si>
     <t>Maryanne Amacher开始《Music for Sound-Joined Rooms》她研究某个特别建筑的建筑学特点，然后为每个房间、走廊、楼梯创作“声音事件”。</t>
   </si>
   <si>
@@ -1138,30 +1644,58 @@
     <t>日本开始承担海上防卫，强化自卫队</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www1.etat.com/noisetw/noisenz1_03.htm   </t>
+  </si>
+  <si>
+    <t>Sound Art Foundation 成立，声音艺术一词诞生</t>
+  </si>
+  <si>
     <t>MIDI协议确立</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www1.etat.com/noisetw/noisenz1_03.htm   </t>
-  </si>
-  <si>
-    <t>Sound Art Foundation 成立，声音艺术一词诞生</t>
-  </si>
-  <si>
-    <t>Sound Art Foundation 在纽约雕塑中心举办 Sound/Art 展览（sound art 一词的由来）</t>
+    <t>82-85年刀根康尚开始《细胞音乐》表演，用光感应器连接Noise OSC识别投影上的中日本古诗词，发出有特定文法的噪音</t>
+  </si>
+  <si>
+    <t>Sound Art Foundation 在纽约雕塑中心举办 Sound/Art 展览（sound art 一词的由来）
+加拿大艺术家Robert Adrian以两台电话组成“立体声”，让维也纳与渥太华两地的艺术家同步合奏，此为网络同步演奏的鼻祖</t>
   </si>
   <si>
     <t>YAMAHA生产其代表产品DX7</t>
   </si>
   <si>
+    <t>SONY专业级随身听WM-D6C</t>
+  </si>
+  <si>
+    <t>Liz Phillips利用风速计收集到的风速变化来控制合成器参数</t>
+  </si>
+  <si>
+    <t>1986年德国、奥地利的媒体行动主义者与艺术家组成了《欧洲梵高电视》European Van Gogh TV，实验可供使用者直接使用的民主电视台</t>
+  </si>
+  <si>
+    <t>菲律宾地下电台在1986年推翻Ferdinand Marcos统治的行动中发挥了重要角色</t>
+  </si>
+  <si>
     <t>高柳昌行与John Zorn共演</t>
   </si>
   <si>
     <t>https://folkways.si.edu/join</t>
   </si>
   <si>
+    <t>《声音大桥：科隆-旧金山》，Fontana录制旧金山海边的声音传输到西德广播电台混合科隆教堂的声音播放，产生了微妙的虚拟现实感</t>
+  </si>
+  <si>
+    <t>居伊德波：后资本主义时代看似民主多元，充满活力的景观社会，其实上都是寂静社会。任何事件的发生都无法产生出足以改变体制的行动</t>
+  </si>
+  <si>
     <t>灰野敬二病愈后复出，将打击乐和舞踏引入其表演，与舞蹈家田中泯一同去欧洲巡演</t>
   </si>
   <si>
+    <t>Derrick May，Carl Craig等人用合成器采样器唱盘等在House的基础上加入来自非洲的复节奏，Techno诞生</t>
+  </si>
+  <si>
+    <t>网际网络全面商业化</t>
+  </si>
+  <si>
     <t>波斯湾战争</t>
   </si>
   <si>
@@ -1174,7 +1708,28 @@
     <t>Xjapan的《BLUE BLOOD》一般的被视为视觉系摇滚的起源</t>
   </si>
   <si>
+    <t>1990年代是虚拟合成软件发展的高潮，PD，Csound，Maxmsp，一切实体声音极其都可以转变为虚拟版本。比起实体机器，虚拟机器：1易得（开源、方便下载）2打破了学院/商业的分割</t>
+  </si>
+  <si>
+    <t>1990一柳慧《対流圈》马林巴x马特诺之波合奏曲</t>
+  </si>
+  <si>
+    <t>激浪派音乐家马克雷在东京与大友良英在内的音乐家以100台唱盘同步进行表演</t>
+  </si>
+  <si>
+    <t>1991年“爱菲克斯双生子”Aphex Twin（Richard James的别名）辍学当DJ，同时自学改装合成器</t>
+  </si>
+  <si>
     <t>苏联解体</t>
+  </si>
+  <si>
+    <t>Aphex Twin的音乐中融合了欧陆的电子音乐和具象音乐传统，普罗的拜仁朋克音乐和黑人舞曲节奏，极度平民化的生活和自己媒体形象的肆意玩笑，使他成为科技舞曲时代最具有代表性 明星和反明星</t>
+  </si>
+  <si>
+    <t>特雷门琴之父Lev Sergeyevich Termen去世</t>
+  </si>
+  <si>
+    <t>英国政府打击rave（锐舞），非正式场合百人以上蹦迪即为非法</t>
   </si>
   <si>
     <t>“现代音乐酷爱随机性，片段化，却极端依赖特定结构来生产随机性”，然而日本噪音音乐取消了淡入淡出，曲式研究</t>
@@ -1184,16 +1739,25 @@
 Merzbow噪音《Noisebryo》（性交噪音样态精神分析</t>
   </si>
   <si>
+    <t>在第三世界国家，“创作先于论述”的流程不但是移植的，并且是倒置的。资讯的引入先于本土作品的出现。也就是说第一代本土声音艺术创作是“声音艺术”一词召唤出来的结果，再往后才出现声音创作的本土论述，这是论述指认与否已经不太重要，因为艺术家已经按照西方提供的框架预先给自己的作品进行了分类</t>
+  </si>
+  <si>
     <t>阪神大地震</t>
   </si>
   <si>
     <t>第一届 Sonambiente 音乐节</t>
   </si>
   <si>
+    <t>Wrk在兵库县音乐厅展出《固有状态转位》是一个以展出空间本身素材的因地制宜作品，空间中久之令人不觉的驻波是该作品的唯一主题</t>
+  </si>
+  <si>
     <t>亚洲金融危机</t>
   </si>
   <si>
     <t>坂本龙一《BTTB》中Opus一曲纪念武满彻晚年创作的歌剧中获得的灵感</t>
+  </si>
+  <si>
+    <t>《Music From the ether:original works for the theremin》几年特雷门琴</t>
   </si>
   <si>
     <t>千年虫事件</t>
@@ -1941,11 +2505,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2002,9 +2566,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="19"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2044,6 +2619,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2060,35 +2649,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2138,9 +2698,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2148,7 +2723,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2169,24 +2744,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2203,6 +2778,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2275,7 +2856,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2287,7 +2958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,91 +2970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2395,13 +2982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2419,7 +3006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,31 +3018,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2877,6 +3458,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2897,26 +3498,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2955,152 +3536,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3221,9 +3802,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3284,30 +3871,51 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3341,7 +3949,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3368,7 +3976,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4549,107 +5157,107 @@
   </cols>
   <sheetData>
     <row r="3" ht="50" customHeight="1" spans="2:2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="94" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="2:4">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="95" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:4">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
     </row>
     <row r="10" ht="15" spans="2:4">
-      <c r="B10" s="88"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:4">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
     </row>
     <row r="12" ht="29.25" spans="2:4">
-      <c r="B12" s="88"/>
-      <c r="C12" s="88" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="98" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:4">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
     </row>
     <row r="14" ht="15" spans="2:4">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="98" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15" spans="2:4">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
     </row>
     <row r="16" ht="15" spans="2:4">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88" t="s">
+      <c r="B16" s="97"/>
+      <c r="C16" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="98" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:4">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88" t="s">
+      <c r="B17" s="97"/>
+      <c r="C17" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="98" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="15" spans="2:4">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
     </row>
     <row r="19" ht="15" spans="2:4">
-      <c r="B19" s="88"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="98" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4702,16 +5310,16 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A3" s="73">
+      <c r="A3" s="82">
         <v>1904</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -4721,10 +5329,10 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="74"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A4" s="75">
+      <c r="A4" s="84">
         <v>1905</v>
       </c>
       <c r="B4" s="12"/>
@@ -4732,10 +5340,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="76"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A5" s="75">
+      <c r="A5" s="84">
         <v>1906</v>
       </c>
       <c r="B5" s="12"/>
@@ -4747,10 +5355,10 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="76"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A6" s="75">
+      <c r="A6" s="84">
         <v>1907</v>
       </c>
       <c r="B6" s="12"/>
@@ -4758,62 +5366,62 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="76"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" ht="77.15" customHeight="1" spans="1:7">
-      <c r="A7" s="75">
+      <c r="A7" s="84">
         <v>1908</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="86" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="76"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" ht="50.6" customHeight="1" spans="1:7">
-      <c r="A8" s="75">
+      <c r="A8" s="84">
         <v>1909</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="86" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="76"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" ht="103.45" customHeight="1" spans="1:7">
-      <c r="A9" s="75">
+      <c r="A9" s="84">
         <v>1910</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="86" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="76"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" ht="50.6" customHeight="1" spans="1:7">
-      <c r="A10" s="75">
+      <c r="A10" s="84">
         <v>1911</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="86" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="76"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A11" s="75">
+      <c r="A11" s="84">
         <v>1912</v>
       </c>
       <c r="B11" s="12"/>
@@ -4821,10 +5429,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="76"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A12" s="75">
+      <c r="A12" s="84">
         <v>1913</v>
       </c>
       <c r="B12" s="12"/>
@@ -4832,10 +5440,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="85"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A13" s="75">
+      <c r="A13" s="84">
         <v>1914</v>
       </c>
       <c r="B13" s="12"/>
@@ -4843,10 +5451,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="76"/>
+      <c r="G13" s="85"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A14" s="75">
+      <c r="A14" s="84">
         <v>1915</v>
       </c>
       <c r="B14" s="12"/>
@@ -4854,36 +5462,36 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="85"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A15" s="75">
+      <c r="A15" s="84">
         <v>1916</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="76"/>
+      <c r="G15" s="85"/>
     </row>
     <row r="16" ht="36.35" customHeight="1" spans="1:7">
-      <c r="A16" s="75">
+      <c r="A16" s="84">
         <v>1917</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="76"/>
+      <c r="G16" s="85"/>
     </row>
     <row r="17" ht="48.2" customHeight="1" spans="1:7">
-      <c r="A17" s="75">
+      <c r="A17" s="84">
         <v>1918</v>
       </c>
       <c r="B17" s="12"/>
@@ -4891,10 +5499,10 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="76"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A18" s="75">
+      <c r="A18" s="84">
         <v>1919</v>
       </c>
       <c r="B18" s="12"/>
@@ -4902,10 +5510,10 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="76"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A19" s="75">
+      <c r="A19" s="84">
         <v>1920</v>
       </c>
       <c r="B19" s="12"/>
@@ -4913,10 +5521,10 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="76"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A20" s="75">
+      <c r="A20" s="84">
         <v>1921</v>
       </c>
       <c r="B20" s="12"/>
@@ -4924,10 +5532,10 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="76"/>
+      <c r="G20" s="85"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A21" s="75">
+      <c r="A21" s="84">
         <v>1922</v>
       </c>
       <c r="B21" s="12"/>
@@ -4935,10 +5543,10 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="76"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A22" s="75">
+      <c r="A22" s="84">
         <v>1923</v>
       </c>
       <c r="B22" s="12"/>
@@ -4946,23 +5554,23 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="76"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" ht="22.35" customHeight="1" spans="1:7">
-      <c r="A23" s="75">
+      <c r="A23" s="84">
         <v>1924</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="86" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="76"/>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A24" s="75">
+      <c r="A24" s="84">
         <v>1925</v>
       </c>
       <c r="B24" s="12"/>
@@ -4970,10 +5578,10 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="76"/>
+      <c r="G24" s="85"/>
     </row>
     <row r="25" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A25" s="75">
+      <c r="A25" s="84">
         <v>1926</v>
       </c>
       <c r="B25" s="12"/>
@@ -4981,10 +5589,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="85"/>
     </row>
     <row r="26" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A26" s="75">
+      <c r="A26" s="84">
         <v>1927</v>
       </c>
       <c r="B26" s="12"/>
@@ -4992,10 +5600,10 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="76"/>
+      <c r="G26" s="85"/>
     </row>
     <row r="27" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A27" s="75">
+      <c r="A27" s="84">
         <v>1928</v>
       </c>
       <c r="B27" s="12"/>
@@ -5003,10 +5611,10 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="76"/>
+      <c r="G27" s="85"/>
     </row>
     <row r="28" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A28" s="75">
+      <c r="A28" s="84">
         <v>1929</v>
       </c>
       <c r="B28" s="12"/>
@@ -5014,10 +5622,10 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="76"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A29" s="75">
+      <c r="A29" s="84">
         <v>1930</v>
       </c>
       <c r="B29" s="12"/>
@@ -5025,10 +5633,10 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="76"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A30" s="75">
+      <c r="A30" s="84">
         <v>1931</v>
       </c>
       <c r="B30" s="12"/>
@@ -5036,10 +5644,10 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="76"/>
+      <c r="G30" s="85"/>
     </row>
     <row r="31" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A31" s="75">
+      <c r="A31" s="84">
         <v>1932</v>
       </c>
       <c r="B31" s="12"/>
@@ -5047,10 +5655,10 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="76"/>
+      <c r="G31" s="85"/>
     </row>
     <row r="32" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A32" s="75">
+      <c r="A32" s="84">
         <v>1933</v>
       </c>
       <c r="B32" s="12"/>
@@ -5058,10 +5666,10 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A33" s="75">
+      <c r="A33" s="84">
         <v>1934</v>
       </c>
       <c r="B33" s="12"/>
@@ -5069,10 +5677,10 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="76"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A34" s="75">
+      <c r="A34" s="84">
         <v>1935</v>
       </c>
       <c r="B34" s="12"/>
@@ -5080,10 +5688,10 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="76"/>
+      <c r="G34" s="85"/>
     </row>
     <row r="35" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A35" s="75">
+      <c r="A35" s="84">
         <v>1936</v>
       </c>
       <c r="B35" s="12"/>
@@ -5091,10 +5699,10 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="85"/>
     </row>
     <row r="36" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A36" s="75">
+      <c r="A36" s="84">
         <v>1937</v>
       </c>
       <c r="B36" s="12"/>
@@ -5102,10 +5710,10 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="76"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A37" s="75">
+      <c r="A37" s="84">
         <v>1938</v>
       </c>
       <c r="B37" s="12"/>
@@ -5113,10 +5721,10 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="76"/>
+      <c r="G37" s="85"/>
     </row>
     <row r="38" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A38" s="75">
+      <c r="A38" s="84">
         <v>1939</v>
       </c>
       <c r="B38" s="12"/>
@@ -5124,10 +5732,10 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="76"/>
+      <c r="G38" s="85"/>
     </row>
     <row r="39" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A39" s="75">
+      <c r="A39" s="84">
         <v>1940</v>
       </c>
       <c r="B39" s="12"/>
@@ -5135,10 +5743,10 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="76"/>
+      <c r="G39" s="85"/>
     </row>
     <row r="40" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A40" s="75">
+      <c r="A40" s="84">
         <v>1941</v>
       </c>
       <c r="B40" s="12"/>
@@ -5146,10 +5754,10 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="76"/>
+      <c r="G40" s="85"/>
     </row>
     <row r="41" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A41" s="75">
+      <c r="A41" s="84">
         <v>1942</v>
       </c>
       <c r="B41" s="12"/>
@@ -5157,10 +5765,10 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="76"/>
+      <c r="G41" s="85"/>
     </row>
     <row r="42" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A42" s="75">
+      <c r="A42" s="84">
         <v>1943</v>
       </c>
       <c r="B42" s="12"/>
@@ -5168,10 +5776,10 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="76"/>
+      <c r="G42" s="85"/>
     </row>
     <row r="43" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A43" s="75">
+      <c r="A43" s="84">
         <v>1944</v>
       </c>
       <c r="B43" s="12"/>
@@ -5179,10 +5787,10 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="76"/>
+      <c r="G43" s="85"/>
     </row>
     <row r="44" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A44" s="75">
+      <c r="A44" s="84">
         <v>1945</v>
       </c>
       <c r="B44" s="12"/>
@@ -5190,10 +5798,10 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="76"/>
+      <c r="G44" s="85"/>
     </row>
     <row r="45" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A45" s="75">
+      <c r="A45" s="84">
         <v>1946</v>
       </c>
       <c r="B45" s="12"/>
@@ -5201,10 +5809,10 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="76"/>
+      <c r="G45" s="85"/>
     </row>
     <row r="46" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A46" s="75">
+      <c r="A46" s="84">
         <v>1947</v>
       </c>
       <c r="B46" s="12"/>
@@ -5212,10 +5820,10 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="76"/>
+      <c r="G46" s="85"/>
     </row>
     <row r="47" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A47" s="75">
+      <c r="A47" s="84">
         <v>1948</v>
       </c>
       <c r="B47" s="12"/>
@@ -5223,10 +5831,10 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="76"/>
+      <c r="G47" s="85"/>
     </row>
     <row r="48" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A48" s="75">
+      <c r="A48" s="84">
         <v>1949</v>
       </c>
       <c r="B48" s="12"/>
@@ -5234,10 +5842,10 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="76"/>
+      <c r="G48" s="85"/>
     </row>
     <row r="49" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A49" s="75">
+      <c r="A49" s="84">
         <v>1950</v>
       </c>
       <c r="B49" s="12"/>
@@ -5245,10 +5853,10 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="76"/>
+      <c r="G49" s="85"/>
     </row>
     <row r="50" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A50" s="75">
+      <c r="A50" s="84">
         <v>1951</v>
       </c>
       <c r="B50" s="12"/>
@@ -5256,10 +5864,10 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="76"/>
+      <c r="G50" s="85"/>
     </row>
     <row r="51" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A51" s="75">
+      <c r="A51" s="84">
         <v>1952</v>
       </c>
       <c r="B51" s="12"/>
@@ -5267,10 +5875,10 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="76"/>
+      <c r="G51" s="85"/>
     </row>
     <row r="52" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A52" s="75">
+      <c r="A52" s="84">
         <v>1953</v>
       </c>
       <c r="B52" s="12"/>
@@ -5278,23 +5886,23 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="76"/>
+      <c r="G52" s="85"/>
     </row>
     <row r="53" ht="36.6" customHeight="1" spans="1:7">
-      <c r="A53" s="75">
+      <c r="A53" s="84">
         <v>1954</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="86" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="76"/>
+      <c r="G53" s="85"/>
     </row>
     <row r="54" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A54" s="75">
+      <c r="A54" s="84">
         <v>1955</v>
       </c>
       <c r="B54" s="12"/>
@@ -5302,23 +5910,23 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="76"/>
+      <c r="G54" s="85"/>
     </row>
     <row r="55" ht="50.35" customHeight="1" spans="1:7">
-      <c r="A55" s="75">
+      <c r="A55" s="84">
         <v>1956</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="86" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="76"/>
+      <c r="G55" s="85"/>
     </row>
     <row r="56" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A56" s="75">
+      <c r="A56" s="84">
         <v>1957</v>
       </c>
       <c r="B56" s="12"/>
@@ -5326,10 +5934,10 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="76"/>
+      <c r="G56" s="85"/>
     </row>
     <row r="57" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A57" s="75">
+      <c r="A57" s="84">
         <v>1958</v>
       </c>
       <c r="B57" s="12"/>
@@ -5337,10 +5945,10 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="76"/>
+      <c r="G57" s="85"/>
     </row>
     <row r="58" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A58" s="75">
+      <c r="A58" s="84">
         <v>1959</v>
       </c>
       <c r="B58" s="12"/>
@@ -5348,26 +5956,26 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="76"/>
+      <c r="G58" s="85"/>
     </row>
     <row r="59" ht="46.35" customHeight="1" spans="1:7">
-      <c r="A59" s="75">
+      <c r="A59" s="84">
         <v>1960</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="89" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="76"/>
+      <c r="G59" s="85"/>
     </row>
     <row r="60" ht="50.35" customHeight="1" spans="1:7">
-      <c r="A60" s="75">
+      <c r="A60" s="84">
         <v>1961</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="86" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -5376,23 +5984,23 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="76"/>
+      <c r="G60" s="85"/>
     </row>
     <row r="61" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A61" s="75">
+      <c r="A61" s="84">
         <v>1962</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="86" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="76"/>
+      <c r="G61" s="85"/>
     </row>
     <row r="62" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A62" s="75">
+      <c r="A62" s="84">
         <v>1963</v>
       </c>
       <c r="B62" s="12"/>
@@ -5400,10 +6008,10 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="76"/>
+      <c r="G62" s="85"/>
     </row>
     <row r="63" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A63" s="75">
+      <c r="A63" s="84">
         <v>1964</v>
       </c>
       <c r="B63" s="12"/>
@@ -5411,10 +6019,10 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="76"/>
+      <c r="G63" s="85"/>
     </row>
     <row r="64" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A64" s="75">
+      <c r="A64" s="84">
         <v>1965</v>
       </c>
       <c r="B64" s="12"/>
@@ -5422,10 +6030,10 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="76"/>
+      <c r="G64" s="85"/>
     </row>
     <row r="65" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A65" s="75">
+      <c r="A65" s="84">
         <v>1966</v>
       </c>
       <c r="B65" s="12"/>
@@ -5433,10 +6041,10 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="76"/>
+      <c r="G65" s="85"/>
     </row>
     <row r="66" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A66" s="75">
+      <c r="A66" s="84">
         <v>1967</v>
       </c>
       <c r="B66" s="12"/>
@@ -5444,10 +6052,10 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="76"/>
+      <c r="G66" s="85"/>
     </row>
     <row r="67" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A67" s="75">
+      <c r="A67" s="84">
         <v>1968</v>
       </c>
       <c r="B67" s="12"/>
@@ -5455,10 +6063,10 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="76"/>
+      <c r="G67" s="85"/>
     </row>
     <row r="68" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A68" s="75">
+      <c r="A68" s="84">
         <v>1969</v>
       </c>
       <c r="B68" s="12"/>
@@ -5466,10 +6074,10 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="76"/>
+      <c r="G68" s="85"/>
     </row>
     <row r="69" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A69" s="75">
+      <c r="A69" s="84">
         <v>1970</v>
       </c>
       <c r="B69" s="12"/>
@@ -5477,10 +6085,10 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="76"/>
+      <c r="G69" s="85"/>
     </row>
     <row r="70" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A70" s="75">
+      <c r="A70" s="84">
         <v>1971</v>
       </c>
       <c r="B70" s="12"/>
@@ -5488,10 +6096,10 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="76"/>
+      <c r="G70" s="85"/>
     </row>
     <row r="71" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A71" s="75">
+      <c r="A71" s="84">
         <v>1972</v>
       </c>
       <c r="B71" s="12"/>
@@ -5499,10 +6107,10 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="76"/>
+      <c r="G71" s="85"/>
     </row>
     <row r="72" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A72" s="75">
+      <c r="A72" s="84">
         <v>1973</v>
       </c>
       <c r="B72" s="12"/>
@@ -5510,10 +6118,10 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="76"/>
+      <c r="G72" s="85"/>
     </row>
     <row r="73" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A73" s="75">
+      <c r="A73" s="84">
         <v>1974</v>
       </c>
       <c r="B73" s="12"/>
@@ -5521,10 +6129,10 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="76"/>
+      <c r="G73" s="85"/>
     </row>
     <row r="74" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A74" s="75">
+      <c r="A74" s="84">
         <v>1975</v>
       </c>
       <c r="B74" s="12"/>
@@ -5532,10 +6140,10 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="76"/>
+      <c r="G74" s="85"/>
     </row>
     <row r="75" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A75" s="75">
+      <c r="A75" s="84">
         <v>1976</v>
       </c>
       <c r="B75" s="12"/>
@@ -5543,10 +6151,10 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="76"/>
+      <c r="G75" s="85"/>
     </row>
     <row r="76" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A76" s="75">
+      <c r="A76" s="84">
         <v>1977</v>
       </c>
       <c r="B76" s="12"/>
@@ -5554,10 +6162,10 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="76"/>
+      <c r="G76" s="85"/>
     </row>
     <row r="77" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A77" s="75">
+      <c r="A77" s="84">
         <v>1978</v>
       </c>
       <c r="B77" s="12"/>
@@ -5565,10 +6173,10 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="76"/>
+      <c r="G77" s="85"/>
     </row>
     <row r="78" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A78" s="75">
+      <c r="A78" s="84">
         <v>1979</v>
       </c>
       <c r="B78" s="12"/>
@@ -5576,10 +6184,10 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="76"/>
+      <c r="G78" s="85"/>
     </row>
     <row r="79" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A79" s="75">
+      <c r="A79" s="84">
         <v>1980</v>
       </c>
       <c r="B79" s="12"/>
@@ -5587,10 +6195,10 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="76"/>
+      <c r="G79" s="85"/>
     </row>
     <row r="80" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A80" s="75">
+      <c r="A80" s="84">
         <v>1981</v>
       </c>
       <c r="B80" s="12"/>
@@ -5598,10 +6206,10 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="76"/>
+      <c r="G80" s="85"/>
     </row>
     <row r="81" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A81" s="75">
+      <c r="A81" s="84">
         <v>1982</v>
       </c>
       <c r="B81" s="12"/>
@@ -5609,10 +6217,10 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="76"/>
+      <c r="G81" s="85"/>
     </row>
     <row r="82" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A82" s="75">
+      <c r="A82" s="84">
         <v>1983</v>
       </c>
       <c r="B82" s="12"/>
@@ -5620,10 +6228,10 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="76"/>
+      <c r="G82" s="85"/>
     </row>
     <row r="83" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A83" s="75">
+      <c r="A83" s="84">
         <v>1984</v>
       </c>
       <c r="B83" s="12"/>
@@ -5631,10 +6239,10 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="76"/>
+      <c r="G83" s="85"/>
     </row>
     <row r="84" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A84" s="75">
+      <c r="A84" s="84">
         <v>1985</v>
       </c>
       <c r="B84" s="12"/>
@@ -5642,10 +6250,10 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="76"/>
+      <c r="G84" s="85"/>
     </row>
     <row r="85" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A85" s="75">
+      <c r="A85" s="84">
         <v>1986</v>
       </c>
       <c r="B85" s="12"/>
@@ -5653,10 +6261,10 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="76"/>
+      <c r="G85" s="85"/>
     </row>
     <row r="86" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A86" s="75">
+      <c r="A86" s="84">
         <v>1987</v>
       </c>
       <c r="B86" s="12"/>
@@ -5664,10 +6272,10 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="76"/>
+      <c r="G86" s="85"/>
     </row>
     <row r="87" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A87" s="75">
+      <c r="A87" s="84">
         <v>1988</v>
       </c>
       <c r="B87" s="12"/>
@@ -5675,10 +6283,10 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="76"/>
+      <c r="G87" s="85"/>
     </row>
     <row r="88" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A88" s="75">
+      <c r="A88" s="84">
         <v>1989</v>
       </c>
       <c r="B88" s="12"/>
@@ -5686,10 +6294,10 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="76"/>
+      <c r="G88" s="85"/>
     </row>
     <row r="89" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A89" s="75">
+      <c r="A89" s="84">
         <v>1990</v>
       </c>
       <c r="B89" s="12"/>
@@ -5697,10 +6305,10 @@
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="76"/>
+      <c r="G89" s="85"/>
     </row>
     <row r="90" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A90" s="75">
+      <c r="A90" s="84">
         <v>1991</v>
       </c>
       <c r="B90" s="12"/>
@@ -5708,10 +6316,10 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="76"/>
+      <c r="G90" s="85"/>
     </row>
     <row r="91" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A91" s="75">
+      <c r="A91" s="84">
         <v>1992</v>
       </c>
       <c r="B91" s="12"/>
@@ -5719,10 +6327,10 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="76"/>
+      <c r="G91" s="85"/>
     </row>
     <row r="92" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A92" s="75">
+      <c r="A92" s="84">
         <v>1993</v>
       </c>
       <c r="B92" s="12"/>
@@ -5730,10 +6338,10 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="76"/>
+      <c r="G92" s="85"/>
     </row>
     <row r="93" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A93" s="75">
+      <c r="A93" s="84">
         <v>1994</v>
       </c>
       <c r="B93" s="12"/>
@@ -5741,10 +6349,10 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="76"/>
+      <c r="G93" s="85"/>
     </row>
     <row r="94" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A94" s="75">
+      <c r="A94" s="84">
         <v>1995</v>
       </c>
       <c r="B94" s="12"/>
@@ -5752,10 +6360,10 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="76"/>
+      <c r="G94" s="85"/>
     </row>
     <row r="95" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A95" s="75">
+      <c r="A95" s="84">
         <v>1996</v>
       </c>
       <c r="B95" s="12"/>
@@ -5763,10 +6371,10 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="76"/>
+      <c r="G95" s="85"/>
     </row>
     <row r="96" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A96" s="75">
+      <c r="A96" s="84">
         <v>1997</v>
       </c>
       <c r="B96" s="12"/>
@@ -5774,10 +6382,10 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="76"/>
+      <c r="G96" s="85"/>
     </row>
     <row r="97" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A97" s="75">
+      <c r="A97" s="84">
         <v>1998</v>
       </c>
       <c r="B97" s="12"/>
@@ -5785,10 +6393,10 @@
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="76"/>
+      <c r="G97" s="85"/>
     </row>
     <row r="98" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A98" s="75">
+      <c r="A98" s="84">
         <v>1999</v>
       </c>
       <c r="B98" s="12"/>
@@ -5796,10 +6404,10 @@
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="76"/>
+      <c r="G98" s="85"/>
     </row>
     <row r="99" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A99" s="75">
+      <c r="A99" s="84">
         <v>2000</v>
       </c>
       <c r="B99" s="12"/>
@@ -5807,10 +6415,10 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="76"/>
+      <c r="G99" s="85"/>
     </row>
     <row r="100" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A100" s="75">
+      <c r="A100" s="84">
         <v>2001</v>
       </c>
       <c r="B100" s="12"/>
@@ -5818,10 +6426,10 @@
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="76"/>
+      <c r="G100" s="85"/>
     </row>
     <row r="101" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A101" s="75">
+      <c r="A101" s="84">
         <v>2002</v>
       </c>
       <c r="B101" s="12"/>
@@ -5829,10 +6437,10 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="76"/>
+      <c r="G101" s="85"/>
     </row>
     <row r="102" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A102" s="75">
+      <c r="A102" s="84">
         <v>2003</v>
       </c>
       <c r="B102" s="12"/>
@@ -5840,10 +6448,10 @@
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="76"/>
+      <c r="G102" s="85"/>
     </row>
     <row r="103" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A103" s="75">
+      <c r="A103" s="84">
         <v>2004</v>
       </c>
       <c r="B103" s="12"/>
@@ -5851,10 +6459,10 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="76"/>
+      <c r="G103" s="85"/>
     </row>
     <row r="104" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A104" s="75">
+      <c r="A104" s="84">
         <v>2005</v>
       </c>
       <c r="B104" s="12"/>
@@ -5862,10 +6470,10 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="76"/>
+      <c r="G104" s="85"/>
     </row>
     <row r="105" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A105" s="75">
+      <c r="A105" s="84">
         <v>2006</v>
       </c>
       <c r="B105" s="12"/>
@@ -5873,10 +6481,10 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="76"/>
+      <c r="G105" s="85"/>
     </row>
     <row r="106" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A106" s="75">
+      <c r="A106" s="84">
         <v>2007</v>
       </c>
       <c r="B106" s="12"/>
@@ -5884,10 +6492,10 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="76"/>
+      <c r="G106" s="85"/>
     </row>
     <row r="107" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A107" s="75">
+      <c r="A107" s="84">
         <v>2008</v>
       </c>
       <c r="B107" s="12"/>
@@ -5895,10 +6503,10 @@
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="76"/>
+      <c r="G107" s="85"/>
     </row>
     <row r="108" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A108" s="75">
+      <c r="A108" s="84">
         <v>2009</v>
       </c>
       <c r="B108" s="12"/>
@@ -5906,10 +6514,10 @@
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="76"/>
+      <c r="G108" s="85"/>
     </row>
     <row r="109" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A109" s="75">
+      <c r="A109" s="84">
         <v>2010</v>
       </c>
       <c r="B109" s="12"/>
@@ -5917,10 +6525,10 @@
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="76"/>
+      <c r="G109" s="85"/>
     </row>
     <row r="110" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A110" s="75">
+      <c r="A110" s="84">
         <v>2011</v>
       </c>
       <c r="B110" s="12"/>
@@ -5928,10 +6536,10 @@
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="76"/>
+      <c r="G110" s="85"/>
     </row>
     <row r="111" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A111" s="75">
+      <c r="A111" s="84">
         <v>2012</v>
       </c>
       <c r="B111" s="12"/>
@@ -5939,10 +6547,10 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="76"/>
+      <c r="G111" s="85"/>
     </row>
     <row r="112" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A112" s="75">
+      <c r="A112" s="84">
         <v>2013</v>
       </c>
       <c r="B112" s="12"/>
@@ -5950,10 +6558,10 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="76"/>
+      <c r="G112" s="85"/>
     </row>
     <row r="113" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A113" s="75">
+      <c r="A113" s="84">
         <v>2014</v>
       </c>
       <c r="B113" s="12"/>
@@ -5961,10 +6569,10 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="76"/>
+      <c r="G113" s="85"/>
     </row>
     <row r="114" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A114" s="75">
+      <c r="A114" s="84">
         <v>2015</v>
       </c>
       <c r="B114" s="12"/>
@@ -5972,10 +6580,10 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="76"/>
+      <c r="G114" s="85"/>
     </row>
     <row r="115" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A115" s="75">
+      <c r="A115" s="84">
         <v>2016</v>
       </c>
       <c r="B115" s="12"/>
@@ -5983,10 +6591,10 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="76"/>
+      <c r="G115" s="85"/>
     </row>
     <row r="116" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A116" s="75">
+      <c r="A116" s="84">
         <v>2017</v>
       </c>
       <c r="B116" s="12"/>
@@ -5994,10 +6602,10 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="76"/>
+      <c r="G116" s="85"/>
     </row>
     <row r="117" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A117" s="75">
+      <c r="A117" s="84">
         <v>2018</v>
       </c>
       <c r="B117" s="12"/>
@@ -6005,10 +6613,10 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="76"/>
+      <c r="G117" s="85"/>
     </row>
     <row r="118" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A118" s="75">
+      <c r="A118" s="84">
         <v>2019</v>
       </c>
       <c r="B118" s="12"/>
@@ -6016,10 +6624,10 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="76"/>
+      <c r="G118" s="85"/>
     </row>
     <row r="119" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A119" s="75">
+      <c r="A119" s="84">
         <v>2020</v>
       </c>
       <c r="B119" s="12"/>
@@ -6027,10 +6635,10 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="76"/>
+      <c r="G119" s="85"/>
     </row>
     <row r="120" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A120" s="75">
+      <c r="A120" s="84">
         <v>2021</v>
       </c>
       <c r="B120" s="12"/>
@@ -6038,18 +6646,18 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="76"/>
+      <c r="G120" s="85"/>
     </row>
     <row r="121" ht="20.05" customHeight="1" spans="1:7">
-      <c r="A121" s="81">
+      <c r="A121" s="90">
         <v>2022</v>
       </c>
-      <c r="B121" s="82"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="84"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6075,10 +6683,10 @@
   </sheetPr>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F51" sqref="F51"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="13.5"/>
@@ -6122,15 +6730,15 @@
       <c r="I1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="64"/>
-    </row>
-    <row r="2" ht="27" spans="1:12">
+      <c r="L1" s="72"/>
+    </row>
+    <row r="2" ht="81" spans="1:12">
       <c r="A2" s="39">
         <v>1909</v>
       </c>
@@ -6139,27 +6747,31 @@
         <v>42</v>
       </c>
       <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" ht="135" spans="1:6">
       <c r="A3" s="39">
         <v>1910</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
@@ -6167,98 +6779,107 @@
         <v>1911</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:8">
       <c r="A5" s="39">
         <v>1912</v>
       </c>
+      <c r="E5" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" ht="202.5" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="324" spans="1:6">
       <c r="A6" s="39">
         <v>1913</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:12">
+      <c r="B6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:12">
       <c r="A7" s="39">
         <v>1914</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="C7" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" ht="67.5" spans="1:6">
       <c r="A8" s="39">
         <v>1915</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>60</v>
+      <c r="C8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="148.5" spans="1:12">
       <c r="A9" s="39">
         <v>1916</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>65</v>
+      <c r="B9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>70</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -6271,16 +6892,18 @@
       <c r="A10" s="39">
         <v>1917</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>67</v>
+      <c r="D10" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -6289,39 +6912,43 @@
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" ht="81" spans="1:12">
+    <row r="11" ht="135" spans="1:12">
       <c r="A11" s="39">
         <v>1918</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="49"/>
+        <v>74</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" ht="27" spans="1:12">
       <c r="A12" s="39">
         <v>1919</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -6334,15 +6961,15 @@
         <v>1920</v>
       </c>
       <c r="B13" s="36"/>
-      <c r="C13" s="51" t="s">
-        <v>72</v>
+      <c r="C13" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="36"/>
-      <c r="E13" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>74</v>
+      <c r="E13" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -6357,11 +6984,11 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D14" s="36"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -6374,14 +7001,16 @@
         <v>1922</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="36"/>
+        <v>84</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+        <v>86</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -6389,18 +7018,25 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" ht="94.5" spans="1:12">
       <c r="A16" s="39">
         <v>1923</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>78</v>
+      <c r="B16" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+        <v>89</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>91</v>
+      </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -6408,19 +7044,21 @@
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" ht="40.5" spans="1:12">
+    <row r="17" ht="94.5" spans="1:12">
       <c r="A17" s="39">
         <v>1924</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="52"/>
+      <c r="B17" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="D17" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+        <v>94</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -6428,17 +7066,19 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" ht="27" spans="1:12">
+    <row r="18" ht="40.5" spans="1:12">
       <c r="A18" s="39">
         <v>1925</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="52"/>
+      <c r="B18" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="D18" s="36"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -6453,8 +7093,8 @@
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
@@ -6462,15 +7102,19 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" ht="40.5" spans="1:12">
       <c r="A20" s="39">
         <v>1927</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>98</v>
+      </c>
       <c r="D20" s="36"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -6478,18 +7122,22 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" ht="27" spans="1:12">
+    <row r="21" ht="54" spans="1:12">
       <c r="A21" s="39">
         <v>1928</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="D21" s="36"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -6500,15 +7148,15 @@
       <c r="A22" s="39">
         <v>1929</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="52"/>
+      <c r="B22" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="54"/>
       <c r="D22" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+        <v>103</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -6516,17 +7164,23 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" ht="27" spans="1:12">
+    <row r="23" ht="67.5" spans="1:12">
       <c r="A23" s="39">
         <v>1930</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>105</v>
+      </c>
       <c r="D23" s="36"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="51"/>
       <c r="G23" s="36" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -6534,64 +7188,70 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" ht="27" spans="1:12">
+    <row r="24" ht="108" spans="1:12">
       <c r="A24" s="39">
         <v>1931</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="C24" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="D24" s="36"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" ht="27" spans="1:12">
+    <row r="25" ht="54" spans="1:12">
       <c r="A25" s="39">
         <v>1932</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>111</v>
+      </c>
       <c r="D25" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+        <v>112</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="51" t="s">
-        <v>89</v>
+      <c r="H25" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" ht="94.5" spans="1:12">
+    <row r="26" ht="121.5" spans="1:12">
       <c r="A26" s="39">
         <v>1933</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="49"/>
+      <c r="B26" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="51"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -6602,15 +7262,15 @@
       <c r="A27" s="39">
         <v>1934</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>95</v>
+      <c r="B27" s="53" t="s">
+        <v>119</v>
       </c>
       <c r="C27" s="36"/>
-      <c r="D27" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="D27" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
@@ -6618,57 +7278,63 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" ht="54" spans="1:12">
+    <row r="28" ht="67.5" spans="1:12">
       <c r="A28" s="39">
         <v>1935</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="51" t="s">
-        <v>97</v>
+      <c r="B28" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="D28" s="36"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="36" t="s">
-        <v>98</v>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="53" t="s">
+        <v>123</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" ht="27" spans="1:12">
+    <row r="29" ht="108" spans="1:12">
       <c r="A29" s="39">
         <v>1936</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="36"/>
+        <v>124</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>125</v>
+      </c>
       <c r="D29" s="36"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="53" t="s">
-        <v>100</v>
+      <c r="H29" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" ht="54" spans="1:12">
       <c r="A30" s="39">
         <v>1937</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="53" t="s">
-        <v>101</v>
+      <c r="H30" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -6680,57 +7346,67 @@
         <v>1938</v>
       </c>
       <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>129</v>
+      </c>
       <c r="D31" s="36"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49" t="s">
-        <v>102</v>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="53" t="s">
-        <v>103</v>
+      <c r="H31" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" ht="40.5" spans="1:12">
+    <row r="32" ht="94.5" spans="1:12">
       <c r="A32" s="39">
         <v>1939</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C32" s="36"/>
-      <c r="D32" s="48" t="s">
-        <v>105</v>
+      <c r="D32" s="50" t="s">
+        <v>133</v>
       </c>
       <c r="E32" s="38"/>
-      <c r="F32" s="49"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="53" t="s">
-        <v>101</v>
+      <c r="H32" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" ht="121.5" spans="1:12">
       <c r="A33" s="39">
         <v>1940</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="53" t="s">
-        <v>101</v>
+      <c r="B33" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -6743,36 +7419,36 @@
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
-      <c r="D34" s="48" t="s">
-        <v>105</v>
+      <c r="D34" s="50" t="s">
+        <v>133</v>
       </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="49"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="53" t="s">
-        <v>101</v>
+      <c r="H34" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" ht="27" spans="1:12">
+    <row r="35" ht="67.5" spans="1:12">
       <c r="A35" s="39">
         <v>1942</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>105</v>
+        <v>138</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>139</v>
       </c>
       <c r="E35" s="38"/>
-      <c r="F35" s="49"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="53" t="s">
-        <v>101</v>
+      <c r="H35" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
@@ -6785,67 +7461,73 @@
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
-      <c r="D36" s="48" t="s">
-        <v>105</v>
+      <c r="D36" s="50" t="s">
+        <v>133</v>
       </c>
       <c r="E36" s="38"/>
-      <c r="F36" s="49"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="36"/>
-      <c r="H36" s="53" t="s">
-        <v>101</v>
+      <c r="H36" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" ht="54" spans="1:12">
+    <row r="37" ht="67.5" spans="1:12">
       <c r="A37" s="39">
         <v>1944</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="49"/>
+        <v>140</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>142</v>
+      </c>
       <c r="G37" s="36"/>
-      <c r="H37" s="53" t="s">
-        <v>108</v>
+      <c r="H37" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" ht="94.5" spans="1:12">
+    <row r="38" ht="121.5" spans="1:12">
       <c r="A38" s="39">
         <v>1945</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="49" t="s">
-        <v>112</v>
+        <v>145</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="53" t="s">
-        <v>115</v>
+        <v>149</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>151</v>
       </c>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -6858,18 +7540,18 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>117</v>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>153</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>119</v>
+        <v>154</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>155</v>
       </c>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -6879,48 +7561,50 @@
       <c r="A40" s="39">
         <v>1947</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="59"/>
+      <c r="B40" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="61"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
     </row>
-    <row r="41" ht="121.5" spans="1:12">
+    <row r="41" ht="162" spans="1:12">
       <c r="A41" s="39">
         <v>1948</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>161</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="60"/>
+        <v>162</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>164</v>
+      </c>
       <c r="H41" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>129</v>
+        <v>165</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>166</v>
       </c>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -6933,17 +7617,17 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="I42" s="53" t="s">
-        <v>133</v>
+        <v>167</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -6953,24 +7637,26 @@
       <c r="A43" s="39">
         <v>1950</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>138</v>
+      <c r="B43" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>176</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -6981,51 +7667,57 @@
       <c r="A44" s="39">
         <v>1951</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>141</v>
+      <c r="B44" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>179</v>
       </c>
       <c r="D44" s="36"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="36"/>
+      <c r="E44" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="I44" s="54"/>
+      <c r="J44" s="53" t="s">
+        <v>184</v>
+      </c>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
     </row>
-    <row r="45" ht="148.5" spans="1:12">
+    <row r="45" ht="229.5" spans="1:12">
       <c r="A45" s="39">
         <v>1952</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="52" t="s">
-        <v>148</v>
+      <c r="B45" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>189</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -7037,22 +7729,22 @@
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="36" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="48"/>
-      <c r="I46" s="52"/>
+        <v>193</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
@@ -7064,18 +7756,18 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H47" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="52" t="s">
-        <v>159</v>
+        <v>197</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>200</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -7085,24 +7777,32 @@
       <c r="A48" s="39">
         <v>1955</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
+      <c r="B48" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>202</v>
+      </c>
       <c r="D48" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="I48" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="J48" s="65" t="s">
-        <v>164</v>
+        <v>203</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48" s="73" t="s">
+        <v>209</v>
       </c>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
@@ -7112,21 +7812,21 @@
         <v>1956</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
+        <v>211</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="36" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="I49" s="53" t="s">
-        <v>169</v>
+        <v>213</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -7139,11 +7839,11 @@
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="36"/>
       <c r="H50" s="36" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
@@ -7154,39 +7854,47 @@
       <c r="A51" s="39">
         <v>1958</v>
       </c>
-      <c r="B51" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="49"/>
+      <c r="B51" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="36" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
     </row>
-    <row r="52" ht="40.5" spans="1:12">
+    <row r="52" ht="148.5" spans="1:12">
       <c r="A52" s="39">
         <v>1959</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="36"/>
+      <c r="E52" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" s="66" t="s">
+        <v>223</v>
+      </c>
       <c r="H52" s="36"/>
       <c r="I52" s="36" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -7196,79 +7904,85 @@
       <c r="A53" s="39">
         <v>1960</v>
       </c>
-      <c r="B53" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>177</v>
+      <c r="B53" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>181</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="67"/>
       <c r="H53" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="I53" s="52" t="s">
-        <v>183</v>
+        <v>230</v>
+      </c>
+      <c r="I53" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
     </row>
-    <row r="54" ht="135" spans="1:12">
+    <row r="54" ht="151" customHeight="1" spans="1:12">
       <c r="A54" s="39">
         <v>1961</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
+      <c r="B54" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="D54" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>186</v>
+        <v>234</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>236</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="H54" s="36"/>
-      <c r="I54" s="53" t="s">
-        <v>188</v>
+      <c r="I54" s="55" t="s">
+        <v>238</v>
       </c>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
     </row>
-    <row r="55" ht="351" spans="1:12">
+    <row r="55" ht="409.5" spans="1:12">
       <c r="A55" s="39">
         <v>1962</v>
       </c>
-      <c r="B55" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="61"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="52" t="s">
-        <v>191</v>
+      <c r="B55" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>243</v>
       </c>
       <c r="H55" s="36"/>
-      <c r="I55" s="36" t="s">
-        <v>192</v>
+      <c r="I55" s="55" t="s">
+        <v>244</v>
       </c>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
@@ -7279,16 +7993,18 @@
         <v>1963</v>
       </c>
       <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
+      <c r="C56" s="68" t="s">
+        <v>245</v>
+      </c>
       <c r="D56" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49" t="s">
-        <v>194</v>
+        <v>246</v>
+      </c>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
@@ -7300,27 +8016,29 @@
       <c r="A57" s="39">
         <v>1964</v>
       </c>
-      <c r="B57" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>200</v>
+      <c r="B57" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>254</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -7330,15 +8048,19 @@
       <c r="A58" s="39">
         <v>1965</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="36" t="s">
+        <v>257</v>
+      </c>
       <c r="C58" s="36"/>
-      <c r="D58" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="61"/>
-      <c r="F58" s="49"/>
+      <c r="D58" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" s="51"/>
       <c r="G58" s="36" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
@@ -7346,50 +8068,52 @@
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
     </row>
-    <row r="59" ht="121.5" spans="1:12">
+    <row r="59" ht="175.5" spans="1:12">
       <c r="A59" s="39">
         <v>1966</v>
       </c>
-      <c r="B59" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>206</v>
+      <c r="B59" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>262</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49" t="s">
-        <v>208</v>
+        <v>263</v>
+      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51" t="s">
+        <v>264</v>
       </c>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
       <c r="I59" s="36" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
     </row>
-    <row r="60" ht="94.5" spans="1:12">
+    <row r="60" ht="148.5" spans="1:12">
       <c r="A60" s="39">
         <v>1967</v>
       </c>
-      <c r="B60" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="52"/>
+      <c r="B60" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>267</v>
+      </c>
       <c r="D60" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49" t="s">
-        <v>212</v>
+        <v>268</v>
+      </c>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51" t="s">
+        <v>269</v>
       </c>
       <c r="G60" s="36"/>
       <c r="H60" s="36" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
@@ -7400,44 +8124,50 @@
       <c r="A61" s="39">
         <v>1968</v>
       </c>
-      <c r="B61" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
+      <c r="B61" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="36" t="s">
+        <v>274</v>
+      </c>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
     </row>
-    <row r="62" ht="283.5" spans="1:12">
+    <row r="62" ht="337.5" spans="1:12">
       <c r="A62" s="39">
         <v>1969</v>
       </c>
-      <c r="B62" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="B62" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E62" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
@@ -7446,23 +8176,26 @@
       <c r="A63" s="39">
         <v>1970</v>
       </c>
-      <c r="B63" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>224</v>
+      <c r="B63" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63" s="51" t="s">
+        <v>285</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
@@ -7473,23 +8206,25 @@
       <c r="A64" s="39">
         <v>1971</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="36" t="s">
+        <v>288</v>
+      </c>
       <c r="C64" s="36" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="D64" s="36"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49" t="s">
-        <v>228</v>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51" t="s">
+        <v>290</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
@@ -7499,37 +8234,43 @@
       <c r="A65" s="39">
         <v>1972</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="36" t="s">
+        <v>294</v>
+      </c>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="G65" s="52"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>296</v>
+      </c>
       <c r="H65" s="36" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" ht="67.5" spans="1:12">
       <c r="A66" s="39">
         <v>1973</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="I66" s="52"/>
+      <c r="E66" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="F66" s="51"/>
+      <c r="G66" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="I66" s="54"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
@@ -7538,19 +8279,23 @@
       <c r="A67" s="39">
         <v>1974</v>
       </c>
-      <c r="B67" s="36"/>
+      <c r="B67" s="34" t="s">
+        <v>301</v>
+      </c>
       <c r="C67" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="F67" s="49" t="s">
-        <v>238</v>
+        <v>302</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="F67" s="51" t="s">
+        <v>305</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="H67" s="36"/>
       <c r="I67" s="36"/>
@@ -7558,72 +8303,80 @@
       <c r="K67" s="36"/>
       <c r="L67" s="36"/>
     </row>
-    <row r="68" ht="54" spans="1:12">
+    <row r="68" ht="94.5" spans="1:12">
       <c r="A68" s="39">
         <v>1975</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="I68" s="52" t="s">
-        <v>243</v>
+      <c r="B68" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>313</v>
       </c>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
     </row>
-    <row r="69" ht="55.5" spans="1:12">
+    <row r="69" ht="148.5" spans="1:12">
       <c r="A69" s="39">
         <v>1976</v>
       </c>
-      <c r="B69" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="F69" s="49"/>
+      <c r="B69" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="F69" s="51"/>
       <c r="G69" s="36" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="H69" s="36"/>
       <c r="I69" s="36" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
     </row>
-    <row r="70" ht="54" spans="1:12">
+    <row r="70" ht="121.5" spans="1:12">
       <c r="A70" s="39">
         <v>1977</v>
       </c>
-      <c r="B70" s="36"/>
+      <c r="B70" s="36" t="s">
+        <v>318</v>
+      </c>
       <c r="C70" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="E70" s="61"/>
-      <c r="F70" s="49"/>
+        <v>319</v>
+      </c>
+      <c r="D70" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" s="51"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
       <c r="I70" s="36" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
@@ -7636,12 +8389,12 @@
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49" t="s">
-        <v>252</v>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51" t="s">
+        <v>323</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
@@ -7653,20 +8406,24 @@
       <c r="A72" s="39">
         <v>1979</v>
       </c>
-      <c r="B72" s="36"/>
+      <c r="B72" s="36" t="s">
+        <v>325</v>
+      </c>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
-      <c r="E72" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="49"/>
+      <c r="E72" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="51"/>
       <c r="G72" s="36" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="I72" s="36"/>
+        <v>328</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>329</v>
+      </c>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
@@ -7675,17 +8432,16 @@
       <c r="A73" s="39">
         <v>1980</v>
       </c>
-      <c r="B73" s="36"/>
+      <c r="B73" s="54" t="s">
+        <v>330</v>
+      </c>
       <c r="C73" s="36"/>
-      <c r="D73" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="F73" s="49"/>
+      <c r="E73" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="F73" s="51"/>
       <c r="G73" s="36" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
@@ -7700,58 +8456,59 @@
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="G74" s="52" t="s">
-        <v>261</v>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>334</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="I74" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="J74" s="65" t="s">
-        <v>264</v>
+        <v>335</v>
+      </c>
+      <c r="J74" s="73" t="s">
+        <v>336</v>
       </c>
       <c r="K74" s="36"/>
       <c r="L74" s="36"/>
     </row>
-    <row r="75" ht="27" spans="1:12">
+    <row r="75" ht="67.5" spans="1:12">
       <c r="A75" s="39">
         <v>1982</v>
       </c>
-      <c r="B75" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="52"/>
+      <c r="B75" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>338</v>
+      </c>
       <c r="D75" s="36"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="36"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="36" t="s">
+        <v>339</v>
+      </c>
       <c r="H75" s="36"/>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
     </row>
-    <row r="76" ht="40.5" spans="1:12">
+    <row r="76" ht="108" spans="1:12">
       <c r="A76" s="39">
         <v>1983</v>
       </c>
-      <c r="B76" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="C76" s="52"/>
+      <c r="B76" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" s="54"/>
       <c r="D76" s="36"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
       <c r="I76" s="36" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -7764,11 +8521,13 @@
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="36" t="s">
+        <v>342</v>
+      </c>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
@@ -7780,8 +8539,8 @@
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
@@ -7789,35 +8548,43 @@
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
     </row>
-    <row r="79" ht="27" spans="1:12">
+    <row r="79" ht="67.5" spans="1:12">
       <c r="A79" s="39">
         <v>1986</v>
       </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
+      <c r="B79" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
       <c r="I79" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="J79" s="68" t="s">
-        <v>269</v>
+        <v>346</v>
+      </c>
+      <c r="J79" s="77" t="s">
+        <v>347</v>
       </c>
       <c r="K79" s="36"/>
       <c r="L79" s="36"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" ht="54" spans="1:12">
       <c r="A80" s="39">
         <v>1987</v>
       </c>
-      <c r="B80" s="36"/>
+      <c r="B80" s="36" t="s">
+        <v>348</v>
+      </c>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -7825,17 +8592,19 @@
       <c r="K80" s="36"/>
       <c r="L80" s="36"/>
     </row>
-    <row r="81" ht="40.5" spans="1:12">
+    <row r="81" ht="54" spans="1:12">
       <c r="A81" s="39">
         <v>1988</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
+      <c r="E81" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="F81" s="51"/>
       <c r="G81" s="36" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
@@ -7843,23 +8612,27 @@
       <c r="K81" s="36"/>
       <c r="L81" s="36"/>
     </row>
-    <row r="82" ht="40.5" spans="1:12">
+    <row r="82" ht="54" spans="1:12">
       <c r="A82" s="39">
         <v>1989</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
+      <c r="B82" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>352</v>
+      </c>
       <c r="D82" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E82" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F82" s="49" t="s">
-        <v>273</v>
+        <v>353</v>
+      </c>
+      <c r="E82" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="F82" s="51" t="s">
+        <v>355</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
@@ -7867,33 +8640,43 @@
       <c r="K82" s="36"/>
       <c r="L82" s="36"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" ht="67.5" spans="1:12">
       <c r="A83" s="39">
         <v>1990</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="36"/>
+      <c r="E83" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="F83" s="51"/>
+      <c r="G83" s="36" t="s">
+        <v>358</v>
+      </c>
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="36"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" ht="67.5" spans="1:12">
       <c r="A84" s="39">
         <v>1991</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
+      <c r="B84" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>360</v>
+      </c>
       <c r="D84" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
+        <v>361</v>
+      </c>
+      <c r="E84" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="F84" s="51"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
@@ -7908,8 +8691,8 @@
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
       <c r="D85" s="36"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
@@ -7917,15 +8700,17 @@
       <c r="K85" s="36"/>
       <c r="L85" s="36"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" ht="27" spans="1:12">
       <c r="A86" s="39">
         <v>1993</v>
       </c>
-      <c r="B86" s="36"/>
+      <c r="B86" s="36" t="s">
+        <v>363</v>
+      </c>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
@@ -7939,13 +8724,15 @@
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49" t="s">
-        <v>276</v>
+      <c r="D87" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51" t="s">
+        <v>365</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
@@ -7953,36 +8740,40 @@
       <c r="K87" s="36"/>
       <c r="L87" s="36"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" ht="94.5" spans="1:12">
       <c r="A88" s="39">
         <v>1995</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="E88" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="F88" s="51"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="36"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" ht="67.5" spans="1:12">
       <c r="A89" s="39">
         <v>1996</v>
       </c>
-      <c r="B89" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" s="52"/>
+      <c r="B89" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" s="54"/>
       <c r="D89" s="36"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="36"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="36" t="s">
+        <v>370</v>
+      </c>
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
@@ -7996,10 +8787,10 @@
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
       <c r="D90" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
+        <v>371</v>
+      </c>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
@@ -8014,10 +8805,10 @@
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
       <c r="G91" s="36" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
@@ -8029,22 +8820,24 @@
       <c r="A92" s="39">
         <v>1999</v>
       </c>
-      <c r="B92" s="36"/>
+      <c r="B92" s="36" t="s">
+        <v>373</v>
+      </c>
       <c r="C92" s="36"/>
       <c r="D92" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="I92" s="52" t="s">
-        <v>284</v>
+        <v>374</v>
+      </c>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="I92" s="54" t="s">
+        <v>376</v>
       </c>
       <c r="J92" s="36"/>
-      <c r="K92" s="68" t="s">
-        <v>285</v>
+      <c r="K92" s="77" t="s">
+        <v>377</v>
       </c>
       <c r="L92" s="36"/>
     </row>
@@ -8052,19 +8845,19 @@
       <c r="A93" s="39">
         <v>2000</v>
       </c>
-      <c r="B93" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" s="52"/>
+      <c r="B93" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C93" s="54"/>
       <c r="D93" s="36"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="K93" s="52" t="s">
-        <v>287</v>
+      <c r="K93" s="54" t="s">
+        <v>379</v>
       </c>
       <c r="L93" s="36"/>
     </row>
@@ -8074,24 +8867,24 @@
       </c>
       <c r="B94" s="36"/>
       <c r="C94" s="36" t="s">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="52" t="s">
-        <v>290</v>
+        <v>381</v>
+      </c>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="54" t="s">
+        <v>382</v>
       </c>
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="K94" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="L94" s="68" t="s">
-        <v>292</v>
+      <c r="K94" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="L94" s="77" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="95" ht="54" spans="1:12">
@@ -8101,15 +8894,15 @@
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
       <c r="D95" s="36"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
       <c r="G95" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="H95" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="I95" s="52"/>
+        <v>385</v>
+      </c>
+      <c r="H95" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="I95" s="54"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="36"/>
@@ -8121,18 +8914,18 @@
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
       <c r="D96" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
+        <v>387</v>
+      </c>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
-      <c r="J96" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="K96" s="52" t="s">
-        <v>297</v>
+      <c r="J96" s="77" t="s">
+        <v>388</v>
+      </c>
+      <c r="K96" s="54" t="s">
+        <v>389</v>
       </c>
       <c r="L96" s="36"/>
     </row>
@@ -8143,12 +8936,12 @@
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
       <c r="I97" s="36" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
@@ -8161,8 +8954,8 @@
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
       <c r="I98" s="36"/>
@@ -8177,12 +8970,12 @@
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
       <c r="D99" s="36"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
       <c r="I99" s="36" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
@@ -8193,14 +8986,14 @@
         <v>2007</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="D100" s="52"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="49"/>
+        <v>393</v>
+      </c>
+      <c r="D100" s="54"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="51"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -8212,14 +9005,14 @@
       <c r="A101" s="39">
         <v>2008</v>
       </c>
-      <c r="B101" s="52" t="s">
-        <v>302</v>
+      <c r="B101" s="54" t="s">
+        <v>394</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="E101" s="61"/>
-      <c r="F101" s="49"/>
+        <v>395</v>
+      </c>
+      <c r="E101" s="64"/>
+      <c r="F101" s="51"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
@@ -8234,10 +9027,10 @@
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
       <c r="G102" s="36" t="s">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
@@ -8250,11 +9043,11 @@
         <v>2010</v>
       </c>
       <c r="B103" s="36"/>
-      <c r="C103" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="E103" s="61"/>
-      <c r="F103" s="49"/>
+      <c r="C103" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="E103" s="64"/>
+      <c r="F103" s="51"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
       <c r="I103" s="36"/>
@@ -8269,11 +9062,11 @@
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36" t="s">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
@@ -8287,14 +9080,14 @@
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
       <c r="G105" s="36" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="H105" s="36"/>
       <c r="I105" s="36" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
@@ -8304,21 +9097,21 @@
       <c r="A106" s="39">
         <v>2013</v>
       </c>
-      <c r="B106" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="C106" s="52"/>
+      <c r="B106" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="C106" s="54"/>
       <c r="D106" s="36"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
-      <c r="J106" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="K106" s="52" t="s">
-        <v>311</v>
+      <c r="J106" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="K106" s="54" t="s">
+        <v>403</v>
       </c>
       <c r="L106" s="36"/>
     </row>
@@ -8329,8 +9122,8 @@
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
       <c r="D107" s="36"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
       <c r="G107" s="36"/>
       <c r="H107" s="36"/>
       <c r="I107" s="36"/>
@@ -8342,21 +9135,21 @@
       <c r="A108" s="39">
         <v>2015</v>
       </c>
-      <c r="B108" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="E108" s="61"/>
-      <c r="F108" s="49"/>
+      <c r="B108" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E108" s="64"/>
+      <c r="F108" s="51"/>
       <c r="G108" s="36"/>
       <c r="H108" s="36" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
       <c r="I108" s="36"/>
-      <c r="J108" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="K108" s="52" t="s">
-        <v>315</v>
+      <c r="J108" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="K108" s="54" t="s">
+        <v>407</v>
       </c>
       <c r="L108" s="36"/>
     </row>
@@ -8367,8 +9160,8 @@
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36"/>
       <c r="I109" s="36"/>
@@ -8383,8 +9176,8 @@
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
       <c r="G110" s="36"/>
       <c r="H110" s="36"/>
       <c r="I110" s="36"/>
@@ -8399,8 +9192,8 @@
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
       <c r="G111" s="36"/>
       <c r="H111" s="36"/>
       <c r="I111" s="36"/>
@@ -8415,8 +9208,8 @@
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
       <c r="G112" s="36"/>
       <c r="H112" s="36"/>
       <c r="I112" s="36"/>
@@ -8431,14 +9224,14 @@
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
       <c r="G113" s="36"/>
       <c r="H113" s="36"/>
       <c r="I113" s="36"/>
       <c r="J113" s="36"/>
-      <c r="K113" s="52" t="s">
-        <v>316</v>
+      <c r="K113" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="L113" s="36"/>
     </row>
@@ -8449,8 +9242,8 @@
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
       <c r="G114" s="36"/>
       <c r="H114" s="36"/>
       <c r="I114" s="36"/>
@@ -8459,12 +9252,12 @@
       <c r="L114" s="36"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="69"/>
+      <c r="A115" s="78"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
       <c r="D115" s="36"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
       <c r="G115" s="36"/>
       <c r="H115" s="36"/>
       <c r="I115" s="36"/>
@@ -8549,43 +9342,43 @@
     </row>
     <row r="2" ht="24.55" customHeight="1" spans="1:12">
       <c r="A2" s="13" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>322</v>
+        <v>414</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="3" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" ht="24.55" customHeight="1" spans="1:12">
       <c r="A3" s="14" t="s">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -8604,59 +9397,59 @@
     </row>
     <row r="4" ht="24.35" customHeight="1" spans="1:12">
       <c r="A4" s="19" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D4" s="22">
         <v>19010</v>
       </c>
       <c r="E4" s="23">
         <f ca="1" t="shared" ref="E4:E37" si="0">TODAY()</f>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F4" s="24">
         <f ca="1">DATEDIF(D4,$E4,"Y")</f>
         <v>68</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" ht="24.35" customHeight="1" spans="1:12">
       <c r="A5" s="19" t="s">
-        <v>334</v>
+        <v>426</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D5" s="22">
         <v>24296</v>
       </c>
       <c r="E5" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F5" s="24">
         <f ca="1">DATEDIF(D5,$E5,"Y")</f>
         <v>54</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
@@ -8666,10 +9459,10 @@
     </row>
     <row r="6" ht="40.65" customHeight="1" spans="1:12">
       <c r="A6" s="27" t="s">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="26"/>
@@ -8679,13 +9472,13 @@
         <v>120</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -8693,7 +9486,7 @@
     </row>
     <row r="7" ht="24.35" customHeight="1" spans="1:12">
       <c r="A7" s="27" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="28"/>
@@ -8712,42 +9505,42 @@
     </row>
     <row r="8" ht="34.35" customHeight="1" spans="1:12">
       <c r="A8" s="19" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>342</v>
+        <v>434</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D8" s="22">
         <v>21641</v>
       </c>
       <c r="E8" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F8" s="24">
         <f ca="1">DATEDIF(D8,$E8,"Y")</f>
         <v>61</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" ht="44.05" customHeight="1" spans="1:12">
       <c r="A9" s="19" t="s">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="22">
@@ -8761,47 +9554,47 @@
         <v>68</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>346</v>
+        <v>438</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="7" t="s">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" ht="24.35" customHeight="1" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D10" s="22">
         <v>12785</v>
       </c>
       <c r="E10" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F10" s="24">
         <f ca="1">DATEDIF(D10,$E10,"Y")</f>
         <v>85</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>351</v>
+        <v>443</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -8809,7 +9602,7 @@
     </row>
     <row r="11" ht="24.35" customHeight="1" spans="1:12">
       <c r="A11" s="27" t="s">
-        <v>353</v>
+        <v>445</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="28"/>
@@ -8828,7 +9621,7 @@
     </row>
     <row r="12" ht="24.35" customHeight="1" spans="1:12">
       <c r="A12" s="27" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="28"/>
@@ -8847,7 +9640,7 @@
     </row>
     <row r="13" ht="24.35" customHeight="1" spans="1:12">
       <c r="A13" s="19" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="28"/>
@@ -8863,15 +9656,15 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" ht="24.35" customHeight="1" spans="1:12">
       <c r="A14" s="27" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="22">
@@ -8879,14 +9672,14 @@
       </c>
       <c r="E14" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F14" s="24">
         <f ca="1" t="shared" ref="F14:F22" si="1">DATEDIF(D14,$E14,"Y")</f>
         <v>81</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -8896,27 +9689,27 @@
     </row>
     <row r="15" ht="24.35" customHeight="1" spans="1:12">
       <c r="A15" s="27" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D15" s="22">
         <v>16021</v>
       </c>
       <c r="E15" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F15" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -8926,27 +9719,27 @@
     </row>
     <row r="16" ht="24.35" customHeight="1" spans="1:12">
       <c r="A16" s="27" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>362</v>
+        <v>454</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D16" s="22">
         <v>19117</v>
       </c>
       <c r="E16" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F16" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -8956,27 +9749,27 @@
     </row>
     <row r="17" ht="24.35" customHeight="1" spans="1:12">
       <c r="A17" s="27" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>365</v>
+        <v>457</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D17" s="22">
         <v>27988</v>
       </c>
       <c r="E17" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F17" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -8986,10 +9779,10 @@
     </row>
     <row r="18" ht="24.35" customHeight="1" spans="1:12">
       <c r="A18" s="19" t="s">
-        <v>366</v>
+        <v>458</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="22">
@@ -9011,27 +9804,27 @@
     </row>
     <row r="19" ht="24.35" customHeight="1" spans="1:12">
       <c r="A19" s="27" t="s">
-        <v>368</v>
+        <v>460</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D19" s="22">
         <v>14977</v>
       </c>
       <c r="E19" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F19" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -9041,10 +9834,10 @@
     </row>
     <row r="20" ht="24.35" customHeight="1" spans="1:12">
       <c r="A20" s="27" t="s">
-        <v>371</v>
+        <v>463</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>372</v>
+        <v>464</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="22">
@@ -9058,7 +9851,7 @@
         <v>67</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -9068,45 +9861,45 @@
     </row>
     <row r="21" ht="24.35" customHeight="1" spans="1:12">
       <c r="A21" s="19" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D21" s="22">
         <v>20808</v>
       </c>
       <c r="E21" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F21" s="24">
         <f ca="1" t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" ht="24.35" customHeight="1" spans="1:12">
       <c r="A22" s="27" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D22" s="22">
         <v>2651</v>
@@ -9127,11 +9920,11 @@
     </row>
     <row r="23" ht="24.35" customHeight="1" spans="1:12">
       <c r="A23" s="27" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -9148,11 +9941,11 @@
     </row>
     <row r="24" ht="24.35" customHeight="1" spans="1:12">
       <c r="A24" s="27" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -9169,11 +9962,11 @@
     </row>
     <row r="25" ht="24.35" customHeight="1" spans="1:12">
       <c r="A25" s="27" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -9190,11 +9983,11 @@
     </row>
     <row r="26" ht="24.35" customHeight="1" spans="1:12">
       <c r="A26" s="19" t="s">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -9211,11 +10004,11 @@
     </row>
     <row r="27" ht="24.35" customHeight="1" spans="1:12">
       <c r="A27" s="19" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -9229,16 +10022,16 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="7" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" ht="24.35" customHeight="1" spans="1:12">
       <c r="A28" s="27" t="s">
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -9255,13 +10048,13 @@
     </row>
     <row r="29" ht="24.35" customHeight="1" spans="1:12">
       <c r="A29" s="27" t="s">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -9278,13 +10071,13 @@
     </row>
     <row r="30" ht="24.35" customHeight="1" spans="1:12">
       <c r="A30" s="19" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -9301,13 +10094,13 @@
     </row>
     <row r="31" ht="40.65" customHeight="1" spans="1:12">
       <c r="A31" s="27" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D31" s="22">
         <v>11667</v>
@@ -9318,13 +10111,13 @@
         <v>88</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>393</v>
+        <v>485</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -9332,10 +10125,10 @@
     </row>
     <row r="32" ht="24.35" customHeight="1" spans="1:12">
       <c r="A32" s="19" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>395</v>
+        <v>487</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="26"/>
@@ -9346,7 +10139,7 @@
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="25" t="s">
-        <v>396</v>
+        <v>488</v>
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="6"/>
@@ -9355,10 +10148,10 @@
     </row>
     <row r="33" ht="24.35" customHeight="1" spans="1:12">
       <c r="A33" s="19" t="s">
-        <v>397</v>
+        <v>489</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="22">
@@ -9372,7 +10165,7 @@
         <v>91</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -9382,7 +10175,7 @@
     </row>
     <row r="34" ht="24.35" customHeight="1" spans="1:12">
       <c r="A34" s="27" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="28"/>
@@ -9401,10 +10194,10 @@
     </row>
     <row r="35" ht="39.95" customHeight="1" spans="1:12">
       <c r="A35" s="30" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="22">
@@ -9423,12 +10216,12 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="7" t="s">
-        <v>403</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" ht="24.35" customHeight="1" spans="1:12">
       <c r="A36" s="27" t="s">
-        <v>404</v>
+        <v>496</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="28"/>
@@ -9448,17 +10241,17 @@
     <row r="37" ht="50.95" customHeight="1" spans="1:12">
       <c r="A37" s="32"/>
       <c r="B37" s="20" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D37" s="22">
         <v>28126</v>
       </c>
       <c r="E37" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="F37" s="24">
         <f ca="1">DATEDIF(D37,$E37,"Y")</f>
@@ -9468,17 +10261,17 @@
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="7" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
     <row r="38" ht="24.35" customHeight="1" spans="1:12">
       <c r="A38" s="27" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="26"/>
@@ -9496,13 +10289,13 @@
     </row>
     <row r="39" ht="32.05" customHeight="1" spans="1:12">
       <c r="A39" s="19" t="s">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D39" s="22">
         <v>25076</v>
@@ -9513,25 +10306,25 @@
         <v>52</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="7" t="s">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
     <row r="40" ht="24.35" customHeight="1" spans="1:12">
       <c r="A40" s="19" t="s">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>413</v>
+        <v>505</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D40" s="22">
         <v>19436</v>
@@ -9542,10 +10335,10 @@
         <v>67</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="6"/>
@@ -9554,13 +10347,13 @@
     </row>
     <row r="41" ht="24.35" customHeight="1" spans="1:12">
       <c r="A41" s="33" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D41" s="22">
         <v>13298</v>
@@ -9581,7 +10374,7 @@
     </row>
     <row r="42" ht="24.35" customHeight="1" spans="1:12">
       <c r="A42" s="33" t="s">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="28"/>
@@ -9662,25 +10455,25 @@
     </row>
     <row r="2" ht="34.55" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>421</v>
+        <v>513</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>422</v>
+        <v>514</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -9688,19 +10481,19 @@
     </row>
     <row r="3" ht="36.8" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>426</v>
+        <v>518</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -9854,49 +10647,49 @@
     </row>
     <row r="2" ht="22.35" customHeight="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" ht="22.35" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>440</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>441</v>
+        <v>533</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -9963,26 +10756,26 @@
     </row>
     <row r="2" ht="35.1" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>445</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" ht="34.75" customHeight="1" spans="1:4">
